--- a/Doc/Specyfikacja.xlsx
+++ b/Doc/Specyfikacja.xlsx
@@ -5,20 +5,27 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="427" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="431" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Contractors" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Commodities" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Invoices payments" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Invoices" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Sets components" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Reservations" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Sales representatives" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Delivery methods" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Payments methods" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Orders patterns" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Orders responses" sheetId="11" state="visible" r:id="rId12"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="374">
   <si>
     <t>Atrybut</t>
   </si>
@@ -45,19 +52,19 @@
         &lt;xs:element name="CONTRACTOR"&gt;
           &lt;xs:complexType&gt;
             &lt;xs:sequence&gt;
-              &lt;xs:element type="xs:int" name="CUSTOMER_NUMBER"/&gt;
-              &lt;xs:element type="xs:int" name="PAYER_NUMBER"/&gt;
+              &lt;xs:element type="xs:string" name="CUSTOMER_NUMBER"/&gt;
+              &lt;xs:element type="xs:string" name="PAYER_NUMBER"/&gt;
               &lt;xs:element type="xs:string" name="NAME"/&gt;
               &lt;xs:element type="xs:string" name="SHORT_NAME"/&gt;
-              &lt;xs:element type="xs:long" name="NIP"/&gt;
+              &lt;xs:element type="xs:string" name="NIP"/&gt;
               &lt;xs:element type="xs:string" name="ORDER_BLOCKADE"/&gt;
               &lt;xs:element type="xs:string" name="ACTIVE"/&gt;
               &lt;xs:element type="xs:string" name="IS_PAYER"/&gt;
               &lt;xs:element type="xs:string" name="IS_RECIEVER"/&gt;
-              &lt;xs:element type="xs:int" name="PHONE"/&gt;
-              &lt;xs:element type="xs:int" name="FAX"/&gt;
+              &lt;xs:element type="xs:string" name="PHONE"/&gt;
+              &lt;xs:element type="xs:string" name="FAX"/&gt;
               &lt;xs:element type="xs:string" name="EMAIL"/&gt;
-              &lt;xs:element type="xs:int" name="CREDIT_LIMIT"/&gt;
+              &lt;xs:element type="xs:long" name="CREDIT_LIMIT"/&gt;
               &lt;xs:element type="xs:string" name="REPRESENTATIVE"/&gt;
               &lt;xs:element type="xs:string" name="DEFAULT_FINANCING_METHOD"/&gt;
               &lt;xs:element name="LEGAL_ADDRESSES"&gt;
@@ -68,7 +75,7 @@
                         &lt;xs:sequence&gt;
                           &lt;xs:element type="xs:string" name="STREET"/&gt;
                           &lt;xs:element type="xs:string" name="HOUSE_NUMBER"/&gt;
-                          &lt;xs:element type="xs:byte" name="FLAT_NUMBER"/&gt;
+                          &lt;xs:element type="xs:string" name="FLAT_NUMBER"/&gt;
                           &lt;xs:element type="xs:string" name="CITY"/&gt;
                           &lt;xs:element type="xs:string" name="POST_CODE"/&gt;
                         &lt;/xs:sequence&gt;
@@ -85,7 +92,7 @@
                         &lt;xs:sequence&gt;
                           &lt;xs:element type="xs:string" name="STREET"/&gt;
                           &lt;xs:element type="xs:string" name="HOUSE_NUMBER"/&gt;
-                          &lt;xs:element type="xs:byte" name="FLAT_NUMBER"/&gt;
+                          &lt;xs:element type="xs:string" name="FLAT_NUMBER"/&gt;
                           &lt;xs:element type="xs:string" name="CITY"/&gt;
                           &lt;xs:element type="xs:string" name="POST_CODE"/&gt;
                         &lt;/xs:sequence&gt;
@@ -103,13 +110,13 @@
 &lt;/xs:schema&gt;</t>
   </si>
   <si>
-    <t>  &lt;CONTRACTOR&gt;</t>
+    <t>&lt;CONTRACTOR&gt;</t>
   </si>
   <si>
     <t>Nagłówek kontrahenta</t>
   </si>
   <si>
-    <t>    &lt;CUSTOMER_NUMBER&gt;70870&lt;/CUSTOMER_NUMBER&gt;</t>
+    <t>&lt;CUSTOMER_NUMBER&gt;70870&lt;/CUSTOMER_NUMBER&gt;</t>
   </si>
   <si>
     <t>VARCHAR2(20)</t>
@@ -118,13 +125,13 @@
     <t>Unikalny symbol kontrahneta</t>
   </si>
   <si>
-    <t>    &lt;PAYER_NUMBER&gt;70870&lt;/PAYER_NUMBER&gt;</t>
+    <t>&lt;PAYER_NUMBER&gt;70870&lt;/PAYER_NUMBER&gt;</t>
   </si>
   <si>
     <t>Unikalny symbol płatnika</t>
   </si>
   <si>
-    <t>    &lt;NAME&gt;TELCOM MARCIN NAPIERAŁA&lt;/NAME&gt;</t>
+    <t>&lt;NAME&gt;TELCOM MARCIN NAPIERAŁA&lt;/NAME&gt;</t>
   </si>
   <si>
     <t>VARCHAR2(200)</t>
@@ -133,7 +140,7 @@
     <t>Nazwa kontrahenta</t>
   </si>
   <si>
-    <t>    &lt;SHORT_NAME&gt;TELCOM MARCIN NAPIERAŁA&lt;/SHORT_NAME&gt;</t>
+    <t>&lt;SHORT_NAME&gt;TELCOM MARCIN NAPIERAŁA&lt;/SHORT_NAME&gt;</t>
   </si>
   <si>
     <t>VARCHAR2(60)</t>
@@ -142,7 +149,7 @@
     <t>Nazwa skrócona kontrahenta</t>
   </si>
   <si>
-    <t>    &lt;NIP&gt;7792260251&lt;/NIP&gt;</t>
+    <t>&lt;NIP&gt;7792260251&lt;/NIP&gt;</t>
   </si>
   <si>
     <t>VARCHAR2(50)</t>
@@ -151,7 +158,7 @@
     <t>NIP</t>
   </si>
   <si>
-    <t>    &lt;ORDER_BLOCKADE&gt;N&lt;/ORDER_BLOCKADE&gt;</t>
+    <t>&lt;ORDER_BLOCKADE&gt;N&lt;/ORDER_BLOCKADE&gt;</t>
   </si>
   <si>
     <t>VARCHAR2(1)</t>
@@ -160,25 +167,25 @@
     <t>Czy kontrahent ma zablokowaną sprzedaż?</t>
   </si>
   <si>
-    <t>    &lt;ACTIVE&gt;T&lt;/ACTIVE&gt;</t>
+    <t>&lt;ACTIVE&gt;T&lt;/ACTIVE&gt;</t>
   </si>
   <si>
     <t>Czy kontrahent jest aktywny?</t>
   </si>
   <si>
-    <t>    &lt;IS_PAYER&gt;T&lt;/IS_PAYER&gt;</t>
+    <t>&lt;IS_PAYER&gt;T&lt;/IS_PAYER&gt;</t>
   </si>
   <si>
     <t>Czy kontrahent jest płatnikiem?</t>
   </si>
   <si>
-    <t>    &lt;IS_RECIEVER&gt;T&lt;/IS_RECIEVER&gt;</t>
+    <t>&lt;IS_RECIEVER&gt;T&lt;/IS_RECIEVER&gt;</t>
   </si>
   <si>
     <t>Czy kontrahent jest odbiorcą?</t>
   </si>
   <si>
-    <t>    &lt;PHONE&gt;32427846&lt;PHONE&gt;</t>
+    <t>&lt;PHONE&gt;32427846&lt;PHONE&gt;</t>
   </si>
   <si>
     <t>VARCHAR2(30)</t>
@@ -187,55 +194,19 @@
     <t>Telefon</t>
   </si>
   <si>
-    <r>
-      <t>    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF00000A"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-        <charset val="238"/>
-      </rPr>
-      <t>&lt;FAX&gt;0943850948&lt;FAX&gt;</t>
-    </r>
+    <t>&lt;FAX&gt;0943850948&lt;FAX&gt;</t>
   </si>
   <si>
     <t>Fax</t>
   </si>
   <si>
-    <r>
-      <t>    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF00000A"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-        <charset val="238"/>
-      </rPr>
-      <t>&lt;EMAIL&gt;s@s.com&lt;EMAIL&gt;  </t>
-    </r>
+    <t>&lt;EMAIL&gt;s@s.com&lt;EMAIL&gt;</t>
   </si>
   <si>
     <t>E-mail</t>
   </si>
   <si>
-    <r>
-      <t>    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF00000A"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-        <charset val="238"/>
-      </rPr>
-      <t>&lt;CREDIT_LIMIT&gt;100000&lt;/CREDIT_LIMIT&gt;</t>
-    </r>
+    <t>&lt;CREDIT_LIMIT&gt;100000&lt;/CREDIT_LIMIT&gt;</t>
   </si>
   <si>
     <t>NUMBER(10,2)</t>
@@ -244,277 +215,88 @@
     <t>Limit kredytowy kontrahenta</t>
   </si>
   <si>
-    <r>
-      <t>    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF00000A"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-        <charset val="238"/>
-      </rPr>
-      <t>&lt;REPRESENTATIVE&gt;T&lt;/REPRESENTATIVE&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>Przypisany przedstawiciel (jak jest przypisany przedstawiciel do okręgu w ERP?)</t>
-  </si>
-  <si>
-    <r>
-      <t>    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF00000A"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-        <charset val="238"/>
-      </rPr>
-      <t>&lt;DEFAULT_FINANCING_METHOD&gt;us23&lt;/DEFAULT_FINANCING_METHOD&gt;</t>
-    </r>
+    <t>&lt;REPRESENTATIVE&gt;T&lt;/REPRESENTATIVE&gt;</t>
+  </si>
+  <si>
+    <t>VARCHAR2(10)</t>
+  </si>
+  <si>
+    <t>Kod przedstawiciela</t>
+  </si>
+  <si>
+    <t>&lt;DEFAULT_FINANCING_METHOD&gt;us23&lt;/DEFAULT_FINANCING_METHOD&gt;</t>
   </si>
   <si>
     <t>Domyślny sposób finansowania</t>
   </si>
   <si>
-    <r>
-      <t>    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF00000A"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-        <charset val="238"/>
-      </rPr>
-      <t>&lt;LEGAL_ADDRESSES&gt;</t>
-    </r>
+    <t>&lt;LEGAL_ADDRESSES&gt;</t>
   </si>
   <si>
     <t>Nagłówek zbioru adresów siedziby</t>
   </si>
   <si>
-    <r>
-      <t>      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF00000A"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-        <charset val="238"/>
-      </rPr>
-      <t>&lt;LEGAL_ADDRESS&gt;</t>
-    </r>
+    <t>&lt;LEGAL_ADDRESS&gt;</t>
   </si>
   <si>
     <t>Nagłówek adresu siedziby</t>
   </si>
   <si>
-    <r>
-      <t>        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF00000A"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-        <charset val="238"/>
-      </rPr>
-      <t>&lt;STREET&gt;KASPRZAKA&lt;/STREET&gt;</t>
-    </r>
+    <t>&lt;STREET&gt;KASPRZAKA&lt;/STREET&gt;</t>
   </si>
   <si>
     <t>Ulica</t>
   </si>
   <si>
-    <r>
-      <t>        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF00000A"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-        <charset val="238"/>
-      </rPr>
-      <t>&lt;HOUSE_NUMBER&gt;1A&lt;/HOUSE_NUMBER&gt;</t>
-    </r>
+    <t>&lt;HOUSE_NUMBER&gt;1A&lt;/HOUSE_NUMBER&gt;</t>
   </si>
   <si>
     <t>Nr domu</t>
   </si>
   <si>
-    <r>
-      <t>        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF00000A"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-        <charset val="238"/>
-      </rPr>
-      <t>&lt;FLAT_NUMBER&gt;1&lt;/FLAT_NUMBER&gt;</t>
-    </r>
+    <t>&lt;FLAT_NUMBER&gt;1&lt;/FLAT_NUMBER&gt;</t>
   </si>
   <si>
     <t>Nr lokalu</t>
   </si>
   <si>
-    <r>
-      <t>        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF00000A"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-        <charset val="238"/>
-      </rPr>
-      <t>&lt;CITY&gt;POZNAŃ&lt;/CITY&gt;</t>
-    </r>
+    <t>&lt;CITY&gt;POZNAŃ&lt;/CITY&gt;</t>
   </si>
   <si>
     <t>Miejscowość</t>
   </si>
   <si>
-    <r>
-      <t>        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF00000A"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-        <charset val="238"/>
-      </rPr>
-      <t>&lt;POST_CODE&gt;60-236&lt;/POST_CODE&gt;</t>
-    </r>
+    <t>&lt;POST_CODE&gt;60-236&lt;/POST_CODE&gt;</t>
   </si>
   <si>
     <t>Kod pocztowy</t>
   </si>
   <si>
-    <r>
-      <t>      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF00000A"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-        <charset val="238"/>
-      </rPr>
-      <t>&lt;/LEGAL_ADDRESS&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF00000A"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-        <charset val="238"/>
-      </rPr>
-      <t>&lt;/LEGAL_ADDRESSES&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF00000A"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-        <charset val="238"/>
-      </rPr>
-      <t>&lt;DELIVERY_ADDRESSES&gt;</t>
-    </r>
+    <t>&lt;/LEGAL_ADDRESS&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/LEGAL_ADDRESSES&gt;</t>
+  </si>
+  <si>
+    <t>&lt;DELIVERY_ADDRESSES&gt;</t>
   </si>
   <si>
     <t>Nagłówek zbioru adresów dostawy</t>
   </si>
   <si>
-    <r>
-      <t>      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF00000A"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-        <charset val="238"/>
-      </rPr>
-      <t>&lt;DELIVERY_ADDRESS&gt;</t>
-    </r>
+    <t>&lt;DELIVERY_ADDRESS&gt;</t>
   </si>
   <si>
     <t>Nagłówek adresu dostawy</t>
   </si>
   <si>
-    <r>
-      <t>      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF00000A"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-        <charset val="238"/>
-      </rPr>
-      <t>&lt;/DELIVERY_ADDRESS&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF00000A"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-        <charset val="238"/>
-      </rPr>
-      <t>&lt;/DELIVERY_ADDRESSES&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF00000A"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-        <charset val="238"/>
-      </rPr>
-      <t>&lt;/CONTRACTOR&gt;</t>
-    </r>
+    <t>&lt;/DELIVERY_ADDRESS&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/DELIVERY_ADDRESSES&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/CONTRACTOR&gt;</t>
   </si>
   <si>
     <t>&lt;COMMODITIES&gt;</t>
@@ -530,10 +312,10 @@
         &lt;xs:element name="COMMODITY"&gt;
           &lt;xs:complexType&gt;
             &lt;xs:sequence&gt;
-              &lt;xs:element type="xs:int" name="ITEM_INDEX"/&gt;
+              &lt;xs:element type="xs:string" name="ITEM_INDEX"/&gt;
               &lt;xs:element type="xs:string" name="NAME"/&gt;
               &lt;xs:element type="xs:string" name="BASE_UNIT_OF_MEASURE_CODE"/&gt;
-              &lt;xs:element type="xs:long" name="BASE_EAN_CODE"/&gt;
+              &lt;xs:element type="xs:string" name="BASE_EAN_CODE"/&gt;
               &lt;xs:element type="xs:string" name="TYPE"/&gt;
               &lt;xs:element type="xs:string" name="VAT_RATE"/&gt;
               &lt;xs:element name="UNITS_OF_MEASURE"&gt;
@@ -543,7 +325,7 @@
                       &lt;xs:complexType&gt;
                         &lt;xs:sequence&gt;
                           &lt;xs:element type="xs:string" name="UNIT_OF_MEASURE_CODE"/&gt;
-                          &lt;xs:element type="xs:long" name="EAN_CODE"/&gt;
+                          &lt;xs:element type="xs:string" name="EAN_CODE"/&gt;
                         &lt;/xs:sequence&gt;
                       &lt;/xs:complexType&gt;
                     &lt;/xs:element&gt;
@@ -606,13 +388,13 @@
 &lt;/xs:schema&gt;</t>
   </si>
   <si>
-    <t>  &lt;COMMODITY&gt;</t>
+    <t>&lt;COMMODITY&gt;</t>
   </si>
   <si>
     <t>Nagłówek indeksu materiałowego</t>
   </si>
   <si>
-    <t>    &lt;ITEM_INDEX&gt;200185&lt;/ITEM_INDEX&gt;</t>
+    <t>&lt;ITEM_INDEX&gt;200185&lt;/ITEM_INDEX&gt;</t>
   </si>
   <si>
     <t>VARCHAR2(100)</t>
@@ -621,34 +403,37 @@
     <t>Symbol indeksu</t>
   </si>
   <si>
-    <t>    &lt;NAME&gt;TCC DOZ 5-NN&lt;/NAME&gt;</t>
+    <t>&lt;NAME&gt;TCC DOZ 5-NN&lt;/NAME&gt;</t>
+  </si>
+  <si>
+    <t>VARCHAR2(400)</t>
   </si>
   <si>
     <t>Nazwa indeksu</t>
   </si>
   <si>
-    <t>    &lt;BASE_UNIT_OF_MEASURE_CODE&gt;SZT&lt;/BASE_UNIT_OF_MEASURE_CODE&gt;</t>
-  </si>
-  <si>
-    <t>VARCHAR2(10)</t>
+    <t>&lt;BASE_UNIT_OF_MEASURE_CODE&gt;SZT&lt;/BASE_UNIT_OF_MEASURE_CODE&gt;</t>
   </si>
   <si>
     <t>Bazowa jednostka miary</t>
   </si>
   <si>
-    <t>    &lt;BASE_EAN_CODE&gt;4021609004523&lt;/BASE_EAN_CODE&gt;</t>
+    <t>&lt;BASE_EAN_CODE&gt;4021609004523&lt;/BASE_EAN_CODE&gt;</t>
   </si>
   <si>
     <t>Kod kreskowy EAN dla bazowej jednostki miary</t>
   </si>
   <si>
-    <t>    &lt;TYPE&gt;Towar&lt;/TYPE&gt;</t>
+    <t>&lt;TYPE&gt;Towar&lt;/TYPE&gt;</t>
+  </si>
+  <si>
+    <t>VARCHAR2(240)</t>
   </si>
   <si>
     <t>Typ indeksu</t>
   </si>
   <si>
-    <t>    &lt;VAT_RATE&gt;23%&lt;/VAT_RATE&gt;</t>
+    <t>&lt;VAT_RATE&gt;23%&lt;/VAT_RATE&gt;</t>
   </si>
   <si>
     <t>VARCHAR2(5)</t>
@@ -657,46 +442,46 @@
     <t>Stawka VAT</t>
   </si>
   <si>
-    <t>    &lt;UNITS_OF_MEASURE&gt;</t>
+    <t>&lt;UNITS_OF_MEASURE&gt;</t>
   </si>
   <si>
     <t>Nagłówk zbioru jednostek miary indeku materiałowego</t>
   </si>
   <si>
-    <t>      &lt;UNIT_OF_MEASURE&gt;</t>
+    <t>&lt;UNIT_OF_MEASURE&gt;</t>
   </si>
   <si>
     <t>Nagłówek jednostki miary indeksu materiałowego</t>
   </si>
   <si>
-    <t>        &lt;UNIT_OF_MEASURE_CODE&gt;SZT&lt;/UNIT_OF_MEASURE_CODE&gt;</t>
+    <t>&lt;UNIT_OF_MEASURE_CODE&gt;SZT&lt;/UNIT_OF_MEASURE_CODE&gt;</t>
   </si>
   <si>
     <t>Jednostka miary</t>
   </si>
   <si>
-    <t>        &lt;EAN_CODE&gt;4021609004523&lt;/EAN_CODE&gt;</t>
-  </si>
-  <si>
-    <t>      &lt;/UNIT_OF_MEASURE&gt;</t>
-  </si>
-  <si>
-    <t>    &lt;/UNITS_OF_MEASURE&gt;</t>
-  </si>
-  <si>
-    <t>    &lt;PRICES&gt;</t>
+    <t>&lt;EAN_CODE&gt;4021609004523&lt;/EAN_CODE&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/UNIT_OF_MEASURE&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/UNITS_OF_MEASURE&gt;</t>
+  </si>
+  <si>
+    <t>&lt;PRICES&gt;</t>
   </si>
   <si>
     <t>Nagłówek zbioru cen indeksu materiałowego</t>
   </si>
   <si>
-    <t>      &lt;PRICE&gt;</t>
+    <t>&lt;PRICE&gt;</t>
   </si>
   <si>
     <t>Nagłówek cen indeksu materiałowego</t>
   </si>
   <si>
-    <t>        &lt;CURRENCY&gt;PLN&lt;/CURRENCY&gt;</t>
+    <t>&lt;CURRENCY&gt;PLN&lt;/CURRENCY&gt;</t>
   </si>
   <si>
     <t>VARCHAR2(4)</t>
@@ -705,7 +490,7 @@
     <t>Waluta</t>
   </si>
   <si>
-    <t>        &lt;NET_PRICE&gt;105&lt;/NET_PRICE&gt;</t>
+    <t>&lt;NET_PRICE&gt;105&lt;/NET_PRICE&gt;</t>
   </si>
   <si>
     <t>NUMBER</t>
@@ -714,94 +499,91 @@
     <t>Cena netto</t>
   </si>
   <si>
-    <t>        &lt;GROSS_PRICE&gt;129.15&lt;/GROSS_PRICE&gt;</t>
+    <t>&lt;GROSS_PRICE&gt;129.15&lt;/GROSS_PRICE&gt;</t>
   </si>
   <si>
     <t>Cena brutto</t>
   </si>
   <si>
-    <t>        &lt;PRICE_TYPE&gt;PODSTAWOWA&lt;/PRICE_TYPE&gt;</t>
+    <t>&lt;PRICE_TYPE&gt;PODSTAWOWA&lt;/PRICE_TYPE&gt;</t>
   </si>
   <si>
     <t>Rodzaj ceny</t>
   </si>
   <si>
-    <t>      &lt;/PRICE&gt;</t>
-  </si>
-  <si>
-    <t>    &lt;/PRICES&gt;</t>
-  </si>
-  <si>
-    <t>    &lt;MINIMAL_PRICES&gt;</t>
+    <t>&lt;/PRICE&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/PRICES&gt;</t>
+  </si>
+  <si>
+    <t>&lt;MINIMAL_PRICES&gt;</t>
   </si>
   <si>
     <t>Nagłówek zbioru cen minimalnych indeksu materiałowego</t>
   </si>
   <si>
-    <t>     &lt;MINIMAL_PRICE&gt;</t>
+    <t>&lt;MINIMAL_PRICE&gt;</t>
   </si>
   <si>
     <t>Nagłówek ceny minimalnej indeksu materiałowego</t>
   </si>
   <si>
-    <t>     &lt;NET_PRICE&gt;12.4&lt;/NET_PRICE&gt;</t>
-  </si>
-  <si>
-    <t>     &lt;GROSS_PRICE&gt;12.4&lt;/GROSS_PRICE&gt;</t>
-  </si>
-  <si>
-    <t>     &lt;UNIT_OF_MEASURE_CODE&gt;SZT&lt;/UNIT_OF_MEASURE_CODE&gt;</t>
-  </si>
-  <si>
-    <t>    &lt;/MINIMAL_PRICE&gt;    </t>
-  </si>
-  <si>
-    <t>  &lt;/MINIMAL_PRICES&gt;</t>
-  </si>
-  <si>
-    <t>    &lt;GROUPS&gt;</t>
+    <t>&lt;NET_PRICE&gt;12.4&lt;/NET_PRICE&gt;</t>
+  </si>
+  <si>
+    <t>&lt;GROSS_PRICE&gt;12.4&lt;/GROSS_PRICE&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/MINIMAL_PRICE&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/MINIMAL_PRICES&gt;</t>
+  </si>
+  <si>
+    <t>&lt;GROUPS&gt;</t>
   </si>
   <si>
     <t>Nagłówek zbioru grup asortymentowych indeksu materiałowego</t>
   </si>
   <si>
-    <t>      &lt;GROUP&gt;</t>
+    <t>&lt;GROUP&gt;</t>
   </si>
   <si>
     <t>Nagłówek grupy asortymentowej indeksu materiałowego</t>
   </si>
   <si>
-    <t>        &lt;GROUP_NAME&gt;GW TCC DOZ&lt;/GROUP_NAME&gt;</t>
+    <t>&lt;GROUP_NAME&gt;GW TCC DOZ&lt;/GROUP_NAME&gt;</t>
   </si>
   <si>
     <t>Nazwa grupy</t>
   </si>
   <si>
-    <t>        &lt;GROUP_CODE&gt;01110&lt;/GROUP_CODE&gt;</t>
+    <t>&lt;GROUP_CODE&gt;01110&lt;/GROUP_CODE&gt;</t>
   </si>
   <si>
     <t>Kod grupy</t>
   </si>
   <si>
-    <t>        &lt;IS_PRIMARY&gt;N&lt;/IS_PRIMARY&gt;</t>
+    <t>&lt;IS_PRIMARY&gt;N&lt;/IS_PRIMARY&gt;</t>
   </si>
   <si>
     <t>Czy grupa jest podstawowa?</t>
   </si>
   <si>
-    <t>      &lt;/GROUP&gt;</t>
-  </si>
-  <si>
-    <t>    &lt;/GROUPS&gt;</t>
-  </si>
-  <si>
-    <t>  &lt;/COMMODITY&gt;  </t>
+    <t>&lt;/GROUP&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/GROUPS&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/COMMODITY&gt;</t>
   </si>
   <si>
     <t>&lt;/COMMODITIES&gt;</t>
   </si>
   <si>
-    <t>&lt;INVOICES_PAYMENTS&gt; </t>
+    <t>&lt;INVOICES_PAYMENTS&gt;</t>
   </si>
   <si>
     <t>Nagłówek zbioru płatności faktur sprzedaży</t>
@@ -817,10 +599,10 @@
               &lt;xs:element type="xs:string" name="INVOICE_NUMBER"/&gt;
               &lt;xs:element type="xs:date" name="DUE_DATE"/&gt;
               &lt;xs:element type="xs:string" name="PAYMENT_FORM"/&gt;
-              &lt;xs:element type="xs:short" name="PAYER_SYMBOL"/&gt;
+              &lt;xs:element type="xs:string" name="PAYER_SYMBOL"/&gt;
               &lt;xs:element type="xs:string" name="PAYER_NAME"/&gt;
               &lt;xs:element type="xs:float" name="TOTAL"/&gt;
-              &lt;xs:element type="xs:byte" name="AMOUNT_LEFT"/&gt;
+              &lt;xs:element type="xs:float" name="AMOUNT_LEFT"/&gt;
               &lt;xs:element name="PAYMENTS_DETAILS"&gt;
                 &lt;xs:complexType&gt;
                   &lt;xs:sequence&gt;
@@ -845,19 +627,19 @@
 &lt;/xs:schema&gt;</t>
   </si>
   <si>
-    <t>  &lt;INVOICE_PAYMENTS&gt;</t>
+    <t>&lt;INVOICE_PAYMENTS&gt;</t>
   </si>
   <si>
     <t>Nagłówek płatnosci faktury sprzedaży</t>
   </si>
   <si>
-    <t>    &lt;INVOICE_NUMBER&gt;FVS 00132/01/2015&lt;/INVOICE_NUMBER&gt;</t>
+    <t>&lt;INVOICE_NUMBER&gt;FVS 00132/01/2015&lt;/INVOICE_NUMBER&gt;</t>
   </si>
   <si>
     <t>Symbol faktury</t>
   </si>
   <si>
-    <t>    &lt;DUE_DATE&gt;2015-01-08&lt;/DUE_DATE&gt;</t>
+    <t>&lt;DUE_DATE&gt;2015-01-08&lt;/DUE_DATE&gt;</t>
   </si>
   <si>
     <t>DATE</t>
@@ -866,7 +648,7 @@
     <t>Termin płatności</t>
   </si>
   <si>
-    <t>    &lt;PAYMENT_FORM&gt;POBR&lt;/PAYMENT_FORM&gt;</t>
+    <t>&lt;PAYMENT_FORM&gt;POBR&lt;/PAYMENT_FORM&gt;</t>
   </si>
   <si>
     <t>VARCHAR2(6)</t>
@@ -875,19 +657,19 @@
     <t>Forma zapłaty</t>
   </si>
   <si>
-    <t>    &lt;PAYER_SYMBOL&gt;1357&lt;/PAYER_SYMBOL&gt;</t>
+    <t>&lt;PAYER_SYMBOL&gt;1357&lt;/PAYER_SYMBOL&gt;</t>
   </si>
   <si>
     <t>Symbol płatnika</t>
   </si>
   <si>
-    <t>    &lt;PAYER_NAME&gt;&amp;quot;STUDIO URODY 101&amp;quot; MONIKA URBANIAK&lt;/PAYER_NAME&gt;</t>
+    <t>&lt;PAYER_NAME&gt;&amp;quot;STUDIO URODY 101&amp;quot; MONIKA URBANIAK&lt;/PAYER_NAME&gt;</t>
   </si>
   <si>
     <t>Nazwa płatnika</t>
   </si>
   <si>
-    <t>    &lt;TOTAL&gt;806.81&lt;/TOTAL&gt;</t>
+    <t>&lt;TOTAL&gt;806.81&lt;/TOTAL&gt;</t>
   </si>
   <si>
     <t>NUMBER(17,2)</t>
@@ -896,49 +678,49 @@
     <t>Wartość</t>
   </si>
   <si>
-    <t>    &lt;AMOUNT_LEFT&gt;0&lt;/AMOUNT_LEFT&gt;</t>
+    <t>&lt;AMOUNT_LEFT&gt;0&lt;/AMOUNT_LEFT&gt;</t>
   </si>
   <si>
     <t>Pozostało do zapaty</t>
   </si>
   <si>
-    <t>    &lt;PAYMENTS_DETAILS&gt;</t>
+    <t>&lt;PAYMENTS_DETAILS&gt;</t>
   </si>
   <si>
     <t>Nagłówek zbioru szczegółów płatności</t>
   </si>
   <si>
-    <t>      &lt;PAYMENT_DETAIL&gt;</t>
+    <t>&lt;PAYMENT_DETAIL&gt;</t>
   </si>
   <si>
     <t>Nagłówek szczegółów płatności</t>
   </si>
   <si>
-    <t>        &lt;PAYMENT_DOC_NUMBER&gt;NPR-2015-0022&lt;/PAYMENT_DOC_NUMBER&gt;</t>
+    <t>&lt;PAYMENT_DOC_NUMBER&gt;NPR-2015-0022&lt;/PAYMENT_DOC_NUMBER&gt;</t>
   </si>
   <si>
     <t>Symbol dokumentu płatności</t>
   </si>
   <si>
-    <t>        &lt;PAYMENT_DATE&gt;2015-01-08&lt;/PAYMENT_DATE&gt;</t>
+    <t>&lt;PAYMENT_DATE&gt;2015-01-08&lt;/PAYMENT_DATE&gt;</t>
   </si>
   <si>
     <t>Data płatności</t>
   </si>
   <si>
-    <t>        &lt;AMOUNT_PAID&gt;806.81&lt;/AMOUNT_PAID&gt;</t>
+    <t>&lt;AMOUNT_PAID&gt;806.81&lt;/AMOUNT_PAID&gt;</t>
   </si>
   <si>
     <t>Wartość zapłaty w walucie bazowej</t>
   </si>
   <si>
-    <t>      &lt;/PAYMENT_DETAIL&gt;</t>
-  </si>
-  <si>
-    <t>    &lt;/PAYMENTS_DETAILS&gt;</t>
-  </si>
-  <si>
-    <t>  &lt;/INVOICE_PAYMENTS&gt;</t>
+    <t>&lt;/PAYMENT_DETAIL&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/PAYMENTS_DETAILS&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/INVOICE_PAYMENTS&gt;</t>
   </si>
   <si>
     <t>&lt;/INVOICES_PAYMENTS&gt;</t>
@@ -947,7 +729,7 @@
     <t>&lt;INVOICES&gt;</t>
   </si>
   <si>
-    <t>Nagłówek zbioru faktury sprzedaży </t>
+    <t>Nagłówek zbioru faktury sprzedaży</t>
   </si>
   <si>
     <t>&lt;xs:schema attributeFormDefault="unqualified" elementFormDefault="qualified" xmlns:xs="http://www.w3.org/2001/XMLSchema"&gt;
@@ -984,13 +766,13 @@
                     &lt;xs:element name="LINE"&gt;
                       &lt;xs:complexType&gt;
                         &lt;xs:sequence&gt;
-                          &lt;xs:element type="xs:byte" name="ORDINAL"/&gt;
+                          &lt;xs:element type="xs:int" name="ORDINAL"/&gt;
                           &lt;xs:element type="xs:string" name="ITEM_SYMBOL"/&gt;
                           &lt;xs:element type="xs:string" name="ITEM_NAME"/&gt;
                           &lt;xs:element type="xs:string" name="UNIT_OF_MEASURE_CODE"/&gt;
-                          &lt;xs:element type="xs:byte" name="QUANTITY"/&gt;
+                          &lt;xs:element type="xs:float" name="QUANTITY"/&gt;
                           &lt;xs:element type="xs:float" name="NET_PRICE"/&gt;
-                          &lt;xs:element type="xs:byte" name="VAT_RATE"/&gt;
+                          &lt;xs:element type="xs:int" name="VAT_RATE"/&gt;
                           &lt;xs:element type="xs:float" name="NET_VALUE"/&gt;
                           &lt;xs:element type="xs:float" name="VAT_VALUE"/&gt;
                           &lt;xs:element type="xs:float" name="GROSS_VALUE"/&gt;
@@ -1009,46 +791,43 @@
 &lt;/xs:schema&gt;</t>
   </si>
   <si>
-    <t>  &lt;INVOICE&gt;</t>
+    <t>&lt;INVOICE&gt;</t>
   </si>
   <si>
     <t>Nagłówek faktury sprzedaży</t>
   </si>
   <si>
-    <t>    &lt;INVOICE_SYMBOL&gt;FVSH_KMS 00001/08/2015&lt;/INVOICE_SYMBOL&gt;</t>
-  </si>
-  <si>
-    <t>    &lt;DOC_TYPE&gt;FS&lt;/DOC_TYPE&gt;</t>
+    <t>&lt;INVOICE_SYMBOL&gt;FVSH_KMS 00001/08/2015&lt;/INVOICE_SYMBOL&gt;</t>
+  </si>
+  <si>
+    <t>&lt;DOC_TYPE&gt;FS&lt;/DOC_TYPE&gt;</t>
   </si>
   <si>
     <t>VARCHAR2(2)</t>
   </si>
   <si>
-    <t>Typ dokumentu </t>
-  </si>
-  <si>
-    <t>    &lt;INVOICE_DATE&gt;2015-08-16&lt;/INVOICE_DATE&gt;</t>
+    <t>Typ dokumentu</t>
+  </si>
+  <si>
+    <t>&lt;INVOICE_DATE&gt;2015-08-16&lt;/INVOICE_DATE&gt;</t>
   </si>
   <si>
     <t>Data faktury</t>
   </si>
   <si>
-    <t>    &lt;SALE_DATE&gt;2015-08-16&lt;/SALE_DATE&gt;</t>
+    <t>&lt;SALE_DATE&gt;2015-08-16&lt;/SALE_DATE&gt;</t>
   </si>
   <si>
     <t>Data sprzedaży/dostawy</t>
   </si>
   <si>
-    <t>    &lt;PAYMENT_DATE&gt;2015-08-16&lt;/PAYMENT_DATE&gt;</t>
-  </si>
-  <si>
-    <t>    &lt;CURRENCY&gt;PLN&lt;/CURRENCY&gt;</t>
+    <t>&lt;PAYMENT_DATE&gt;2015-08-16&lt;/PAYMENT_DATE&gt;</t>
   </si>
   <si>
     <t>Waluta dokumentu</t>
   </si>
   <si>
-    <t>    &lt;NET_VALUE&gt;248920.02&lt;/NET_VALUE&gt;</t>
+    <t>&lt;NET_VALUE&gt;248920.02&lt;/NET_VALUE&gt;</t>
   </si>
   <si>
     <t>NUMBER(16,2)</t>
@@ -1057,97 +836,97 @@
     <t>Wartość netto</t>
   </si>
   <si>
-    <t>    &lt;GROSS_VALUE&gt;306171.62&lt;/GROSS_VALUE&gt;</t>
+    <t>&lt;GROSS_VALUE&gt;306171.62&lt;/GROSS_VALUE&gt;</t>
   </si>
   <si>
     <t>Wartość brutto</t>
   </si>
   <si>
-    <t>    &lt;AMOUNT_PAID&gt;0&lt;/AMOUNT_PAID&gt;</t>
+    <t>&lt;AMOUNT_PAID&gt;0&lt;/AMOUNT_PAID&gt;</t>
   </si>
   <si>
     <t>Zapłacono</t>
   </si>
   <si>
-    <t>    &lt;IS_PAID&gt;N&lt;/IS_PAID&gt;</t>
+    <t>&lt;IS_PAID&gt;N&lt;/IS_PAID&gt;</t>
   </si>
   <si>
     <t>Czy faktura jest zapłacona</t>
   </si>
   <si>
-    <t>    &lt;PAYER_SYMBOL&gt;1004/B&lt;/PAYER_SYMBOL&gt;</t>
-  </si>
-  <si>
-    <t>    &lt;PAYER_NAME&gt;STUDIO FRYZJERSKO-KOSMETYCZNE &amp;quot;MILORD&amp;quot; PIOTR ADAMCZYK&lt;/PAYER_NAME&gt;</t>
-  </si>
-  <si>
-    <t>    &lt;PAYER_NIP&gt;1130163830&lt;/PAYER_NIP&gt;</t>
+    <t>&lt;PAYER_SYMBOL&gt;1004/B&lt;/PAYER_SYMBOL&gt;</t>
+  </si>
+  <si>
+    <t>&lt;PAYER_NAME&gt;STUDIO FRYZJERSKO-KOSMETYCZNE &amp;quot;MILORD&amp;quot; PIOTR ADAMCZYK&lt;/PAYER_NAME&gt;</t>
+  </si>
+  <si>
+    <t>&lt;PAYER_NIP&gt;1130163830&lt;/PAYER_NIP&gt;</t>
   </si>
   <si>
     <t>NIP płatnika</t>
   </si>
   <si>
-    <t>    &lt;PAYER_CITY&gt;WARSZAWA&lt;/PAYER_CITY&gt;</t>
+    <t>&lt;PAYER_CITY&gt;WARSZAWA&lt;/PAYER_CITY&gt;</t>
   </si>
   <si>
     <t>Miejscowość płatnika</t>
   </si>
   <si>
-    <t>    &lt;PAYER_POST_CODE&gt;04-359&lt;/PAYER_POST_CODE&gt;</t>
+    <t>&lt;PAYER_POST_CODE&gt;04-359&lt;/PAYER_POST_CODE&gt;</t>
   </si>
   <si>
     <t>Kod pocztowy płatnika</t>
   </si>
   <si>
-    <t>    &lt;PAYER_STREET&gt;KOBIELSKA&lt;/PAYER_STREET&gt;</t>
+    <t>&lt;PAYER_STREET&gt;KOBIELSKA&lt;/PAYER_STREET&gt;</t>
   </si>
   <si>
     <t>Ulica płatnika</t>
   </si>
   <si>
-    <t>    &lt;PAYER_BUILDING&gt;17&lt;/PAYER_BUILDING&gt;</t>
+    <t>&lt;PAYER_BUILDING&gt;17&lt;/PAYER_BUILDING&gt;</t>
   </si>
   <si>
     <t>Nr budynku płatnika</t>
   </si>
   <si>
-    <t>    &lt;PAYER_APARTMENT&gt;1&lt;/PAYER_APARTMENT&gt;</t>
+    <t>&lt;PAYER_APARTMENT&gt;1&lt;/PAYER_APARTMENT&gt;</t>
   </si>
   <si>
     <t>Nr lokalu płatnika</t>
   </si>
   <si>
-    <t>    &lt;RECEIVER_SYMBOL&gt;1004/B&lt;/RECEIVER_SYMBOL&gt;</t>
+    <t>&lt;RECEIVER_SYMBOL&gt;1004/B&lt;/RECEIVER_SYMBOL&gt;</t>
   </si>
   <si>
     <t>Symbol odbiorcy</t>
   </si>
   <si>
-    <t>    &lt;RECEIVER_NAME&gt;STUDIO FRYZJERSKO-KOSMETYCZNE &amp;quot;MILORD&amp;quot; PIOTR ADAMCZYK&lt;/RECEIVER_NAME&gt;</t>
+    <t>&lt;RECEIVER_NAME&gt;STUDIO FRYZJERSKO-KOSMETYCZNE &amp;quot;MILORD&amp;quot; PIOTR ADAMCZYK&lt;/RECEIVER_NAME&gt;</t>
   </si>
   <si>
     <t>Nazwa odbiorcy</t>
   </si>
   <si>
-    <t>    &lt;DELIVERY_TYPE&gt;SCH&lt;/DELIVERY_TYPE&gt;</t>
+    <t>&lt;DELIVERY_TYPE&gt;SCH&lt;/DELIVERY_TYPE&gt;</t>
   </si>
   <si>
     <t>kod sposobu dostawy</t>
   </si>
   <si>
-    <t>    &lt;LINES&gt;</t>
+    <t>&lt;LINES&gt;</t>
   </si>
   <si>
     <t>Nagłówek zbioru pozycji faktury sprzedaży</t>
   </si>
   <si>
-    <t>      &lt;LINE&gt;</t>
+    <t>&lt;LINE&gt;</t>
   </si>
   <si>
     <t>Nagłówek pozycji faktury sprzedaży</t>
   </si>
   <si>
-    <t>        &lt;ORDINAL&gt;1&lt;/ORDINAL&gt;</t>
+    <t>&lt;ORDINAL&gt;1&lt;/ORDINAL&gt;</t>
   </si>
   <si>
     <t>NUMBER(10,0)</t>
@@ -1156,19 +935,16 @@
     <t>Nr pozycji faktury</t>
   </si>
   <si>
-    <t>        &lt;ITEM_SYMBOL&gt;KKT-01-15BF/M&lt;/ITEM_SYMBOL&gt;</t>
-  </si>
-  <si>
-    <t>        &lt;ITEM_NAME&gt;ZP KKT + KS PIELĘGNACJA | SZKOLENIE W STUDIU | PROSTOWNICA M&lt;/ITEM_NAME&gt;</t>
-  </si>
-  <si>
-    <t>VARCHAR2(400)</t>
-  </si>
-  <si>
-    <t>        &lt;UNIT_OF_MEASURE_CODE&gt;KPL&lt;/UNIT_OF_MEASURE_CODE&gt;</t>
-  </si>
-  <si>
-    <t>        &lt;QUANTITY&gt;123&lt;/QUANTITY&gt;</t>
+    <t>&lt;ITEM_SYMBOL&gt;KKT-01-15BF/M&lt;/ITEM_SYMBOL&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ITEM_NAME&gt;ZP KKT + KS PIELĘGNACJA | SZKOLENIE W STUDIU | PROSTOWNICA M&lt;/ITEM_NAME&gt;</t>
+  </si>
+  <si>
+    <t>&lt;UNIT_OF_MEASURE_CODE&gt;KPL&lt;/UNIT_OF_MEASURE_CODE&gt;</t>
+  </si>
+  <si>
+    <t>&lt;QUANTITY&gt;123&lt;/QUANTITY&gt;</t>
   </si>
   <si>
     <t>NUMBER(16,3)</t>
@@ -1177,40 +953,569 @@
     <t>Ilość</t>
   </si>
   <si>
-    <t>        &lt;NET_PRICE&gt;2023.74&lt;/NET_PRICE&gt;</t>
-  </si>
-  <si>
-    <t>        &lt;VAT_RATE&gt;23&lt;/VAT_RATE&gt;</t>
+    <t>&lt;NET_PRICE&gt;2023.74&lt;/NET_PRICE&gt;</t>
+  </si>
+  <si>
+    <t>&lt;VAT_RATE&gt;23&lt;/VAT_RATE&gt;</t>
   </si>
   <si>
     <t>NUMBER(2)</t>
   </si>
   <si>
-    <t>        &lt;NET_VALUE&gt;248920.02&lt;/NET_VALUE&gt;</t>
-  </si>
-  <si>
     <t>Warość netto</t>
   </si>
   <si>
-    <t>        &lt;VAT_VALUE&gt;57251.6&lt;/VAT_VALUE&gt;</t>
+    <t>&lt;VAT_VALUE&gt;57251.6&lt;/VAT_VALUE&gt;</t>
   </si>
   <si>
     <t>Wartość VAT</t>
   </si>
   <si>
-    <t>        &lt;GROSS_VALUE&gt;306171.62&lt;/GROSS_VALUE&gt;</t>
-  </si>
-  <si>
-    <t>      &lt;/LINE&gt;</t>
-  </si>
-  <si>
-    <t>    &lt;/LINES&gt;</t>
-  </si>
-  <si>
-    <t>  &lt;/INVOICE&gt;</t>
+    <t>&lt;/LINE&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/LINES&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/INVOICE&gt;</t>
   </si>
   <si>
     <t>&lt;/INVOICES&gt;</t>
+  </si>
+  <si>
+    <t>&lt;SETS_COMPONENTS&gt;</t>
+  </si>
+  <si>
+    <t>Nagłówek zbioru kompletów</t>
+  </si>
+  <si>
+    <t>&lt;xs:schema attributeFormDefault="unqualified" elementFormDefault="qualified" xmlns:xs="http://www.w3.org/2001/XMLSchema"&gt;
+  &lt;xs:element name="SETS_COMPONENTS"&gt;
+    &lt;xs:complexType&gt;
+      &lt;xs:sequence&gt;
+        &lt;xs:element name="SET_COMPONENTS"&gt;
+          &lt;xs:complexType&gt;
+            &lt;xs:sequence&gt;
+              &lt;xs:element type="xs:string" name="SET_ID"/&gt;
+              &lt;xs:element type="xs:string" name="SET_NAME"/&gt;
+              &lt;xs:element type="xs:float" name="PRICE_BEFORE_DISCOUNT"/&gt;
+              &lt;xs:element type="xs:float" name="PRICE_AFTER_DISCOUNT"/&gt;
+              &lt;xs:element type="xs:date" name="VALID_DATE"/&gt;			  
+              &lt;xs:element type="xs:float" name="AVAILABLE_STOCK"/&gt;
+              &lt;xs:element name="COMPONENTS"&gt;
+                &lt;xs:complexType&gt;
+                  &lt;xs:choice maxOccurs="unbounded" minOccurs="0"&gt;
+                    &lt;xs:element name="COMPONENT"&gt;
+                      &lt;xs:complexType&gt;
+                        &lt;xs:sequence&gt;
+                          &lt;xs:element type="xs:string" name="COMMODITY_ID"/&gt;
+                          &lt;xs:element type="xs:string" name="COMMODITY_NAME"/&gt;
+                          &lt;xs:element type="xs:float" name="QUANTITY"/&gt;
+                          &lt;xs:element type="xs:string" name="BONUS"/&gt;
+                          &lt;xs:element type="xs:string" name="SET_TYPE"/&gt;
+                          &lt;xs:element type="xs:string" name="CONTRACT_PAYMENT"/&gt;
+                        &lt;/xs:sequence&gt;
+                      &lt;/xs:complexType&gt;
+                    &lt;/xs:element&gt;
+                  &lt;/xs:choice&gt;
+                &lt;/xs:complexType&gt;
+              &lt;/xs:element&gt;
+            &lt;/xs:sequence&gt;
+          &lt;/xs:complexType&gt;
+        &lt;/xs:element&gt;
+      &lt;/xs:sequence&gt;
+    &lt;/xs:complexType&gt;
+  &lt;/xs:element&gt;
+&lt;/xs:schema&gt;</t>
+  </si>
+  <si>
+    <t>&lt;SET_COMPONENTS&gt;</t>
+  </si>
+  <si>
+    <t>Nagłówek kompletu</t>
+  </si>
+  <si>
+    <t>&lt;SET_ID&gt;TRL-01-02&lt;/SET_ID&gt;</t>
+  </si>
+  <si>
+    <t>Symbol indeksu kompletu</t>
+  </si>
+  <si>
+    <t>&lt;SET_NAME&gt;ZESTAW PREMIOWY TRENDLINE Z REGAąM&lt;/SET_NAME&gt;</t>
+  </si>
+  <si>
+    <t>Nazwa indeksu kompletu</t>
+  </si>
+  <si>
+    <t>&lt;PRICE_BEFORE_DISCOUNT&gt;100&lt;/PRICE_BEFORE_DISCOUNT&gt;</t>
+  </si>
+  <si>
+    <t>&lt;PRICE_AFTER_DISCOUNT&gt;8-&lt;/PRICE_AFTER_DISCOUNT&gt;</t>
+  </si>
+  <si>
+    <t>&lt;VALID_DATE&gt;2015-01-01&lt;VALID_DATE&gt;</t>
+  </si>
+  <si>
+    <t>Data obowiązywania kompletu</t>
+  </si>
+  <si>
+    <t>&lt;AVAILABLE_STOCK&gt;0&lt;/AVAILABLE_STOCK&gt;</t>
+  </si>
+  <si>
+    <t>Zapas dostępny</t>
+  </si>
+  <si>
+    <t>&lt;COMPONENTS&gt;</t>
+  </si>
+  <si>
+    <t>Nagłówek zbioru składników kompletu</t>
+  </si>
+  <si>
+    <t>&lt;COMPONENT&gt;</t>
+  </si>
+  <si>
+    <t>Nagłówek składnika kompletu</t>
+  </si>
+  <si>
+    <t>&lt;COMMODITY_ID&gt;226220&lt;/COMMODITY_ID&gt;</t>
+  </si>
+  <si>
+    <t>Symbol indeksu składnika kompletu</t>
+  </si>
+  <si>
+    <t>&lt;COMMODITY_NAME&gt;TRL EXT MELLO GOO 125ML&lt;/COMMODITY_NAME&gt;</t>
+  </si>
+  <si>
+    <t>Nazwa indeksu składnika</t>
+  </si>
+  <si>
+    <t>&lt;QUANTITY&gt;6&lt;/QUANTITY&gt;</t>
+  </si>
+  <si>
+    <t>&lt;BONUS&gt;N&lt;/BONUS&gt;</t>
+  </si>
+  <si>
+    <t>Czy bonusowy</t>
+  </si>
+  <si>
+    <t>&lt;SET_TYPE&gt;STATIC&lt;/SET_TYPE&gt;</t>
+  </si>
+  <si>
+    <t>Czy dynamiczny</t>
+  </si>
+  <si>
+    <t>&lt;CONTRACT_PAYMENT&gt;Y&lt;/CONTRACT_PAYMENT&gt;</t>
+  </si>
+  <si>
+    <t>Czy komplet może spłacać kontrakty</t>
+  </si>
+  <si>
+    <t>&lt;/COMPONENT&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/COMPONENTS&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/SET_COMPONENTS&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/SETS_COMPONENTS&gt;</t>
+  </si>
+  <si>
+    <t>&lt;RESERVATIONS&gt;</t>
+  </si>
+  <si>
+    <t>Nagłówek zbioru rezerwacji</t>
+  </si>
+  <si>
+    <t>&lt;xs:schema attributeFormDefault="unqualified" elementFormDefault="qualified" xmlns:xs="http://www.w3.org/2001/XMLSchema"&gt;
+  &lt;xs:element name="RESERVATIONS"&gt;
+    &lt;xs:complexType&gt;
+      &lt;xs:sequence&gt;
+        &lt;xs:element name="RESERVATION"&gt;
+          &lt;xs:complexType&gt;
+            &lt;xs:sequence&gt;
+              &lt;xs:element type="xs:string" name="ORDER_ID"/&gt;
+              &lt;xs:element type="xs:date" name="REALIZATION_DATE"/&gt;
+              &lt;xs:element type="xs:string" name="COMMODITIY_ID"/&gt;
+              &lt;xs:element type="xs:float" name="QUANTITY_ORDERED"/&gt;
+              &lt;xs:element type="xs:float" name="QUANTITY_RESERVED"/&gt;
+            &lt;/xs:sequence&gt;
+          &lt;/xs:complexType&gt;
+        &lt;/xs:element&gt;
+      &lt;/xs:sequence&gt;
+    &lt;/xs:complexType&gt;
+  &lt;/xs:element&gt;
+&lt;/xs:schema&gt;</t>
+  </si>
+  <si>
+    <t>&lt;RESERVATION&gt;</t>
+  </si>
+  <si>
+    <t>Nagłówek rezerwacji</t>
+  </si>
+  <si>
+    <t>&lt;ORDER_ID&gt;FVS 02589/02/2011&lt;/ORDER_ID&gt;</t>
+  </si>
+  <si>
+    <t>Varchar2(50)</t>
+  </si>
+  <si>
+    <t>Symbol zamówienia w TETA</t>
+  </si>
+  <si>
+    <t>&lt;REALIZATION_DATE&gt;2011-02-23&lt;/REALIZATION_DATE&gt;</t>
+  </si>
+  <si>
+    <t>Data realizacji</t>
+  </si>
+  <si>
+    <t>&lt;COMMODITIY_ID&gt;201722&lt;/COMMODITIY_ID&gt;</t>
+  </si>
+  <si>
+    <t>&lt;QUANTITY_ORDERED&gt;2&lt;/QUANTITY_ORDERED&gt;</t>
+  </si>
+  <si>
+    <t>&lt;QUANTITY_RESERVED&gt;0&lt;/QUANTITY_RESERVED&gt;</t>
+  </si>
+  <si>
+    <t>Ilość zarezerwowana</t>
+  </si>
+  <si>
+    <t>&lt;/RESERVATION&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/RESERVATIONS&gt;</t>
+  </si>
+  <si>
+    <t>&lt;SALES_REPRESENTATIVES&gt;</t>
+  </si>
+  <si>
+    <t>Nagłówek zbioru przedstawicieli handlowych</t>
+  </si>
+  <si>
+    <t>&lt;xs:schema attributeFormDefault="unqualified" elementFormDefault="qualified" xmlns:xs="http://www.w3.org/2001/XMLSchema"&gt;
+  &lt;xs:element name="SALES_REPRESENTATIVES"&gt;
+    &lt;xs:complexType&gt;
+      &lt;xs:sequence&gt;
+        &lt;xs:element name="SALES_REPRESENTATIVE" maxOccurs="unbounded" minOccurs="0"&gt;
+          &lt;xs:complexType&gt;
+            &lt;xs:sequence&gt;
+              &lt;xs:element type="xs:short" name="CODE"/&gt;
+              &lt;xs:element type="xs:string" name="FIRST_NAME"/&gt;
+              &lt;xs:element type="xs:string" name="SURNAME"/&gt;
+              &lt;xs:element type="xs:string" name="REGION"/&gt;
+              &lt;xs:element type="xs:string" name="UP_TO_DATE"/&gt;
+              &lt;xs:element name="CONTRACTORS"&gt;
+                &lt;xs:complexType&gt;
+                  &lt;xs:sequence&gt;
+                    &lt;xs:element name="CONTRACTOR" maxOccurs="unbounded" minOccurs="0"&gt;
+                      &lt;xs:complexType&gt;
+                        &lt;xs:sequence&gt;
+                          &lt;xs:element type="xs:string" name="CUSTOMER_NUMBER"/&gt;
+                        &lt;/xs:sequence&gt;
+                      &lt;/xs:complexType&gt;
+                    &lt;/xs:element&gt;
+                  &lt;/xs:sequence&gt;
+                &lt;/xs:complexType&gt;
+              &lt;/xs:element&gt;
+            &lt;/xs:sequence&gt;
+          &lt;/xs:complexType&gt;
+        &lt;/xs:element&gt;
+      &lt;/xs:sequence&gt;
+    &lt;/xs:complexType&gt;
+  &lt;/xs:element&gt;
+&lt;/xs:schema&gt;</t>
+  </si>
+  <si>
+    <t>  &lt;SALES_REPRESENTATIVE&gt;</t>
+  </si>
+  <si>
+    <t>Nagłówek przedsawiciela handlowego</t>
+  </si>
+  <si>
+    <t>    &lt;CODE&gt;127&lt;/CODE&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;FIRST_NAME&gt;AGNIESZKA&lt;/FIRST_NAME&gt;</t>
+  </si>
+  <si>
+    <t>Imię</t>
+  </si>
+  <si>
+    <t>VARCHAR2(15)</t>
+  </si>
+  <si>
+    <t>    &lt;SURNAME&gt;STEIER&lt;/SURNAME&gt;</t>
+  </si>
+  <si>
+    <t>Nazwisko</t>
+  </si>
+  <si>
+    <t>VARCHAR2(40)</t>
+  </si>
+  <si>
+    <t>    &lt;REGION&gt;POZNAŃ ZACHÓD&lt;/REGION&gt;</t>
+  </si>
+  <si>
+    <t>Nazwa regionu</t>
+  </si>
+  <si>
+    <t>    &lt;UP_TO_DATE&gt;T&lt;/UP_TO_DATE&gt;</t>
+  </si>
+  <si>
+    <t>Znacznik aktualności przedstawiciela</t>
+  </si>
+  <si>
+    <t>    &lt;CONTRACTORS&gt;</t>
+  </si>
+  <si>
+    <t>Nagłówek zbioru kontrahentów przedstawiciela handlowego</t>
+  </si>
+  <si>
+    <t>      &lt;CONTRACTOR&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;CUSTOMER_NUMBER&gt;054NKK&lt;/CUSTOMER_NUMBER&gt;</t>
+  </si>
+  <si>
+    <t>      &lt;/CONTRACTOR&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;/CONTRACTORS&gt;</t>
+  </si>
+  <si>
+    <t>  &lt;/SALES_REPRESENTATIVE&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/SALES_REPRESENTATIVES&gt;</t>
+  </si>
+  <si>
+    <t>&lt;DELIVERY_METHODS&gt;</t>
+  </si>
+  <si>
+    <t>Nagłówek zbioru sposobów dostaw</t>
+  </si>
+  <si>
+    <t>&lt;xs:schema attributeFormDefault="unqualified" elementFormDefault="qualified" xmlns:xs="http://www.w3.org/2001/XMLSchema"&gt;
+  &lt;xs:element name="DELIVERY_METHODS"&gt;
+    &lt;xs:complexType&gt;
+      &lt;xs:sequence&gt;
+        &lt;xs:element name="DELIVERY_METHOD"&gt;
+          &lt;xs:complexType&gt;
+            &lt;xs:sequence&gt;
+              &lt;xs:element type="xs:string" name="DELIVERY_METHOD_CODE"/&gt;
+              &lt;xs:element type="xs:string" name="DESCRIPTION"/&gt;
+              &lt;xs:element type="xs:string" name="UP_TO_DATE"/&gt;
+            &lt;/xs:sequence&gt;
+          &lt;/xs:complexType&gt;
+        &lt;/xs:element&gt;
+      &lt;/xs:sequence&gt;
+    &lt;/xs:complexType&gt;
+  &lt;/xs:element&gt;
+&lt;/xs:schema&gt;</t>
+  </si>
+  <si>
+    <t>  &lt;DELIVERY_METHOD&gt;</t>
+  </si>
+  <si>
+    <t>Nagłówek sposobu dostawy</t>
+  </si>
+  <si>
+    <t>    &lt;DELIVERY_METHOD_CODE&gt;FCA&lt;/DELIVERY_METHOD_CODE&gt;</t>
+  </si>
+  <si>
+    <t>Kod sposobu dostawy</t>
+  </si>
+  <si>
+    <t>    &lt;DESCRIPTION&gt;FRANCO PRZEWOŹNIK&lt;/DESCRIPTION&gt;</t>
+  </si>
+  <si>
+    <t>Opis sposobu dostawy</t>
+  </si>
+  <si>
+    <t>    &lt;UP_TO_DATE&gt;N&lt;/UP_TO_DATE&gt;</t>
+  </si>
+  <si>
+    <t>Znacznik aktualnosci sposobu dostawy</t>
+  </si>
+  <si>
+    <t>  &lt;/DELIVERY_METHOD&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/DELIVERY_METHODS&gt;</t>
+  </si>
+  <si>
+    <t>&lt;PAYMENTS_METHODS&gt;</t>
+  </si>
+  <si>
+    <t>Nagłówek zbioru form zapłaty</t>
+  </si>
+  <si>
+    <t>&lt;xs:schema attributeFormDefault="unqualified" elementFormDefault="qualified" xmlns:xs="http://www.w3.org/2001/XMLSchema"&gt;
+  &lt;xs:element name="PAYMENTS_METHODS"&gt;
+    &lt;xs:complexType&gt;
+      &lt;xs:sequence&gt;
+        &lt;xs:element name="PAYMENT_METHOD"&gt;
+          &lt;xs:complexType&gt;
+            &lt;xs:sequence&gt;
+              &lt;xs:element type="xs:string" name="PAYMENT_METHOD_CODE"/&gt;
+              &lt;xs:element type="xs:string" name="DESCRIPTION"/&gt;
+              &lt;xs:element type="xs:int" name="DEFERMENT_OF_PAYMENT"/&gt;
+              &lt;xs:element type="xs:string" name="PAYMENT_TYPE"/&gt;
+              &lt;xs:element type="xs:string" name="UP_TO_DATE"/&gt;
+            &lt;/xs:sequence&gt;
+          &lt;/xs:complexType&gt;
+        &lt;/xs:element&gt;
+      &lt;/xs:sequence&gt;
+    &lt;/xs:complexType&gt;
+  &lt;/xs:element&gt;
+&lt;/xs:schema&gt;</t>
+  </si>
+  <si>
+    <t>  &lt;PAYMENT_METHOD&gt;</t>
+  </si>
+  <si>
+    <t>Nagłówek formy zapłaty</t>
+  </si>
+  <si>
+    <t>  &lt;xs:element name="PAYMENTS_METHODS"&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;PAYMENT_METHOD_CODE&gt;PRZEL&lt;/PAYMENT_METHOD_CODE&gt;</t>
+  </si>
+  <si>
+    <t>Kod formy zapłaty</t>
+  </si>
+  <si>
+    <t>    &lt;xs:complexType&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;DESCRIPTION&gt;PRZELEW&lt;/DESCRIPTION&gt;</t>
+  </si>
+  <si>
+    <t>Opis formy zapłaty</t>
+  </si>
+  <si>
+    <t>      &lt;xs:sequence&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;DEFERMENT_OF_PAYMENT&gt;21&lt;/DEFERMENT_OF_PAYMENT&gt;</t>
+  </si>
+  <si>
+    <t>Liczba dni odroczenia płatności</t>
+  </si>
+  <si>
+    <t>        &lt;xs:element name="PAYMENT_METHOD"&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;PAYMENT_TYPE&gt;Ustalony termin płatności&lt;/PAYMENT_TYPE&gt;</t>
+  </si>
+  <si>
+    <t>Typ formy zapłaty</t>
+  </si>
+  <si>
+    <t>          &lt;xs:complexType&gt;</t>
+  </si>
+  <si>
+    <t>Znacznik aktualnosci formy zapłaty</t>
+  </si>
+  <si>
+    <t>            &lt;xs:sequence&gt;</t>
+  </si>
+  <si>
+    <t>  &lt;/PAYMENT_METHOD&gt;</t>
+  </si>
+  <si>
+    <t>              &lt;xs:element type="xs:string" name="PAYMENT_METHOD_CODE"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/PAYMENTS_METHODS&gt;</t>
+  </si>
+  <si>
+    <t>              &lt;xs:element type="xs:string" name="DESCRIPTION"/&gt;</t>
+  </si>
+  <si>
+    <t>              &lt;xs:element type="xs:byte" name="DEFERMENT_OF_PAYMENT"/&gt;</t>
+  </si>
+  <si>
+    <t>              &lt;xs:element type="xs:string" name="PAYMENT_TYPE"/&gt;</t>
+  </si>
+  <si>
+    <t>              &lt;xs:element type="xs:string" name="UP_TO_DATE"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;/xs:sequence&gt;</t>
+  </si>
+  <si>
+    <t>          &lt;/xs:complexType&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;/xs:element&gt;</t>
+  </si>
+  <si>
+    <t>      &lt;/xs:sequence&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;/xs:complexType&gt;</t>
+  </si>
+  <si>
+    <t>  &lt;/xs:element&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/xs:schema&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ORDERS_PATTERNS&gt;</t>
+  </si>
+  <si>
+    <t>Nagłówek zbioru wzorców zamówień sprzedaży</t>
+  </si>
+  <si>
+    <t>&lt;xs:schema attributeFormDefault="unqualified" elementFormDefault="qualified" xmlns:xs="http://www.w3.org/2001/XMLSchema"&gt;
+  &lt;xs:element name="ORDERS_PATTERNS"&gt;
+    &lt;xs:complexType&gt;
+      &lt;xs:sequence&gt;
+        &lt;xs:element name="ORDER_PATTERN"&gt;
+          &lt;xs:complexType&gt;
+            &lt;xs:sequence&gt;
+              &lt;xs:element type="xs:string" name="PATTERN_CODE"/&gt;
+              &lt;xs:element type="xs:string" name="PATTERN_NAME"/&gt;
+              &lt;xs:element type="xs:string" name="UP_TO_DATE"/&gt;
+            &lt;/xs:sequence&gt;
+          &lt;/xs:complexType&gt;
+        &lt;/xs:element&gt;
+      &lt;/xs:sequence&gt;
+    &lt;/xs:complexType&gt;
+  &lt;/xs:element&gt;
+&lt;/xs:schema&gt;</t>
+  </si>
+  <si>
+    <t>  &lt;ORDER_PATTERN&gt;</t>
+  </si>
+  <si>
+    <t>Nagłówek wzorca zamówienia sprzedaży</t>
+  </si>
+  <si>
+    <t>    &lt;PATTERN_CODE&gt;ZAM. NA PARAGON&lt;/PATTERN_CODE&gt;</t>
+  </si>
+  <si>
+    <t>Kod wzorca</t>
+  </si>
+  <si>
+    <t>    &lt;PATTERN_NAME&gt;ZAM. NA PARAGON&lt;/PATTERN_NAME&gt;</t>
+  </si>
+  <si>
+    <t>Nazwa wzorca</t>
+  </si>
+  <si>
+    <t>Znacznik aktualności wzorca</t>
+  </si>
+  <si>
+    <t>  &lt;/ORDER_PATTERN&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/ORDERS_PATTERNS&gt;</t>
   </si>
 </sst>
 </file>
@@ -1220,7 +1525,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1290,26 +1595,8 @@
       <sz val="8"/>
       <color rgb="FF00000A"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF00000A"/>
-      <name val="Calibri"/>
       <family val="1"/>
       <charset val="238"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1318,6 +1605,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1408,15 +1700,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1436,11 +1720,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1523,8 +1815,8 @@
   </sheetPr>
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A37" activeCellId="0" sqref="A37"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1612,7 +1904,7 @@
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -1624,7 +1916,7 @@
       <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -1636,7 +1928,7 @@
       <c r="A9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -1648,7 +1940,7 @@
       <c r="A10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -1660,7 +1952,7 @@
       <c r="A11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -1672,10 +1964,10 @@
       <c r="A12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D12" s="6"/>
@@ -1684,7 +1976,7 @@
       <c r="A13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -1693,7 +1985,7 @@
       <c r="D13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -1705,10 +1997,10 @@
       <c r="D14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -1717,7 +2009,7 @@
       <c r="D15" s="6"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -1729,224 +2021,224 @@
       <c r="D16" s="6"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="9" t="s">
+      <c r="B17" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="C17" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="D17" s="6"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="7" t="s">
+      <c r="A18" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D18" s="6"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
-        <v>46</v>
+      <c r="A19" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D19" s="6"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
-        <v>48</v>
+      <c r="A20" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D20" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="10" t="s">
+      <c r="A21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="7" t="s">
+      <c r="A22" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="7" t="s">
+      <c r="A23" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" s="7" t="s">
+      <c r="A24" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="7" t="s">
+      <c r="A25" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="s">
-        <v>60</v>
+      <c r="A26" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="s">
-        <v>61</v>
+      <c r="A27" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="5"/>
       <c r="D27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="s">
-        <v>62</v>
+      <c r="A28" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D28" s="6"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="s">
-        <v>64</v>
+      <c r="A29" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D29" s="6"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B30" s="7" t="s">
+      <c r="A30" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D30" s="6"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B31" s="7" t="s">
+      <c r="A31" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D31" s="6"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B32" s="7" t="s">
+      <c r="A32" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D32" s="6"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B33" s="7" t="s">
+      <c r="A33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D33" s="6"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B34" s="7" t="s">
+      <c r="A34" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D34" s="6"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="s">
-        <v>66</v>
+      <c r="A35" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="5"/>
       <c r="D35" s="6"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="s">
-        <v>67</v>
+      <c r="A36" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="5"/>
       <c r="D36" s="6"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="s">
-        <v>68</v>
+      <c r="A37" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="5"/>
@@ -1966,6 +2258,589 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D39"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="60.765306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="60.4132653061224"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.3316326530612"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.3724489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="11" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="11"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="11"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="11"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="11"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="11"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="11"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="11"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="11"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="11"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="11"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="11"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="11"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="11"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="11"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="11"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="11"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="11"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="11"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="11"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="11"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="11"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="11"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D2:D39"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normalny"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normalny"&amp;12Strona &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D39"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A41" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B78" activeCellId="0" sqref="B78"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="60.765306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="60.4132653061224"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.3316326530612"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.3724489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="11"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="11"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="11"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="11"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="11"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="11"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="11"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="11"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="11"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="11"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="11"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="11"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="11"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="11"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="11"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="11"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="11"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="11"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="11"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="11"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="11"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="11"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D2:D39"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normalny"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normalny"&amp;12Strona &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -1973,8 +2848,8 @@
   </sheetPr>
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1996,417 +2871,419 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
         <v>71</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="12"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="12"/>
+      <c r="C4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="B5" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="B6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" s="12"/>
+      <c r="C7" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="12"/>
+      <c r="B8" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="12"/>
+      <c r="B9" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="10"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="12"/>
+        <v>91</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="10"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="12"/>
+        <v>93</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="10"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D12" s="12"/>
+        <v>95</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="10"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B13" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="12"/>
+      <c r="C13" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="10"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="12"/>
+        <v>98</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="10"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="12"/>
+        <v>99</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="10"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D16" s="12"/>
+        <v>100</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="10"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D17" s="12"/>
+        <v>102</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="10"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C18" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D18" s="12"/>
+      <c r="B18" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" s="10"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C19" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="D19" s="12"/>
+      <c r="B19" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="10"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D20" s="12"/>
+      <c r="C20" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="10"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D21" s="12"/>
+        <v>95</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="10"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B22" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="D22" s="12"/>
+      <c r="C22" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" s="10"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="12"/>
+        <v>114</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="10"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="12"/>
+        <v>115</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="10"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D25" s="12"/>
+        <v>116</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D25" s="10"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="D26" s="12"/>
+        <v>118</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D26" s="10"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D27" s="12"/>
+        <v>120</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" s="10"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D28" s="12"/>
+        <v>121</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" s="10"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D29" s="12"/>
+        <v>95</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" s="10"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="12"/>
+        <v>122</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="10"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="12"/>
+        <v>123</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="10"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="D32" s="12"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32" s="10"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="D33" s="12"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D33" s="10"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B34" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="D34" s="12"/>
+      <c r="C34" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D34" s="10"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B35" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="D35" s="12"/>
+      <c r="C35" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D35" s="10"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="B36" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="D36" s="12"/>
+      <c r="C36" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D36" s="10"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="12"/>
+        <v>134</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="10"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="12"/>
+        <v>135</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="10"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="12"/>
+        <v>136</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="10"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="12"/>
+        <v>137</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2414,7 +3291,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Normalny"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normalny"&amp;12Strona &amp;P</oddFooter>
@@ -2429,8 +3306,8 @@
   </sheetPr>
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2452,201 +3329,203 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8" t="s">
+      <c r="A2" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
         <v>139</v>
       </c>
+      <c r="D2" s="11" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8" t="s">
+      <c r="A3" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D3" s="13"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" s="11"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="A4" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="D4" s="13"/>
+      <c r="B4" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="11"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D5" s="13"/>
+      <c r="C5" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="B6" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="D6" s="13"/>
+      <c r="C6" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" s="11"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="D7" s="13"/>
+      <c r="C7" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" s="11"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="B8" s="8" t="s">
+      <c r="A8" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="D8" s="13"/>
+      <c r="C8" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" s="11"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="B9" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="D9" s="13"/>
+      <c r="C9" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D9" s="11"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8" t="s">
+      <c r="A10" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="D10" s="13"/>
+      <c r="B10" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D10" s="11"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8" t="s">
+      <c r="A11" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="D11" s="13"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D11" s="11"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8" t="s">
+      <c r="A12" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="D12" s="13"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D12" s="11"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="8" t="s">
+      <c r="A13" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D13" s="13"/>
+      <c r="B13" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D13" s="11"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C14" s="8" t="s">
+      <c r="A14" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="D14" s="13"/>
+      <c r="B14" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D14" s="11"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="C15" s="8" t="s">
+      <c r="A15" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="D15" s="13"/>
+      <c r="B15" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D15" s="11"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="13"/>
+      <c r="A16" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="11"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="13"/>
+      <c r="A17" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="11"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="13"/>
+      <c r="A18" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="11"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="13"/>
+      <c r="A19" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2654,7 +3533,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Normalny"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normalny"&amp;12Strona &amp;P</oddFooter>
@@ -2669,13 +3548,13 @@
   </sheetPr>
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="14" width="78.0051020408163"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="12" width="78.0051020408163"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.8061224489796"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.8418367346939"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="58.530612244898"/>
@@ -2683,7 +3562,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -2692,294 +3571,294 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
         <v>175</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="C3" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="D3" s="13"/>
+      <c r="C3" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D3" s="11"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="B4" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="D4" s="13"/>
+      <c r="C4" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="11"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="B5" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="D5" s="13"/>
+      <c r="C5" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C6" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="D6" s="13"/>
+      <c r="B6" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D6" s="11"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C7" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="D7" s="13"/>
+      <c r="B7" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D7" s="11"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C8" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D8" s="13"/>
+      <c r="C8" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="11"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C9" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="D9" s="13"/>
+      <c r="D9" s="11"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="D10" s="13"/>
+      <c r="D10" s="11"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="D11" s="13"/>
+      <c r="D11" s="11"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" s="8" t="s">
+      <c r="B12" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="D12" s="13"/>
+      <c r="D12" s="11"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="D13" s="13"/>
+      <c r="D13" s="11"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="D14" s="13"/>
+      <c r="C14" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D14" s="11"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="D15" s="13"/>
+      <c r="C15" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D15" s="11"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="D16" s="13"/>
+      <c r="D16" s="11"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="D17" s="13"/>
+      <c r="D17" s="11"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="D18" s="13"/>
+      <c r="D18" s="11"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="D19" s="13"/>
+      <c r="D19" s="11"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="D20" s="13"/>
+      <c r="D20" s="11"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="D21" s="13"/>
+      <c r="D21" s="11"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="D22" s="13"/>
-    </row>
-    <row r="23" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D22" s="11"/>
+    </row>
+    <row r="23" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="D23" s="13"/>
-    </row>
-    <row r="24" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D23" s="11"/>
+    </row>
+    <row r="24" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="C24" s="8" t="s">
+      <c r="B24" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="D24" s="13"/>
-    </row>
-    <row r="25" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D24" s="11"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
         <v>218</v>
       </c>
       <c r="B25" s="5"/>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="D25" s="13"/>
-    </row>
-    <row r="26" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D25" s="11"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
         <v>220</v>
       </c>
@@ -2987,9 +3866,9 @@
       <c r="C26" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="D26" s="13"/>
-    </row>
-    <row r="27" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D26" s="11"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
         <v>222</v>
       </c>
@@ -2999,107 +3878,107 @@
       <c r="C27" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="D27" s="13"/>
-    </row>
-    <row r="28" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D27" s="11"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
         <v>225</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D28" s="13"/>
-    </row>
-    <row r="29" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>77</v>
+      </c>
+      <c r="D28" s="11"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
         <v>226</v>
       </c>
       <c r="B29" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="11"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D29" s="13"/>
-    </row>
-    <row r="30" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5" t="s">
+      <c r="B30" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="11"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D30" s="13"/>
-    </row>
-    <row r="31" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5" t="s">
+      <c r="B31" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="C31" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="D31" s="11"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="D31" s="13"/>
-    </row>
-    <row r="32" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5" t="s">
+      <c r="B32" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D32" s="11"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D32" s="13"/>
-    </row>
-    <row r="33" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="5" t="s">
+      <c r="B33" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>234</v>
-      </c>
       <c r="C33" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D33" s="13"/>
-    </row>
-    <row r="34" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>90</v>
+      </c>
+      <c r="D33" s="11"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
-        <v>235</v>
+        <v>189</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>190</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D34" s="13"/>
-    </row>
-    <row r="35" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>234</v>
+      </c>
+      <c r="D34" s="11"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>190</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="D35" s="13"/>
-    </row>
-    <row r="36" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>236</v>
+      </c>
+      <c r="D35" s="11"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>239</v>
+        <v>192</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>190</v>
@@ -3107,39 +3986,39 @@
       <c r="C36" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="D36" s="13"/>
-    </row>
-    <row r="37" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D36" s="11"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
-      <c r="D37" s="13"/>
-    </row>
-    <row r="38" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D37" s="11"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="13"/>
-    </row>
-    <row r="39" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D38" s="11"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
-      <c r="D39" s="13"/>
+      <c r="D39" s="11"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
+        <v>240</v>
+      </c>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3147,7 +4026,1715 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normalny"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normalny"&amp;12Strona &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D43"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="74.8673469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.8010204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.5"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="79.6887755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="D9" s="11"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="D11" s="11"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="11"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="11"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="11"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="11"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="11"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="11"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="11"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="11"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="11"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="11"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="11"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="11"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="11"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="11"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="11"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="11"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="11"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="11"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="11"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="11"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="11"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="11"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="11"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="11"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="5"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D2:D42"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normalny"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normalny"&amp;12Strona &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D38"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="68.6377551020408"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.4438775510204"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.1938775510204"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="71.5816326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="11"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="11"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="11"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="11"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="11"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="11"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="11"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="11"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="11"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="11"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="11"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="11"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="11"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="11"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="11"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="11"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="11"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="11"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="11"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="11"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="11"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D2:D38"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normalny"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normalny"&amp;12Strona &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D39"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="60.765306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="60.4132653061224"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.3316326530612"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="67.8214285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="11" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="11"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="11"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="11"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="11"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="11"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="11"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="11"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="11"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="11"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="11"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="11"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="11"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="11"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="11"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="11"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="11"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="11"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="11"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="11"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="11"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="11"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="11"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D2:D39"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normalny"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normalny"&amp;12Strona &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D39"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="60.765306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="60.4132653061224"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.3316326530612"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="64.5255102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="11" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="11"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="11"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="11"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="11"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="11"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="11"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="11"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="11"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="11"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="11"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="11"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="11"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="11"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="11"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="11"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="11"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="11"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="11"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="11"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="11"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="11"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="11"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D2:D39"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normalny"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normalny"&amp;12Strona &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D39"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="60.765306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="60.4132653061224"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.3316326530612"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="53.4744897959184"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="11" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="11" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="11" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="11" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="11" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="11" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="11" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="11" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="11" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="11" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="11" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="11" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="11" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="11"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="11"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="11"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="11"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="11"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="11"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="11"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="11"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="11"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="11"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="11"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="11"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="11"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="11"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="11"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="11"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="11"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="11"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D2:D39"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Normalny"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normalny"&amp;12Strona &amp;P</oddFooter>

--- a/Doc/Specyfikacja.xlsx
+++ b/Doc/Specyfikacja.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="792" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="792" firstSheet="0" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Commodities" sheetId="1" state="visible" r:id="rId2"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="648">
   <si>
     <t>Atrybut</t>
   </si>
@@ -706,7 +706,7 @@
     <t>&lt;CONTRACT_DESTINATION&gt;Kontrakt Hair Master&lt;/CONTRACT_DESTINATION&gt;</t>
   </si>
   <si>
-    <t>cel kontraktu </t>
+    <t>cel kontraktu</t>
   </si>
   <si>
     <t>&lt;CONTRACT_VALUE&gt;5600&lt;/CONTRACT_VALUE&gt;</t>
@@ -790,8 +790,7 @@
     <t>Nagłówek zbioru dostaw</t>
   </si>
   <si>
-    <r>
-      <t>&lt;xs:schema attributeFormDefault="unqualified" elementFormDefault="qualified" xmlns:xs="http://www.w3.org/2001/XMLSchema"&gt;
+    <t>&lt;xs:schema attributeFormDefault="unqualified" elementFormDefault="qualified" xmlns:xs="http://www.w3.org/2001/XMLSchema"&gt;
   &lt;xs:element name="DELIVERIES"&gt;
     &lt;xs:complexType&gt;
       &lt;xs:sequence&gt;
@@ -802,27 +801,8 @@
               &lt;xs:element type="xs:string" name="CONTRACTOR_SYMBOL"/&gt;
               &lt;xs:element type="xs:date" name="REALIZATION_DATE"/&gt;
               &lt;xs:element type="xs:int" name="DOCUMENT_NUMBER"/&gt;
-              &lt;xs:element type="xs:string" name="ORDER_SYMBOL"/&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>              &lt;xs:element type="xs:string" name="TRACKING_NUMBER"/&gt;
-              &lt;xs:element type="xs:string" name="TRACKING_LINK"/&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>              &lt;xs:element name="LINES"&gt;
+              &lt;xs:element type="xs:string" name="ORDER_SYMBOL"/&gt;&lt;xs:element type="xs:string" name="TRACKING_NUMBER"/&gt;
+              &lt;xs:element type="xs:string" name="TRACKING_LINK"/&gt;&lt;xs:element name="LINES"&gt;
                 &lt;xs:complexType&gt;
                   &lt;xs:sequence&gt;
                     &lt;xs:element name="LINE" maxOccurs="unbounded" minOccurs="0"&gt;
@@ -847,7 +827,6 @@
     &lt;/xs:complexType&gt;
   &lt;/xs:element&gt;
 &lt;/xs:schema&gt;</t>
-    </r>
   </si>
   <si>
     <t>&lt;DELIVERY&gt;</t>
@@ -1777,16 +1756,16 @@
 &lt;/xs:schema&gt;</t>
   </si>
   <si>
-    <t>  &lt;ORDER_NUMBER&gt;1675391&lt;/ORDER_NUMBER&gt;</t>
+    <t>&lt;ORDER_NUMBER&gt;1675391&lt;/ORDER_NUMBER&gt;</t>
   </si>
   <si>
     <t>VARCHAR2(40)</t>
   </si>
   <si>
-    <t>Symbol zamówienia sprzedaży </t>
-  </si>
-  <si>
-    <t>  &lt;STATUS&gt;ESTABLISHED&lt;/STATUS&gt;</t>
+    <t>Symbol zamówienia sprzedaży</t>
+  </si>
+  <si>
+    <t>&lt;STATUS&gt;ESTABLISHED&lt;/STATUS&gt;</t>
   </si>
   <si>
     <t>Varchar2(20)</t>
@@ -1795,19 +1774,19 @@
     <t>Status</t>
   </si>
   <si>
-    <t>  &lt;RESERVATIONS&gt;</t>
+    <t>&lt;RESERVATIONS&gt;</t>
   </si>
   <si>
     <t>Nagłówek zbioru rezerwacji</t>
   </si>
   <si>
-    <t>    &lt;RESERVATION&gt;</t>
+    <t>&lt;RESERVATION&gt;</t>
   </si>
   <si>
     <t>Nagłówek rezerwaci</t>
   </si>
   <si>
-    <t>      &lt;RESERVATION_DATE&gt;2016-11-05 07:09:10&lt;/RESERVATION_DATE&gt;</t>
+    <t>&lt;RESERVATION_DATE&gt;2016-11-05 07:09:10&lt;/RESERVATION_DATE&gt;</t>
   </si>
   <si>
     <t>Date</t>
@@ -1816,25 +1795,25 @@
     <t>Data rezerwacji</t>
   </si>
   <si>
-    <t>      &lt;COMMODITY_ID&gt;090&lt;/COMMODITY_ID&gt;</t>
-  </si>
-  <si>
-    <t>      &lt;QUANTITY_ORDERED&gt;3&lt;/QUANTITY_ORDERED&gt;</t>
+    <t>&lt;COMMODITY_ID&gt;090&lt;/COMMODITY_ID&gt;</t>
+  </si>
+  <si>
+    <t>&lt;QUANTITY_ORDERED&gt;3&lt;/QUANTITY_ORDERED&gt;</t>
   </si>
   <si>
     <t>Ilość zamówiona</t>
   </si>
   <si>
-    <t>      &lt;QUANTITY_RESERVED&gt;0&lt;/QUANTITY_RESERVED&gt;</t>
+    <t>&lt;QUANTITY_RESERVED&gt;0&lt;/QUANTITY_RESERVED&gt;</t>
   </si>
   <si>
     <t>Ilość zarezerwowana</t>
   </si>
   <si>
-    <t>    &lt;/RESERVATION&gt;</t>
-  </si>
-  <si>
-    <t>  &lt;/RESERVATIONS&gt;</t>
+    <t>&lt;/RESERVATION&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/RESERVATIONS&gt;</t>
   </si>
   <si>
     <t>&lt;/ORDER_RESPONSE&gt;</t>
@@ -1906,9 +1885,6 @@
     <t>&lt;/PAYMENTS_METHODS&gt;</t>
   </si>
   <si>
-    <t>&lt;RESERVATIONS&gt;</t>
-  </si>
-  <si>
     <t>&lt;xs:schema attributeFormDefault="unqualified" elementFormDefault="qualified" xmlns:xs="http://www.w3.org/2001/XMLSchema"&gt;
   &lt;xs:element name="RESERVATIONS"&gt;
     &lt;xs:complexType&gt;
@@ -1930,9 +1906,6 @@
 &lt;/xs:schema&gt;</t>
   </si>
   <si>
-    <t>&lt;RESERVATION&gt;</t>
-  </si>
-  <si>
     <t>Nagłówek rezerwacji</t>
   </si>
   <si>
@@ -1957,23 +1930,13 @@
     <t>&lt;QUANTITY_ORDERED&gt;2&lt;/QUANTITY_ORDERED&gt;</t>
   </si>
   <si>
-    <t>&lt;QUANTITY_RESERVED&gt;0&lt;/QUANTITY_RESERVED&gt;</t>
-  </si>
-  <si>
-    <t>&lt;/RESERVATION&gt;</t>
-  </si>
-  <si>
-    <t>&lt;/RESERVATIONS&gt;</t>
-  </si>
-  <si>
     <t>&lt;SALES_REPRESENTATIVES&gt;</t>
   </si>
   <si>
     <t>Nagłówek zbioru przedstawicieli handlowych</t>
   </si>
   <si>
-    <r>
-      <t>&lt;xs:schema attributeFormDefault="unqualified" elementFormDefault="qualified" xmlns:xs="http://www.w3.org/2001/XMLSchema"&gt;
+    <t>&lt;xs:schema attributeFormDefault="unqualified" elementFormDefault="qualified" xmlns:xs="http://www.w3.org/2001/XMLSchema"&gt;
 	&lt;xs:element name="SALES_REPRESENTATIVES"&gt;
 		&lt;xs:complexType&gt;
 			&lt;xs:sequence&gt;
@@ -1981,26 +1944,7 @@
 					&lt;xs:complexType&gt;
 						&lt;xs:sequence&gt;
 							&lt;xs:element type="xs:decimal" name="ID"/&gt;
-							&lt;xs:element type="xs:string" name="NAME"/&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>							&lt;xs:element type="xs:string" name="NUMER_KASY"/&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>							&lt;xs:element type="xs:string" name="ID_ERP"/&gt;
+							&lt;xs:element type="xs:string" name="NAME"/&gt;&lt;xs:element type="xs:string" name="NUMER_KASY"/&gt;&lt;xs:element type="xs:string" name="ID_ERP"/&gt;
 							&lt;xs:element type="xs:int" name="ACTIVE"/&gt;
 							&lt;xs:element type="xs:string" name="USERLOGIN"/&gt;
 							&lt;xs:element type="xs:string" name="USERNAME"/&gt;
@@ -2028,7 +1972,6 @@
 		&lt;/xs:complexType&gt;
 	&lt;/xs:element&gt;
 &lt;/xs:schema&gt;</t>
-    </r>
   </si>
   <si>
     <t>&lt;SALES_REPRESENTATIVE&gt;</t>
@@ -2328,24 +2271,36 @@
     <t>&lt;TRADE_CONTRACTS&gt;</t>
   </si>
   <si>
-    <t>Nagłówek zbioru umów handlowych</t>
-  </si>
-  <si>
     <t>&lt;xs:schema attributeFormDefault="unqualified" elementFormDefault="qualified" xmlns:xs="http://www.w3.org/2001/XMLSchema"&gt;
   &lt;xs:element name="TRADE_CONTRACTS"&gt;
     &lt;xs:complexType&gt;
       &lt;xs:sequence&gt;
-        &lt;xs:element name="TRADE_CONTRACTS"&gt;
+        &lt;xs:element name="TRADE_CONTRACT"&gt;
           &lt;xs:complexType&gt;
             &lt;xs:sequence&gt;
+              &lt;xs:element type="xs:string" name="CONTRACTORS_ID"/&gt;
               &lt;xs:element type="xs:string" name="CONTRACT_NUMBER"/&gt;
               &lt;xs:element type="xs:date" name="CONTRACT_DATE"/&gt;
               &lt;xs:element type="xs:string" name="INDIVIDUAL_CONTRACT"/&gt;
               &lt;xs:element type="xs:string" name="DEFAULT_PAYMENT_TYPE"/&gt;
-              &lt;xs:element type="xs:float" name="CREDIT_LIMIT"/&gt;
-              &lt;xs:element type="xs:int" name="PAYMENT_DATE"/&gt;
-              &lt;xs:element type="xs:float" name="DISCOUNT_PERCENT"/&gt;
-              &lt;xs:element type="xs:float" name="BONUS_POINTS"/&gt;
+              &lt;xs:element type="xs:short" name="CREDIT_LIMIT"/&gt;
+              &lt;xs:element type="xs:byte" name="PAYMENT_DATE"/&gt;
+              &lt;xs:element type="xs:byte" name="DISCOUNT_PERCENT"/&gt;
+              &lt;xs:element name="BONUS_POINTS"&gt;
+                &lt;xs:complexType&gt;
+                  &lt;xs:sequence&gt;
+                    &lt;xs:element name="BONUS_POINTS_ROW" maxOccurs="unbounded" minOccurs="0"&gt;
+                      &lt;xs:complexType&gt;
+                        &lt;xs:sequence&gt;
+                          &lt;xs:element type="xs:string" name="COL_NAME"/&gt;
+                          &lt;xs:element type="xs:floar" name="QUANTITY"/&gt;
+                        &lt;/xs:sequence&gt;
+                      &lt;/xs:complexType&gt;
+                    &lt;/xs:element&gt;
+                  &lt;/xs:sequence&gt;
+                &lt;/xs:complexType&gt;
+              &lt;/xs:element&gt;
+              &lt;xs:element type="xs:string" name="SKONTO"/&gt;
             &lt;/xs:sequence&gt;
           &lt;/xs:complexType&gt;
         &lt;/xs:element&gt;
@@ -2355,52 +2310,64 @@
 &lt;/xs:schema&gt;</t>
   </si>
   <si>
-    <t>Nagłówek umowy handlowej</t>
-  </si>
-  <si>
-    <t>&lt;CONTRACT_NUMBER&gt;GW_2014 58/503&lt;/CONTRACT_NUMBER&gt;</t>
-  </si>
-  <si>
-    <t>Numer umowy</t>
-  </si>
-  <si>
-    <t>&lt;CONTRACT_DATE&gt;2015-10-02&lt;/CONTRACT_DATE&gt;</t>
-  </si>
-  <si>
-    <t>Data umowy</t>
-  </si>
-  <si>
-    <t>&lt;INDIVIDUAL_CONTRACT&gt;N&lt;/INDIVIDUAL_CONTRACT&gt;</t>
-  </si>
-  <si>
-    <t>Czy umowa indywidualna?</t>
+    <t>&lt;TRADE_CONTRACT&gt;</t>
+  </si>
+  <si>
+    <t>&lt;CONTRACTORS_ID&gt;4192/A&lt;/CONTRACTORS_ID&gt;</t>
+  </si>
+  <si>
+    <t>&lt;CONTRACT_NUMBER&gt;GW 26/214&lt;/CONTRACT_NUMBER&gt;</t>
+  </si>
+  <si>
+    <t>&lt;CONTRACT_DATE&gt;2011-01-01&lt;/CONTRACT_DATE&gt;</t>
+  </si>
+  <si>
+    <t>&lt;INDIVIDUAL_CONTRACT&gt;T&lt;/INDIVIDUAL_CONTRACT&gt;</t>
   </si>
   <si>
     <t>&lt;DEFAULT_PAYMENT_TYPE&gt;PRZEL&lt;/DEFAULT_PAYMENT_TYPE&gt;</t>
   </si>
   <si>
-    <t>Domyślna forma zapłaty</t>
-  </si>
-  <si>
-    <t>&lt;CREDIT_LIMIT&gt;1&lt;/CREDIT_LIMIT&gt;</t>
-  </si>
-  <si>
-    <t>Limit kredytowy</t>
-  </si>
-  <si>
-    <t>&lt;PAYMENT_DATE&gt;30&lt;/PAYMENT_DATE&gt;</t>
-  </si>
-  <si>
-    <t>&lt;DISCOUNT_PERCENT&gt;10&lt;/DISCOUNT_PERCENT&gt;</t>
-  </si>
-  <si>
-    <t>Rabat klienta</t>
-  </si>
-  <si>
-    <t>&lt;BONUS_POINTS&gt;2.5&lt;/BONUS_POINTS&gt;</t>
-  </si>
-  <si>
-    <t>Ilość punktów premiowych</t>
+    <t>&lt;CREDIT_LIMIT&gt;9455&lt;/CREDIT_LIMIT&gt;</t>
+  </si>
+  <si>
+    <t>&lt;PAYMENT_DATE&gt;21&lt;/PAYMENT_DATE&gt;</t>
+  </si>
+  <si>
+    <t>&lt;DISCOUNT_PERCENT&gt;35&lt;/DISCOUNT_PERCENT&gt;</t>
+  </si>
+  <si>
+    <t>&lt;BONUS_POINTS&gt;</t>
+  </si>
+  <si>
+    <t>&lt;BONUS_POINTS_ROW&gt;</t>
+  </si>
+  <si>
+    <t>&lt;COL_NAME&gt;QUARTER_POINTS&lt;/COL_NAME&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/BONUS_POINTS_ROW&gt;</t>
+  </si>
+  <si>
+    <t>&lt;COL_NAME&gt;QUARTER_THRESHOLD&lt;/COL_NAME&gt;</t>
+  </si>
+  <si>
+    <t>&lt;QUANTITY&gt;16500&lt;/QUANTITY&gt;</t>
+  </si>
+  <si>
+    <t>&lt;COL_NAME&gt;YEAR_THRESHOLD&lt;/COL_NAME&gt;</t>
+  </si>
+  <si>
+    <t>&lt;QUANTITY&gt;74000&lt;/QUANTITY&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/BONUS_POINTS&gt;</t>
+  </si>
+  <si>
+    <t>&lt;SKONTO&gt;T&lt;/SKONTO&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/TRADE_CONTRACT&gt;</t>
   </si>
   <si>
     <t>&lt;/TRADE_CONTRACTS&gt;</t>
@@ -2491,6 +2458,9 @@
   </si>
   <si>
     <t>&lt;/RESPONSE&gt;</t>
+  </si>
+  <si>
+    <t>Nagłówek zbioru umów handlowych</t>
   </si>
   <si>
     <t>&lt;xs:schema attributeFormDefault="unqualified" elementFormDefault="qualified" xmlns:xs="http://www.w3.org/2001/XMLSchema"&gt;
@@ -2525,10 +2495,40 @@
 &lt;/xs:schema&gt;</t>
   </si>
   <si>
-    <t>&lt;INDIVIDUAL_CONTRACT&gt;T&lt;/INDIVIDUAL_CONTRACT&gt;</t>
+    <t>Nagłówek umowy handlowej</t>
+  </si>
+  <si>
+    <t>&lt;CONTRACT_NUMBER&gt;GW_2014 58/503&lt;/CONTRACT_NUMBER&gt;</t>
+  </si>
+  <si>
+    <t>Numer umowy</t>
+  </si>
+  <si>
+    <t>&lt;CONTRACT_DATE&gt;2015-10-02&lt;/CONTRACT_DATE&gt;</t>
+  </si>
+  <si>
+    <t>Data umowy</t>
+  </si>
+  <si>
+    <t>Czy umowa indywidualna?</t>
+  </si>
+  <si>
+    <t>Domyślna forma zapłaty</t>
   </si>
   <si>
     <t>&lt;CREDIT_LIMIT&gt;1000&lt;/CREDIT_LIMIT&gt;</t>
+  </si>
+  <si>
+    <t>Limit kredytowy</t>
+  </si>
+  <si>
+    <t>&lt;PAYMENT_DATE&gt;30&lt;/PAYMENT_DATE&gt;</t>
+  </si>
+  <si>
+    <t>&lt;DISCOUNT_PERCENT&gt;10&lt;/DISCOUNT_PERCENT&gt;</t>
+  </si>
+  <si>
+    <t>Rabat klienta</t>
   </si>
   <si>
     <t>&lt;QUARTER_POINTS&gt;5.5&lt;/QUARTER_POINTS&gt;</t>
@@ -2660,7 +2660,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2743,11 +2743,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2809,7 +2804,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2871,10 +2866,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2957,7 +2948,7 @@
   </sheetPr>
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3427,7 +3418,7 @@
   </sheetPr>
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M30" activeCellId="0" sqref="M30"/>
     </sheetView>
   </sheetViews>
@@ -3731,7 +3722,7 @@
   </sheetPr>
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -4093,7 +4084,7 @@
   </sheetPr>
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -4445,7 +4436,7 @@
   </sheetPr>
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -4470,52 +4461,52 @@
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>464</v>
+        <v>433</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>434</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>466</v>
+        <v>435</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D3" s="12"/>
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>468</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>470</v>
       </c>
       <c r="D4" s="12"/>
     </row>
     <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>153</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D5" s="12"/>
     </row>
     <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>10</v>
@@ -4527,7 +4518,7 @@
     </row>
     <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>213</v>
@@ -4539,7 +4530,7 @@
     </row>
     <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>475</v>
+        <v>443</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>213</v>
@@ -4551,7 +4542,7 @@
     </row>
     <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>476</v>
+        <v>445</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -4559,7 +4550,7 @@
     </row>
     <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>477</v>
+        <v>446</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -4754,7 +4745,7 @@
   </sheetPr>
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
@@ -4783,32 +4774,32 @@
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="12" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="12"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>150</v>
@@ -4817,10 +4808,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>90</v>
@@ -4829,34 +4820,34 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="C6" s="15" t="s">
+        <v>483</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>106</v>
       </c>
       <c r="D6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="D7" s="12"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>150</v>
@@ -4865,10 +4856,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>90</v>
@@ -4877,22 +4868,22 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="D10" s="12"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>428</v>
@@ -4900,11 +4891,11 @@
       <c r="D11" s="12"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="16" t="s">
-        <v>501</v>
+      <c r="A12" s="15" t="s">
+        <v>496</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>90</v>
@@ -4913,22 +4904,22 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="D13" s="12"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>150</v>
@@ -4940,7 +4931,7 @@
         <v>78</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="12"/>
@@ -4957,7 +4948,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>84</v>
@@ -4977,7 +4968,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -4985,7 +4976,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -4993,7 +4984,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -5167,7 +5158,7 @@
   </sheetPr>
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -5192,52 +5183,52 @@
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="D3" s="12"/>
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="D4" s="12"/>
     </row>
     <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="D5" s="12"/>
     </row>
     <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>216</v>
@@ -5247,7 +5238,7 @@
     </row>
     <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>216</v>
@@ -5257,75 +5248,75 @@
     </row>
     <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>153</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="D8" s="12"/>
     </row>
     <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>213</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="D9" s="12"/>
     </row>
     <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="D10" s="12"/>
     </row>
     <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="D11" s="12"/>
     </row>
     <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="D12" s="12"/>
     </row>
     <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="D13" s="12"/>
     </row>
     <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>213</v>
@@ -5337,43 +5328,43 @@
     </row>
     <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="D15" s="12"/>
     </row>
     <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="D16" s="12"/>
     </row>
     <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="D17" s="12"/>
     </row>
     <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -5381,7 +5372,7 @@
     </row>
     <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -5389,7 +5380,7 @@
     </row>
     <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -5397,7 +5388,7 @@
     </row>
     <row r="21" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -5556,7 +5547,7 @@
   </sheetPr>
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -5581,76 +5572,76 @@
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="D3" s="12"/>
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="D4" s="12"/>
     </row>
     <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="D5" s="12"/>
     </row>
     <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="D6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="D7" s="12"/>
     </row>
     <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -5658,7 +5649,7 @@
     </row>
     <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -5895,13 +5886,17 @@
   </sheetPr>
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.8265306122449"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="93.6581632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="47.3928571428572"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="52.1887755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="64.4540816326531"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.8265306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5920,246 +5915,240 @@
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="12" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="12"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
         <v>561</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="12"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="12"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>561</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="12"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="D3" s="12"/>
-    </row>
-    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="12"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
         <v>565</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="12"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="D4" s="12"/>
-    </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="12"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
         <v>567</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>568</v>
-      </c>
-      <c r="D5" s="12"/>
-    </row>
-    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>569</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>570</v>
-      </c>
-      <c r="D6" s="12"/>
-    </row>
-    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
-        <v>571</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>572</v>
-      </c>
-      <c r="D7" s="12"/>
-    </row>
-    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
-        <v>573</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>574</v>
-      </c>
-      <c r="D8" s="12"/>
-    </row>
-    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
-        <v>575</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="D9" s="12"/>
-    </row>
-    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
-        <v>576</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>577</v>
-      </c>
-      <c r="D10" s="12"/>
-    </row>
-    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
-        <v>578</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>579</v>
-      </c>
-      <c r="D11" s="12"/>
-    </row>
-    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
-        <v>580</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="12"/>
     </row>
-    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="12"/>
     </row>
-    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5"/>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
+        <v>569</v>
+      </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="12"/>
     </row>
-    <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5"/>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
+        <v>228</v>
+      </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="12"/>
     </row>
-    <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5"/>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
+        <v>570</v>
+      </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="12"/>
     </row>
-    <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5"/>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="s">
+        <v>568</v>
+      </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="12"/>
     </row>
-    <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5"/>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="s">
+        <v>571</v>
+      </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="12"/>
     </row>
-    <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5"/>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="s">
+        <v>572</v>
+      </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="12"/>
     </row>
-    <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5"/>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="s">
+        <v>570</v>
+      </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="12"/>
     </row>
-    <row r="21" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5"/>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="s">
+        <v>568</v>
+      </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="12"/>
     </row>
-    <row r="22" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5"/>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="s">
+        <v>573</v>
+      </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="12"/>
     </row>
-    <row r="23" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5"/>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="s">
+        <v>574</v>
+      </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="12"/>
     </row>
-    <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5"/>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="s">
+        <v>570</v>
+      </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="12"/>
     </row>
-    <row r="25" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5"/>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5" t="s">
+        <v>575</v>
+      </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="12"/>
     </row>
-    <row r="26" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5"/>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5" t="s">
+        <v>576</v>
+      </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="12"/>
     </row>
-    <row r="27" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5"/>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="s">
+        <v>577</v>
+      </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="12"/>
     </row>
-    <row r="28" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5"/>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5" t="s">
+        <v>578</v>
+      </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="12"/>
     </row>
-    <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="12"/>
     </row>
-    <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="12"/>
     </row>
-    <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="12"/>
     </row>
-    <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -6252,7 +6241,7 @@
   </sheetPr>
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -6277,58 +6266,58 @@
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="12" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>584</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>585</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>586</v>
       </c>
       <c r="D3" s="12"/>
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>587</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>588</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>589</v>
       </c>
       <c r="D4" s="12"/>
     </row>
     <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D5" s="12"/>
     </row>
     <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>153</v>
@@ -6337,10 +6326,10 @@
     </row>
     <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>153</v>
@@ -6349,34 +6338,34 @@
     </row>
     <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>596</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>597</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>598</v>
       </c>
       <c r="D8" s="12"/>
     </row>
     <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>599</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>600</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>601</v>
       </c>
       <c r="D9" s="12"/>
     </row>
     <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>10</v>
@@ -6385,7 +6374,7 @@
     </row>
     <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -6580,7 +6569,7 @@
   </sheetPr>
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -6605,88 +6594,88 @@
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5" t="s">
-        <v>562</v>
+        <v>603</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>564</v>
+        <v>605</v>
       </c>
       <c r="D3" s="12"/>
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>565</v>
+        <v>606</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>566</v>
+        <v>607</v>
       </c>
       <c r="D4" s="12"/>
     </row>
     <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>567</v>
+        <v>608</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>153</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>568</v>
+        <v>609</v>
       </c>
       <c r="D5" s="12"/>
     </row>
     <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>606</v>
+        <v>562</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>570</v>
+        <v>610</v>
       </c>
       <c r="D6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>240</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>572</v>
+        <v>611</v>
       </c>
       <c r="D7" s="12"/>
     </row>
     <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>216</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>574</v>
+        <v>613</v>
       </c>
       <c r="D8" s="12"/>
     </row>
     <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>575</v>
+        <v>614</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>208</v>
@@ -6698,127 +6687,127 @@
     </row>
     <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>576</v>
+        <v>615</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>270</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>577</v>
+        <v>616</v>
       </c>
       <c r="D10" s="12"/>
     </row>
     <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
       <c r="D11" s="12"/>
     </row>
     <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
       <c r="D12" s="12"/>
     </row>
     <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
       <c r="D13" s="12"/>
     </row>
     <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
       <c r="D14" s="12"/>
     </row>
     <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
       <c r="D15" s="12"/>
     </row>
     <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>618</v>
+        <v>627</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
       <c r="D16" s="12"/>
     </row>
     <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="D17" s="12"/>
     </row>
     <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
       <c r="D18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
       <c r="D19" s="12"/>
     </row>
     <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -6826,7 +6815,7 @@
     </row>
     <row r="21" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -6985,7 +6974,7 @@
   </sheetPr>
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
     </sheetView>
   </sheetViews>
@@ -7459,7 +7448,7 @@
   </sheetPr>
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
     </sheetView>
   </sheetViews>
@@ -7484,24 +7473,24 @@
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="12" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="12"/>
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>629</v>
+        <v>638</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>19</v>
@@ -7511,7 +7500,7 @@
     </row>
     <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>90</v>
@@ -7521,7 +7510,7 @@
     </row>
     <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -7529,7 +7518,7 @@
     </row>
     <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -7537,7 +7526,7 @@
     </row>
     <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>633</v>
+        <v>642</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -7547,7 +7536,7 @@
     </row>
     <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>634</v>
+        <v>643</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>213</v>
@@ -7557,7 +7546,7 @@
     </row>
     <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -7565,7 +7554,7 @@
     </row>
     <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -7573,7 +7562,7 @@
     </row>
     <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>637</v>
+        <v>646</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -7581,7 +7570,7 @@
     </row>
     <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>638</v>
+        <v>647</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -7788,7 +7777,7 @@
   </sheetPr>
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C28" activeCellId="0" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -8195,7 +8184,7 @@
   </sheetPr>
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -8640,7 +8629,7 @@
   </sheetPr>
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -8944,7 +8933,7 @@
   </sheetPr>
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -9314,7 +9303,7 @@
   </sheetPr>
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -9804,7 +9793,7 @@
   </sheetPr>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -10054,7 +10043,7 @@
   </sheetPr>
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>

--- a/Doc/Specyfikacja.xlsx
+++ b/Doc/Specyfikacja.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="792" firstSheet="0" activeTab="16"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="792" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Commodities" sheetId="1" state="visible" r:id="rId2"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="664">
   <si>
     <t>Atrybut</t>
   </si>
@@ -65,6 +65,7 @@
               &lt;xs:element type="xs:string" name="NAME"/&gt;
               &lt;xs:element type="xs:string" name="EC"/&gt;
               &lt;xs:element type="xs:string" name="BASE_UNIT_OF_MEASURE_CODE"/&gt;
+              &lt;xs:element type="xs:number" name="AVAILABILITY"/&gt;
               &lt;xs:element type="xs:string" name="BASE_EAN_CODE"/&gt;
               &lt;xs:element type="xs:string" name="TYPE"/&gt;
               &lt;xs:element type="xs:string" name="VAT_RATE"/&gt;
@@ -153,6 +154,15 @@
     <t>Symbol indeksu</t>
   </si>
   <si>
+    <t>&lt;NAME&gt;TCC DOZ 5-NN&lt;/NAME&gt;</t>
+  </si>
+  <si>
+    <t>VARCHAR2(400)</t>
+  </si>
+  <si>
+    <t>Nazwa indeksu</t>
+  </si>
+  <si>
     <t>&lt;EC&gt;</t>
   </si>
   <si>
@@ -162,15 +172,6 @@
     <t>Znacznik EC (T/N)</t>
   </si>
   <si>
-    <t>&lt;NAME&gt;TCC DOZ 5-NN&lt;/NAME&gt;</t>
-  </si>
-  <si>
-    <t>VARCHAR2(400)</t>
-  </si>
-  <si>
-    <t>Nazwa indeksu</t>
-  </si>
-  <si>
     <t>&lt;BASE_UNIT_OF_MEASURE_CODE&gt;SZT&lt;/BASE_UNIT_OF_MEASURE_CODE&gt;</t>
   </si>
   <si>
@@ -180,6 +181,18 @@
     <t>Bazowa jednostka miary</t>
   </si>
   <si>
+    <t>&lt;AVAILABILITY&gt;7&lt;/AVAILABILITY&gt;</t>
+  </si>
+  <si>
+    <t>NUMBER</t>
+  </si>
+  <si>
+    <t> BIN_TO_NUM (DECODE (atrybut_c01, 'T', 1, 0),
+                   DECODE (ec, 'T', 1, 0),
+                    DECODE (w_ofercie, 'T', 1, 0),
+                    DECODE (mozliwe_sprzedawanie, 'T', 1, 0))</t>
+  </si>
+  <si>
     <t>&lt;BASE_EAN_CODE&gt;4021609004523&lt;/BASE_EAN_CODE&gt;</t>
   </si>
   <si>
@@ -256,9 +269,6 @@
   </si>
   <si>
     <t>&lt;NET_PRICE&gt;105&lt;/NET_PRICE&gt;</t>
-  </si>
-  <si>
-    <t>NUMBER</t>
   </si>
   <si>
     <t>Cena netto</t>
@@ -617,56 +627,56 @@
   </si>
   <si>
     <t>&lt;xs:schema attributeFormDefault="unqualified" elementFormDefault="qualified" xmlns:xs="http://www.w3.org/2001/XMLSchema"&gt;
-	&lt;xs:element name="CONTRACTS"&gt;
-		&lt;xs:complexType&gt;
-			&lt;xs:sequence&gt;
-				&lt;xs:element name="CONTRACT" maxOccurs="unbounded" minOccurs="1"&gt;
-					&lt;xs:complexType&gt;
-						&lt;xs:sequence&gt;
-							&lt;xs:element type="xs:string" name="ID"/&gt;
-							&lt;xs:element type="xs:decimal" name="CONTRACTOR_ID"/&gt;
-							&lt;xs:element type="xs:date" name="DATE_FROM"/&gt;
-							&lt;xs:element type="xs:date" name="DATE_TO"/&gt;
-							&lt;xs:element type="xs:string" name="CONTRACT_DESTINATION"/&gt;
-							&lt;xs:element type="xs:decimal" name="CONTRACT_VALUE"/&gt;
-							&lt;xs:element type="xs:decimal" name="CONTRACT_VALUE_REALIZED"/&gt;
-							&lt;xs:element type="xs:string" name="DELAYED"/&gt;
-							&lt;xs:element type="xs:string" name="CAN_SKIP_REPAYMENT"/&gt;							
-							&lt;xs:element name="LINES"&gt;
-								&lt;xs:complexType&gt;
-									&lt;xs:sequence&gt;
-										&lt;xs:element name="LINE" maxOccurs="unbounded" minOccurs="1"&gt;
-											&lt;xs:complexType&gt;
-												&lt;xs:sequence&gt;
-													&lt;xs:element type="xs:string" name="COMMODITY_ID"/&gt;
-													&lt;xs:element name="PERIODS"&gt;
-														&lt;xs:complexType&gt;
-															&lt;xs:sequence&gt;
-																&lt;xs:element name="PERIOD" maxOccurs="unbounded" minOccurs="1"&gt;
-																	&lt;xs:complexType&gt;
-																		&lt;xs:sequence&gt;
-																			&lt;xs:element type="xs:date" name="DATE_FROM"/&gt;
-																			&lt;xs:element type="xs:date" name="DATE_TO"/&gt;
-																			&lt;xs:element type="xs:decimal" name="VALUE"/&gt;
-																			&lt;xs:element type="xs:decimal" name="VALUE_REALIZED"/&gt;
-																		&lt;/xs:sequence&gt;
-																	&lt;/xs:complexType&gt;
-																&lt;/xs:element&gt;
-															&lt;/xs:sequence&gt;
-														&lt;/xs:complexType&gt;
-													&lt;/xs:element&gt;
-												&lt;/xs:sequence&gt;
-											&lt;/xs:complexType&gt;
-										&lt;/xs:element&gt;
-									&lt;/xs:sequence&gt;
-								&lt;/xs:complexType&gt;
-							&lt;/xs:element&gt;
-						&lt;/xs:sequence&gt;
-					&lt;/xs:complexType&gt;
-				&lt;/xs:element&gt;
-			&lt;/xs:sequence&gt;
-		&lt;/xs:complexType&gt;
-	&lt;/xs:element&gt;
+&lt;xs:element name="CONTRACTS"&gt;
+&lt;xs:complexType&gt;
+&lt;xs:sequence&gt;
+&lt;xs:element name="CONTRACT" maxOccurs="unbounded" minOccurs="1"&gt;
+&lt;xs:complexType&gt;
+&lt;xs:sequence&gt;
+&lt;xs:element type="xs:string" name="ID"/&gt;
+&lt;xs:element type="xs:decimal" name="CONTRACTOR_ID"/&gt;
+&lt;xs:element type="xs:date" name="DATE_FROM"/&gt;
+&lt;xs:element type="xs:date" name="DATE_TO"/&gt;
+&lt;xs:element type="xs:string" name="CONTRACT_DESTINATION"/&gt;
+&lt;xs:element type="xs:decimal" name="CONTRACT_VALUE"/&gt;
+&lt;xs:element type="xs:decimal" name="CONTRACT_VALUE_REALIZED"/&gt;
+&lt;xs:element type="xs:string" name="DELAYED"/&gt;
+&lt;xs:element type="xs:string" name="CAN_SKIP_REPAYMENT"/&gt;
+&lt;xs:element name="LINES"&gt;
+&lt;xs:complexType&gt;
+&lt;xs:sequence&gt;
+&lt;xs:element name="LINE" maxOccurs="unbounded" minOccurs="1"&gt;
+&lt;xs:complexType&gt;
+&lt;xs:sequence&gt;
+&lt;xs:element type="xs:string" name="COMMODITY_ID"/&gt;
+&lt;xs:element name="PERIODS"&gt;
+&lt;xs:complexType&gt;
+&lt;xs:sequence&gt;
+&lt;xs:element name="PERIOD" maxOccurs="unbounded" minOccurs="1"&gt;
+&lt;xs:complexType&gt;
+&lt;xs:sequence&gt;
+&lt;xs:element type="xs:date" name="DATE_FROM"/&gt;
+&lt;xs:element type="xs:date" name="DATE_TO"/&gt;
+&lt;xs:element type="xs:decimal" name="VALUE"/&gt;
+&lt;xs:element type="xs:decimal" name="VALUE_REALIZED"/&gt;
+&lt;/xs:sequence&gt;
+&lt;/xs:complexType&gt;
+&lt;/xs:element&gt;
+&lt;/xs:sequence&gt;
+&lt;/xs:complexType&gt;
+&lt;/xs:element&gt;
+&lt;/xs:sequence&gt;
+&lt;/xs:complexType&gt;
+&lt;/xs:element&gt;
+&lt;/xs:sequence&gt;
+&lt;/xs:complexType&gt;
+&lt;/xs:element&gt;
+&lt;/xs:sequence&gt;
+&lt;/xs:complexType&gt;
+&lt;/xs:element&gt;
+&lt;/xs:sequence&gt;
+&lt;/xs:complexType&gt;
+&lt;/xs:element&gt;
 &lt;/xs:schema&gt;</t>
   </si>
   <si>
@@ -1404,7 +1414,7 @@
           &lt;xs:complexType&gt;
             &lt;xs:sequence&gt;
               &lt;xs:element type="xs:string" name="INVOICE_NUMBER"/&gt;
-              &lt;xs:element type="xs:string" name="INVOICE_DATE"/&gt;			  
+              &lt;xs:element type="xs:string" name="INVOICE_DATE"/&gt;  
               &lt;xs:element type="xs:date" name="DUE_DATE"/&gt;
               &lt;xs:element type="xs:string" name="PAYMENT_FORM"/&gt;
               &lt;xs:element type="xs:string" name="PAYER_SYMBOL"/&gt;
@@ -1937,40 +1947,40 @@
   </si>
   <si>
     <t>&lt;xs:schema attributeFormDefault="unqualified" elementFormDefault="qualified" xmlns:xs="http://www.w3.org/2001/XMLSchema"&gt;
-	&lt;xs:element name="SALES_REPRESENTATIVES"&gt;
-		&lt;xs:complexType&gt;
-			&lt;xs:sequence&gt;
-				&lt;xs:element name="SALES_REPRESENTATIVE" maxOccurs="unbounded" minOccurs="0"&gt;
-					&lt;xs:complexType&gt;
-						&lt;xs:sequence&gt;
-							&lt;xs:element type="xs:decimal" name="ID"/&gt;
-							&lt;xs:element type="xs:string" name="NAME"/&gt;&lt;xs:element type="xs:string" name="NUMER_KASY"/&gt;&lt;xs:element type="xs:string" name="ID_ERP"/&gt;
-							&lt;xs:element type="xs:int" name="ACTIVE"/&gt;
-							&lt;xs:element type="xs:string" name="USERLOGIN"/&gt;
-							&lt;xs:element type="xs:string" name="USERNAME"/&gt;
-							&lt;xs:element type="xs:string" name="USERSURNAME"/&gt;
-							&lt;xs:element type="xs:string" name="USEREMAIL"/&gt;
-							&lt;xs:element type="xs:string" name="USERPHONE"/&gt;
-							&lt;xs:element type="xs:decimal" name="AREA_ID"/&gt;							
-							&lt;xs:element name="CONTRACTORS"&gt;
-								&lt;xs:complexType&gt;
-									&lt;xs:sequence&gt;
-										&lt;xs:element name="CONTRACTOR" maxOccurs="unbounded" minOccurs="0"&gt;
-											&lt;xs:complexType&gt;
-												&lt;xs:sequence&gt;
-													&lt;xs:element type="xs:string" name="CUSTOMER_NUMBER"/&gt;
-												&lt;/xs:sequence&gt;
-											&lt;/xs:complexType&gt;
-										&lt;/xs:element&gt;
-									&lt;/xs:sequence&gt;
-								&lt;/xs:complexType&gt;
-							&lt;/xs:element&gt;
-						&lt;/xs:sequence&gt;
-					&lt;/xs:complexType&gt;
-				&lt;/xs:element&gt;
-			&lt;/xs:sequence&gt;
-		&lt;/xs:complexType&gt;
-	&lt;/xs:element&gt;
+&lt;xs:element name="SALES_REPRESENTATIVES"&gt;
+&lt;xs:complexType&gt;
+&lt;xs:sequence&gt;
+&lt;xs:element name="SALES_REPRESENTATIVE" maxOccurs="unbounded" minOccurs="0"&gt;
+&lt;xs:complexType&gt;
+&lt;xs:sequence&gt;
+&lt;xs:element type="xs:decimal" name="ID"/&gt;
+&lt;xs:element type="xs:string" name="NAME"/&gt;&lt;xs:element type="xs:string" name="NUMER_KASY"/&gt;&lt;xs:element type="xs:string" name="ID_ERP"/&gt;
+&lt;xs:element type="xs:int" name="ACTIVE"/&gt;
+&lt;xs:element type="xs:string" name="USERLOGIN"/&gt;
+&lt;xs:element type="xs:string" name="USERNAME"/&gt;
+&lt;xs:element type="xs:string" name="USERSURNAME"/&gt;
+&lt;xs:element type="xs:string" name="USEREMAIL"/&gt;
+&lt;xs:element type="xs:string" name="USERPHONE"/&gt;
+&lt;xs:element type="xs:decimal" name="AREA_ID"/&gt;
+&lt;xs:element name="CONTRACTORS"&gt;
+&lt;xs:complexType&gt;
+&lt;xs:sequence&gt;
+&lt;xs:element name="CONTRACTOR" maxOccurs="unbounded" minOccurs="0"&gt;
+&lt;xs:complexType&gt;
+&lt;xs:sequence&gt;
+&lt;xs:element type="xs:string" name="CUSTOMER_NUMBER"/&gt;
+&lt;/xs:sequence&gt;
+&lt;/xs:complexType&gt;
+&lt;/xs:element&gt;
+&lt;/xs:sequence&gt;
+&lt;/xs:complexType&gt;
+&lt;/xs:element&gt;
+&lt;/xs:sequence&gt;
+&lt;/xs:complexType&gt;
+&lt;/xs:element&gt;
+&lt;/xs:sequence&gt;
+&lt;/xs:complexType&gt;
+&lt;/xs:element&gt;
 &lt;/xs:schema&gt;</t>
   </si>
   <si>
@@ -2084,7 +2094,7 @@
               &lt;xs:element type="xs:string" name="SET_NAME"/&gt;
               &lt;xs:element type="xs:float" name="PRICE_BEFORE_DISCOUNT"/&gt;
               &lt;xs:element type="xs:float" name="PRICE_AFTER_DISCOUNT"/&gt;
-              &lt;xs:element type="xs:date" name="VALID_DATE"/&gt;			  
+              &lt;xs:element type="xs:date" name="VALID_DATE"/&gt;  
               &lt;xs:element type="xs:float" name="AVAILABLE_STOCK"/&gt;
               &lt;xs:element name="COMPONENTS"&gt;
                 &lt;xs:complexType&gt;
@@ -2316,27 +2326,51 @@
     <t>&lt;CONTRACTORS_ID&gt;4192/A&lt;/CONTRACTORS_ID&gt;</t>
   </si>
   <si>
+    <t>symbol klienta</t>
+  </si>
+  <si>
     <t>&lt;CONTRACT_NUMBER&gt;GW 26/214&lt;/CONTRACT_NUMBER&gt;</t>
   </si>
   <si>
+    <t>numer umowy</t>
+  </si>
+  <si>
     <t>&lt;CONTRACT_DATE&gt;2011-01-01&lt;/CONTRACT_DATE&gt;</t>
   </si>
   <si>
+    <t>data umowy</t>
+  </si>
+  <si>
     <t>&lt;INDIVIDUAL_CONTRACT&gt;T&lt;/INDIVIDUAL_CONTRACT&gt;</t>
   </si>
   <si>
+    <t>czy umowa indywidualna</t>
+  </si>
+  <si>
     <t>&lt;DEFAULT_PAYMENT_TYPE&gt;PRZEL&lt;/DEFAULT_PAYMENT_TYPE&gt;</t>
   </si>
   <si>
+    <t>sposób zapłaty</t>
+  </si>
+  <si>
     <t>&lt;CREDIT_LIMIT&gt;9455&lt;/CREDIT_LIMIT&gt;</t>
   </si>
   <si>
+    <t>limit kredytowy</t>
+  </si>
+  <si>
     <t>&lt;PAYMENT_DATE&gt;21&lt;/PAYMENT_DATE&gt;</t>
   </si>
   <si>
+    <t>termin zapłaty</t>
+  </si>
+  <si>
     <t>&lt;DISCOUNT_PERCENT&gt;35&lt;/DISCOUNT_PERCENT&gt;</t>
   </si>
   <si>
+    <t>procent opustu</t>
+  </si>
+  <si>
     <t>&lt;BONUS_POINTS&gt;</t>
   </si>
   <si>
@@ -2346,18 +2380,33 @@
     <t>&lt;COL_NAME&gt;QUARTER_POINTS&lt;/COL_NAME&gt;</t>
   </si>
   <si>
+    <t>punkty z kwartału</t>
+  </si>
+  <si>
+    <t>ilość</t>
+  </si>
+  <si>
     <t>&lt;/BONUS_POINTS_ROW&gt;</t>
   </si>
   <si>
     <t>&lt;COL_NAME&gt;QUARTER_THRESHOLD&lt;/COL_NAME&gt;</t>
   </si>
   <si>
+    <t>próg obrotu w kwartale</t>
+  </si>
+  <si>
     <t>&lt;QUANTITY&gt;16500&lt;/QUANTITY&gt;</t>
   </si>
   <si>
+    <t>wartość</t>
+  </si>
+  <si>
     <t>&lt;COL_NAME&gt;YEAR_THRESHOLD&lt;/COL_NAME&gt;</t>
   </si>
   <si>
+    <t>próg obrotu w roku</t>
+  </si>
+  <si>
     <t>&lt;QUANTITY&gt;74000&lt;/QUANTITY&gt;</t>
   </si>
   <si>
@@ -2365,6 +2414,9 @@
   </si>
   <si>
     <t>&lt;SKONTO&gt;T&lt;/SKONTO&gt;</t>
+  </si>
+  <si>
+    <t>czy stosować skonto</t>
   </si>
   <si>
     <t>&lt;/TRADE_CONTRACT&gt;</t>
@@ -2589,34 +2641,34 @@
   </si>
   <si>
     <t>&lt;xs:schema attributeFormDefault="unqualified" elementFormDefault="qualified" xmlns:xs="http://www.w3.org/2001/XMLSchema"&gt;
-	&lt;xs:element name="WAREHOUSES"&gt;
-		&lt;xs:complexType&gt;
-			&lt;xs:sequence&gt;
-				&lt;xs:element name="WAREHOUSE" maxOccurs="unbounded" minOccurs="0"&gt;
-					&lt;xs:complexType&gt;
-						&lt;xs:sequence&gt;
-							&lt;xs:element type="xs:string" name="ID"/&gt;
-							&lt;xs:element type="xs:string" name="NAME"/&gt;
-							&lt;xs:element name="STOCKS"&gt;
-								&lt;xs:complexType&gt;
-									&lt;xs:sequence&gt;
-										&lt;xs:element name="STOCK" maxOccurs="unbounded" minOccurs="0"&gt;
-											&lt;xs:complexType&gt;
-												&lt;xs:sequence&gt;
-													&lt;xs:element type="xs:decimal" name="COMMODITY_ID"/&gt;
-													&lt;xs:element type="xs:decimal" name="QUANTITY"/&gt;
-												&lt;/xs:sequence&gt;
-											&lt;/xs:complexType&gt;
-										&lt;/xs:element&gt;
-									&lt;/xs:sequence&gt;
-								&lt;/xs:complexType&gt;
-							&lt;/xs:element&gt;
-						&lt;/xs:sequence&gt;
-					&lt;/xs:complexType&gt;
-				&lt;/xs:element&gt;
-			&lt;/xs:sequence&gt;
-		&lt;/xs:complexType&gt;
-	&lt;/xs:element&gt;
+&lt;xs:element name="WAREHOUSES"&gt;
+&lt;xs:complexType&gt;
+&lt;xs:sequence&gt;
+&lt;xs:element name="WAREHOUSE" maxOccurs="unbounded" minOccurs="0"&gt;
+&lt;xs:complexType&gt;
+&lt;xs:sequence&gt;
+&lt;xs:element type="xs:string" name="ID"/&gt;
+&lt;xs:element type="xs:string" name="NAME"/&gt;
+&lt;xs:element name="STOCKS"&gt;
+&lt;xs:complexType&gt;
+&lt;xs:sequence&gt;
+&lt;xs:element name="STOCK" maxOccurs="unbounded" minOccurs="0"&gt;
+&lt;xs:complexType&gt;
+&lt;xs:sequence&gt;
+&lt;xs:element type="xs:decimal" name="COMMODITY_ID"/&gt;
+&lt;xs:element type="xs:decimal" name="QUANTITY"/&gt;
+&lt;/xs:sequence&gt;
+&lt;/xs:complexType&gt;
+&lt;/xs:element&gt;
+&lt;/xs:sequence&gt;
+&lt;/xs:complexType&gt;
+&lt;/xs:element&gt;
+&lt;/xs:sequence&gt;
+&lt;/xs:complexType&gt;
+&lt;/xs:element&gt;
+&lt;/xs:sequence&gt;
+&lt;/xs:complexType&gt;
+&lt;/xs:element&gt;
 &lt;/xs:schema&gt;</t>
   </si>
   <si>
@@ -2712,13 +2764,13 @@
       <color rgb="FF00000A"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <charset val="238"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <charset val="238"/>
     </font>
     <font>
       <sz val="8"/>
@@ -2739,14 +2791,14 @@
       <color rgb="FF00000A"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <charset val="238"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2804,7 +2856,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2831,6 +2883,10 @@
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -2946,18 +3002,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="56.6530612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="45.719387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="82.6326530612245"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="62.7602040816327"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="89.1581632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="45.3316326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.984693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="114.147959183673"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.8265306122449"/>
   </cols>
   <sheetData>
@@ -2987,7 +3043,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -2997,7 +3053,7 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
@@ -3009,7 +3065,7 @@
       </c>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -3021,7 +3077,7 @@
       </c>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -3033,7 +3089,7 @@
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -3045,19 +3101,19 @@
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="39.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
         <v>24</v>
       </c>
@@ -3069,7 +3125,7 @@
       </c>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
         <v>27</v>
       </c>
@@ -3081,99 +3137,99 @@
       </c>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="5"/>
+      <c r="B11" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="C11" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="C14" s="5" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
+        <v>39</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B17" s="5"/>
-      <c r="C17" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="C17" s="5"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="5" t="s">
         <v>44</v>
       </c>
+      <c r="B19" s="5"/>
       <c r="C19" s="5" t="s">
         <v>45</v>
       </c>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
         <v>46</v>
       </c>
@@ -3185,69 +3241,71 @@
       </c>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="C23" s="5" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
+      <c r="B24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B26" s="5"/>
-      <c r="C26" s="5" t="s">
-        <v>56</v>
-      </c>
+      <c r="C26" s="5"/>
       <c r="D26" s="6"/>
     </row>
-    <row r="27" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
         <v>57</v>
       </c>
@@ -3257,69 +3315,69 @@
       </c>
       <c r="D27" s="6"/>
     </row>
-    <row r="28" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>47</v>
-      </c>
+      <c r="B28" s="5"/>
       <c r="C28" s="5" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D28" s="6"/>
     </row>
-    <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D29" s="6"/>
     </row>
-    <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="B30" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="6"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" s="6"/>
-    </row>
-    <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
+      <c r="C31" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="D31" s="6"/>
     </row>
-    <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="6"/>
     </row>
-    <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B33" s="5"/>
-      <c r="C33" s="5" t="s">
-        <v>64</v>
-      </c>
+      <c r="C33" s="5"/>
       <c r="D33" s="6"/>
     </row>
-    <row r="34" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
         <v>65</v>
       </c>
@@ -3329,77 +3387,87 @@
       </c>
       <c r="D34" s="6"/>
     </row>
-    <row r="35" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="5"/>
+      <c r="C35" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="D35" s="6"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D35" s="6"/>
-    </row>
-    <row r="36" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="s">
+      <c r="B36" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>71</v>
       </c>
       <c r="D36" s="6"/>
     </row>
-    <row r="37" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
         <v>72</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>73</v>
       </c>
       <c r="D37" s="6"/>
     </row>
-    <row r="38" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
+      <c r="B38" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>75</v>
+      </c>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="6"/>
     </row>
-    <row r="40" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="6"/>
     </row>
-    <row r="41" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="6"/>
     </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="6"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D2:D41"/>
+    <mergeCell ref="D2:D42"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -3428,7 +3496,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -3443,263 +3511,263 @@
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C2" s="5"/>
-      <c r="D2" s="12" t="s">
-        <v>412</v>
+      <c r="D2" s="13" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C3" s="5"/>
-      <c r="D3" s="12"/>
+      <c r="D3" s="13"/>
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D4" s="12"/>
+        <v>108</v>
+      </c>
+      <c r="D4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D5" s="12"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>108</v>
+      </c>
+      <c r="D5" s="13"/>
+    </row>
+    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="12"/>
+        <v>16</v>
+      </c>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="12"/>
+      <c r="D7" s="13"/>
     </row>
     <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="12"/>
+      <c r="D8" s="13"/>
     </row>
     <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="12"/>
+      <c r="D9" s="13"/>
     </row>
     <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="12"/>
+      <c r="D10" s="13"/>
     </row>
     <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="12"/>
+      <c r="D11" s="13"/>
     </row>
     <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="12"/>
+      <c r="D12" s="13"/>
     </row>
     <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="12"/>
+      <c r="D13" s="13"/>
     </row>
     <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="12"/>
+      <c r="D14" s="13"/>
     </row>
     <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="12"/>
+      <c r="D15" s="13"/>
     </row>
     <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="12"/>
+      <c r="D16" s="13"/>
     </row>
     <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="12"/>
+      <c r="D17" s="13"/>
     </row>
     <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="12"/>
+      <c r="D18" s="13"/>
     </row>
     <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="12"/>
+      <c r="D19" s="13"/>
     </row>
     <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="12"/>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="12"/>
+      <c r="D21" s="13"/>
     </row>
     <row r="22" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
-      <c r="D22" s="12"/>
+      <c r="D22" s="13"/>
     </row>
     <row r="23" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="12"/>
+      <c r="D23" s="13"/>
     </row>
     <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="12"/>
+      <c r="D24" s="13"/>
     </row>
     <row r="25" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="12"/>
+      <c r="D25" s="13"/>
     </row>
     <row r="26" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="12"/>
+      <c r="D26" s="13"/>
     </row>
     <row r="27" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
-      <c r="D27" s="12"/>
+      <c r="D27" s="13"/>
     </row>
     <row r="28" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
-      <c r="D28" s="12"/>
+      <c r="D28" s="13"/>
     </row>
     <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
-      <c r="D29" s="12"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D29" s="13"/>
+    </row>
+    <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
-      <c r="D30" s="12"/>
+      <c r="D30" s="13"/>
     </row>
     <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
-      <c r="D31" s="12"/>
+      <c r="D31" s="13"/>
     </row>
     <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="12"/>
+      <c r="D32" s="13"/>
     </row>
     <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
-      <c r="D33" s="12"/>
+      <c r="D33" s="13"/>
     </row>
     <row r="34" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="12"/>
+      <c r="D34" s="13"/>
     </row>
     <row r="35" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
-      <c r="D35" s="12"/>
+      <c r="D35" s="13"/>
     </row>
     <row r="36" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
-      <c r="D36" s="12"/>
+      <c r="D36" s="13"/>
     </row>
     <row r="37" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
-      <c r="D37" s="12"/>
+      <c r="D37" s="13"/>
     </row>
     <row r="38" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="12"/>
+      <c r="D38" s="13"/>
     </row>
     <row r="39" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
-      <c r="D39" s="12"/>
+      <c r="D39" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3726,17 +3794,13 @@
       <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="55.5918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.0765306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="45.6020408163265"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="78.7551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.8265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.8265306122449"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11"/>
+    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="12"/>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3747,79 +3811,79 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>427</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="D3" s="12"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>431</v>
+      </c>
+      <c r="D3" s="13"/>
+    </row>
+    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="D4" s="12"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>434</v>
+      </c>
+      <c r="D4" s="13"/>
+    </row>
+    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="D5" s="12"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>436</v>
+      </c>
+      <c r="D5" s="13"/>
+    </row>
+    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="D6" s="12"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>438</v>
+      </c>
+      <c r="D6" s="13"/>
+    </row>
+    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="D7" s="12"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>441</v>
+      </c>
+      <c r="D7" s="13"/>
+    </row>
+    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -3827,241 +3891,241 @@
       <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="12"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8" s="13"/>
+    </row>
+    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="D9" s="12"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>444</v>
+      </c>
+      <c r="D9" s="13"/>
+    </row>
+    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="D10" s="12"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>446</v>
+      </c>
+      <c r="D10" s="13"/>
+    </row>
+    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="12"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D11" s="13"/>
+    </row>
+    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="12"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D12" s="13"/>
+    </row>
+    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="12"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D13" s="13"/>
+    </row>
+    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="12"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D14" s="13"/>
+    </row>
+    <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="12"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15" s="13"/>
+    </row>
+    <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="12"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D16" s="13"/>
+    </row>
+    <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="12"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17" s="13"/>
+    </row>
+    <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="12"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D18" s="13"/>
+    </row>
+    <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="12"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D19" s="13"/>
+    </row>
+    <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="12"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D20" s="13"/>
+    </row>
+    <row r="21" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="12"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D21" s="13"/>
+    </row>
+    <row r="22" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
-      <c r="D22" s="12"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D22" s="13"/>
+    </row>
+    <row r="23" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="12"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D23" s="13"/>
+    </row>
+    <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="12"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D24" s="13"/>
+    </row>
+    <row r="25" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="12"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D25" s="13"/>
+    </row>
+    <row r="26" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="12"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D26" s="13"/>
+    </row>
+    <row r="27" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
-      <c r="D27" s="12"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D27" s="13"/>
+    </row>
+    <row r="28" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
-      <c r="D28" s="12"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D28" s="13"/>
+    </row>
+    <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
-      <c r="D29" s="12"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D29" s="13"/>
+    </row>
+    <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
-      <c r="D30" s="12"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D30" s="13"/>
+    </row>
+    <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
-      <c r="D31" s="12"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D31" s="13"/>
+    </row>
+    <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="12"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D32" s="13"/>
+    </row>
+    <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
-      <c r="D33" s="12"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D33" s="13"/>
+    </row>
+    <row r="34" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="12"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D34" s="13"/>
+    </row>
+    <row r="35" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
-      <c r="D35" s="12"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D35" s="13"/>
+    </row>
+    <row r="36" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
-      <c r="D36" s="12"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D36" s="13"/>
+    </row>
+    <row r="37" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
-      <c r="D37" s="12"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D37" s="13"/>
+    </row>
+    <row r="38" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="12"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D38" s="13"/>
+    </row>
+    <row r="39" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
-      <c r="D39" s="12"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D39" s="13"/>
+    </row>
+    <row r="40" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
-      <c r="D40" s="12"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D40" s="13"/>
+    </row>
+    <row r="41" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
-      <c r="D41" s="12"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D41" s="13"/>
+    </row>
+    <row r="42" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
-      <c r="D42" s="12"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D42" s="13"/>
+    </row>
+    <row r="43" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
-      <c r="D43" s="12"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D43" s="13"/>
+    </row>
+    <row r="44" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
-      <c r="D44" s="12"/>
+      <c r="D44" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4094,7 +4158,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -4109,311 +4173,311 @@
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C2" s="5"/>
-      <c r="D2" s="12" t="s">
-        <v>450</v>
+      <c r="D2" s="13" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>452</v>
+        <v>453</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>454</v>
       </c>
       <c r="C3" s="5"/>
-      <c r="D3" s="12" t="s">
-        <v>252</v>
+      <c r="D3" s="13" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>255</v>
+        <v>242</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>257</v>
+        <v>108</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>259</v>
+        <v>152</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>255</v>
+      <c r="D7" s="13" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>257</v>
+        <v>16</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="12" t="s">
-        <v>264</v>
+      <c r="D9" s="13" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="12" t="s">
-        <v>267</v>
+      <c r="D10" s="13" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="12" t="s">
-        <v>271</v>
+      <c r="D11" s="13" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="12" t="s">
-        <v>273</v>
+      <c r="D12" s="13" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="12" t="s">
-        <v>275</v>
+      <c r="D13" s="13" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="12" t="s">
-        <v>276</v>
+      <c r="D14" s="13" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="12" t="s">
-        <v>277</v>
+      <c r="D15" s="13" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="12" t="s">
-        <v>278</v>
+      <c r="D16" s="13" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="12" t="s">
-        <v>276</v>
+      <c r="D17" s="13" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="12" t="s">
-        <v>277</v>
+      <c r="D18" s="13" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="12" t="s">
-        <v>278</v>
+      <c r="D19" s="13" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="12" t="s">
-        <v>279</v>
+      <c r="D20" s="13" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="12"/>
+      <c r="D21" s="13"/>
     </row>
     <row r="22" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
-      <c r="D22" s="12"/>
+      <c r="D22" s="13"/>
     </row>
     <row r="23" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="12"/>
+      <c r="D23" s="13"/>
     </row>
     <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="12"/>
+      <c r="D24" s="13"/>
     </row>
     <row r="25" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="12"/>
+      <c r="D25" s="13"/>
     </row>
     <row r="26" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="12"/>
+      <c r="D26" s="13"/>
     </row>
     <row r="27" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
-      <c r="D27" s="12"/>
+      <c r="D27" s="13"/>
     </row>
     <row r="28" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
-      <c r="D28" s="12"/>
+      <c r="D28" s="13"/>
     </row>
     <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
-      <c r="D29" s="12"/>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
-      <c r="D30" s="12"/>
+      <c r="D30" s="13"/>
     </row>
     <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
-      <c r="D31" s="12"/>
+      <c r="D31" s="13"/>
     </row>
     <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="12"/>
+      <c r="D32" s="13"/>
     </row>
     <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
-      <c r="D33" s="12"/>
+      <c r="D33" s="13"/>
     </row>
     <row r="34" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="12"/>
+      <c r="D34" s="13"/>
     </row>
     <row r="35" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
-      <c r="D35" s="12"/>
+      <c r="D35" s="13"/>
     </row>
     <row r="36" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
-      <c r="D36" s="12"/>
+      <c r="D36" s="13"/>
     </row>
     <row r="37" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
-      <c r="D37" s="12"/>
+      <c r="D37" s="13"/>
     </row>
     <row r="38" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="12"/>
+      <c r="D38" s="13"/>
     </row>
     <row r="39" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
-      <c r="D39" s="12"/>
+      <c r="D39" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4446,7 +4510,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -4461,52 +4525,52 @@
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>464</v>
+        <v>436</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="D3" s="12"/>
+        <v>467</v>
+      </c>
+      <c r="D3" s="13"/>
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="D4" s="12"/>
+        <v>470</v>
+      </c>
+      <c r="D4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="D5" s="12"/>
+        <v>472</v>
+      </c>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>10</v>
@@ -4514,215 +4578,215 @@
       <c r="C6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="D7" s="12"/>
+        <v>336</v>
+      </c>
+      <c r="D7" s="13"/>
     </row>
     <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="D8" s="12"/>
+        <v>446</v>
+      </c>
+      <c r="D8" s="13"/>
     </row>
     <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="12"/>
+      <c r="D9" s="13"/>
     </row>
     <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="12"/>
+      <c r="D10" s="13"/>
     </row>
     <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="12"/>
+      <c r="D11" s="13"/>
     </row>
     <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="12"/>
+      <c r="D12" s="13"/>
     </row>
     <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="12"/>
+      <c r="D13" s="13"/>
     </row>
     <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="12"/>
+      <c r="D14" s="13"/>
     </row>
     <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="12"/>
+      <c r="D15" s="13"/>
     </row>
     <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="12"/>
+      <c r="D16" s="13"/>
     </row>
     <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="12"/>
+      <c r="D17" s="13"/>
     </row>
     <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="12"/>
+      <c r="D18" s="13"/>
     </row>
     <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="12"/>
+      <c r="D19" s="13"/>
     </row>
     <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="12"/>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="12"/>
+      <c r="D21" s="13"/>
     </row>
     <row r="22" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
-      <c r="D22" s="12"/>
+      <c r="D22" s="13"/>
     </row>
     <row r="23" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="12"/>
+      <c r="D23" s="13"/>
     </row>
     <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="12"/>
+      <c r="D24" s="13"/>
     </row>
     <row r="25" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="12"/>
+      <c r="D25" s="13"/>
     </row>
     <row r="26" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="12"/>
+      <c r="D26" s="13"/>
     </row>
     <row r="27" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
-      <c r="D27" s="12"/>
+      <c r="D27" s="13"/>
     </row>
     <row r="28" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
-      <c r="D28" s="12"/>
+      <c r="D28" s="13"/>
     </row>
     <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
-      <c r="D29" s="12"/>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
-      <c r="D30" s="12"/>
+      <c r="D30" s="13"/>
     </row>
     <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
-      <c r="D31" s="12"/>
+      <c r="D31" s="13"/>
     </row>
     <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="12"/>
+      <c r="D32" s="13"/>
     </row>
     <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
-      <c r="D33" s="12"/>
+      <c r="D33" s="13"/>
     </row>
     <row r="34" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="12"/>
+      <c r="D34" s="13"/>
     </row>
     <row r="35" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
-      <c r="D35" s="12"/>
+      <c r="D35" s="13"/>
     </row>
     <row r="36" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
-      <c r="D36" s="12"/>
+      <c r="D36" s="13"/>
     </row>
     <row r="37" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
-      <c r="D37" s="12"/>
+      <c r="D37" s="13"/>
     </row>
     <row r="38" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="12"/>
+      <c r="D38" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4751,15 +4815,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="102.964285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="47.015306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.2551020408163"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="152.214285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.8265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.8265306122449"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -4774,365 +4834,365 @@
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C2" s="5"/>
-      <c r="D2" s="12" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2" s="13" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C3" s="5"/>
-      <c r="D3" s="12"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3" s="13"/>
+    </row>
+    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D4" s="12"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>152</v>
+      </c>
+      <c r="D4" s="13"/>
+    </row>
+    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" s="12"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>92</v>
+      </c>
+      <c r="D5" s="13"/>
+    </row>
+    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D6" s="12"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>108</v>
+      </c>
+      <c r="D6" s="13"/>
+    </row>
+    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="D7" s="12"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>488</v>
+      </c>
+      <c r="D7" s="13"/>
+    </row>
+    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D8" s="13"/>
+    </row>
+    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="13"/>
+    </row>
+    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="D10" s="13"/>
+    </row>
+    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="D11" s="13"/>
+    </row>
+    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="13"/>
+    </row>
+    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D8" s="12"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" s="12"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="D10" s="12"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>495</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="D11" s="12"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="15" t="s">
-        <v>496</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" s="12"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="D13" s="12"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D13" s="13"/>
+    </row>
+    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D14" s="12"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>152</v>
+      </c>
+      <c r="D14" s="13"/>
+    </row>
+    <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="12"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15" s="13"/>
+    </row>
+    <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C16" s="5"/>
-      <c r="D16" s="12"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D16" s="13"/>
+    </row>
+    <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="12"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>25</v>
+      </c>
+      <c r="D17" s="13"/>
+    </row>
+    <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="12"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D18" s="13"/>
+    </row>
+    <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="12"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D19" s="13"/>
+    </row>
+    <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="12"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D20" s="13"/>
+    </row>
+    <row r="21" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="12"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D21" s="13"/>
+    </row>
+    <row r="22" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
-      <c r="D22" s="12"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D22" s="13"/>
+    </row>
+    <row r="23" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="12"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D23" s="13"/>
+    </row>
+    <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="12"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D24" s="13"/>
+    </row>
+    <row r="25" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="12"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D25" s="13"/>
+    </row>
+    <row r="26" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="12"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D26" s="13"/>
+    </row>
+    <row r="27" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
-      <c r="D27" s="12"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D27" s="13"/>
+    </row>
+    <row r="28" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
-      <c r="D28" s="12"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D28" s="13"/>
+    </row>
+    <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
-      <c r="D29" s="12"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D29" s="13"/>
+    </row>
+    <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
-      <c r="D30" s="12"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D30" s="13"/>
+    </row>
+    <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
-      <c r="D31" s="12"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D31" s="13"/>
+    </row>
+    <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="12"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D32" s="13"/>
+    </row>
+    <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
-      <c r="D33" s="12"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D33" s="13"/>
+    </row>
+    <row r="34" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="12"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D34" s="13"/>
+    </row>
+    <row r="35" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
-      <c r="D35" s="12"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D35" s="13"/>
+    </row>
+    <row r="36" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
-      <c r="D36" s="12"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D36" s="13"/>
+    </row>
+    <row r="37" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
-      <c r="D37" s="12"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D37" s="13"/>
+    </row>
+    <row r="38" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="12"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D38" s="13"/>
+    </row>
+    <row r="39" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
-      <c r="D39" s="12"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D39" s="13"/>
+    </row>
+    <row r="40" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
-      <c r="D40" s="12"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D40" s="13"/>
+    </row>
+    <row r="41" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
-      <c r="D41" s="12"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D41" s="13"/>
+    </row>
+    <row r="42" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
-      <c r="D42" s="12"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D42" s="13"/>
+    </row>
+    <row r="43" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
-      <c r="D43" s="12"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D43" s="13"/>
+    </row>
+    <row r="44" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
-      <c r="D44" s="12"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D44" s="13"/>
+    </row>
+    <row r="45" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
-      <c r="D45" s="12"/>
+      <c r="D45" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5168,7 +5228,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -5183,348 +5243,348 @@
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5" t="s">
-        <v>508</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>509</v>
+        <v>510</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="D3" s="12"/>
+        <v>513</v>
+      </c>
+      <c r="D3" s="13"/>
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="D4" s="12"/>
+        <v>515</v>
+      </c>
+      <c r="D4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>515</v>
-      </c>
-      <c r="D5" s="12"/>
+        <v>517</v>
+      </c>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="12"/>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="12"/>
+      <c r="D7" s="13"/>
     </row>
     <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>519</v>
-      </c>
-      <c r="D8" s="12"/>
+        <v>521</v>
+      </c>
+      <c r="D8" s="13"/>
     </row>
     <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>521</v>
-      </c>
-      <c r="D9" s="12"/>
+        <v>523</v>
+      </c>
+      <c r="D9" s="13"/>
     </row>
     <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
-        <v>523</v>
-      </c>
-      <c r="D10" s="12"/>
+        <v>525</v>
+      </c>
+      <c r="D10" s="13"/>
     </row>
     <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
-        <v>525</v>
-      </c>
-      <c r="D11" s="12"/>
+        <v>527</v>
+      </c>
+      <c r="D11" s="13"/>
     </row>
     <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>527</v>
-      </c>
-      <c r="D12" s="12"/>
+        <v>529</v>
+      </c>
+      <c r="D12" s="13"/>
     </row>
     <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>529</v>
-      </c>
-      <c r="D13" s="12"/>
+        <v>531</v>
+      </c>
+      <c r="D13" s="13"/>
     </row>
     <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="D14" s="12"/>
+        <v>336</v>
+      </c>
+      <c r="D14" s="13"/>
     </row>
     <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>532</v>
-      </c>
-      <c r="D15" s="12"/>
+        <v>534</v>
+      </c>
+      <c r="D15" s="13"/>
     </row>
     <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>534</v>
-      </c>
-      <c r="D16" s="12"/>
+        <v>536</v>
+      </c>
+      <c r="D16" s="13"/>
     </row>
     <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="D17" s="12"/>
+        <v>538</v>
+      </c>
+      <c r="D17" s="13"/>
     </row>
     <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="12"/>
+      <c r="D18" s="13"/>
     </row>
     <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="12"/>
+      <c r="D19" s="13"/>
     </row>
     <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="12"/>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="12"/>
+      <c r="D21" s="13"/>
     </row>
     <row r="22" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
-      <c r="D22" s="12"/>
+      <c r="D22" s="13"/>
     </row>
     <row r="23" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="12"/>
+      <c r="D23" s="13"/>
     </row>
     <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="12"/>
+      <c r="D24" s="13"/>
     </row>
     <row r="25" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="12"/>
+      <c r="D25" s="13"/>
     </row>
     <row r="26" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="12"/>
+      <c r="D26" s="13"/>
     </row>
     <row r="27" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
-      <c r="D27" s="12"/>
+      <c r="D27" s="13"/>
     </row>
     <row r="28" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
-      <c r="D28" s="12"/>
+      <c r="D28" s="13"/>
     </row>
     <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
-      <c r="D29" s="12"/>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
-      <c r="D30" s="12"/>
+      <c r="D30" s="13"/>
     </row>
     <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
-      <c r="D31" s="12"/>
+      <c r="D31" s="13"/>
     </row>
     <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="12"/>
+      <c r="D32" s="13"/>
     </row>
     <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
-      <c r="D33" s="12"/>
+      <c r="D33" s="13"/>
     </row>
     <row r="34" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="12"/>
+      <c r="D34" s="13"/>
     </row>
     <row r="35" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
-      <c r="D35" s="12"/>
+      <c r="D35" s="13"/>
     </row>
     <row r="36" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
-      <c r="D36" s="12"/>
+      <c r="D36" s="13"/>
     </row>
     <row r="37" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
-      <c r="D37" s="12"/>
+      <c r="D37" s="13"/>
     </row>
     <row r="38" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="12"/>
+      <c r="D38" s="13"/>
     </row>
     <row r="39" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
-      <c r="D39" s="12"/>
+      <c r="D39" s="13"/>
     </row>
     <row r="40" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
-      <c r="D40" s="12"/>
+      <c r="D40" s="13"/>
     </row>
     <row r="41" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
-      <c r="D41" s="12"/>
+      <c r="D41" s="13"/>
     </row>
     <row r="42" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
-      <c r="D42" s="12"/>
+      <c r="D42" s="13"/>
     </row>
     <row r="43" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="5"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5557,7 +5617,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -5572,298 +5632,298 @@
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>543</v>
+        <v>544</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="D3" s="12"/>
+        <v>547</v>
+      </c>
+      <c r="D3" s="13"/>
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="D4" s="12"/>
+        <v>549</v>
+      </c>
+      <c r="D4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="D5" s="12"/>
+        <v>551</v>
+      </c>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>551</v>
-      </c>
-      <c r="D6" s="12"/>
+        <v>553</v>
+      </c>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>553</v>
-      </c>
-      <c r="D7" s="12"/>
+        <v>555</v>
+      </c>
+      <c r="D7" s="13"/>
     </row>
     <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="12"/>
+      <c r="D8" s="13"/>
     </row>
     <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="12"/>
+      <c r="D9" s="13"/>
     </row>
     <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="12"/>
+      <c r="D10" s="13"/>
     </row>
     <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="12"/>
+      <c r="D11" s="13"/>
     </row>
     <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="12"/>
+      <c r="D12" s="13"/>
     </row>
     <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="12"/>
+      <c r="D13" s="13"/>
     </row>
     <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="12"/>
+      <c r="D14" s="13"/>
     </row>
     <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="12"/>
+      <c r="D15" s="13"/>
     </row>
     <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="12"/>
+      <c r="D16" s="13"/>
     </row>
     <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="12"/>
+      <c r="D17" s="13"/>
     </row>
     <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="12"/>
+      <c r="D18" s="13"/>
     </row>
     <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="12"/>
+      <c r="D19" s="13"/>
     </row>
     <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="12"/>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="12"/>
+      <c r="D21" s="13"/>
     </row>
     <row r="22" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
-      <c r="D22" s="12"/>
+      <c r="D22" s="13"/>
     </row>
     <row r="23" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="12"/>
+      <c r="D23" s="13"/>
     </row>
     <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="12"/>
+      <c r="D24" s="13"/>
     </row>
     <row r="25" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="12"/>
+      <c r="D25" s="13"/>
     </row>
     <row r="26" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="12"/>
+      <c r="D26" s="13"/>
     </row>
     <row r="27" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
-      <c r="D27" s="12"/>
+      <c r="D27" s="13"/>
     </row>
     <row r="28" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
-      <c r="D28" s="12"/>
+      <c r="D28" s="13"/>
     </row>
     <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
-      <c r="D29" s="12"/>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
-      <c r="D30" s="12"/>
+      <c r="D30" s="13"/>
     </row>
     <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
-      <c r="D31" s="12"/>
+      <c r="D31" s="13"/>
     </row>
     <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="12"/>
+      <c r="D32" s="13"/>
     </row>
     <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
-      <c r="D33" s="12"/>
+      <c r="D33" s="13"/>
     </row>
     <row r="34" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="12"/>
+      <c r="D34" s="13"/>
     </row>
     <row r="35" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
-      <c r="D35" s="12"/>
+      <c r="D35" s="13"/>
     </row>
     <row r="36" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
-      <c r="D36" s="12"/>
+      <c r="D36" s="13"/>
     </row>
     <row r="37" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
-      <c r="D37" s="12"/>
+      <c r="D37" s="13"/>
     </row>
     <row r="38" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="12"/>
+      <c r="D38" s="13"/>
     </row>
     <row r="39" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
-      <c r="D39" s="12"/>
+      <c r="D39" s="13"/>
     </row>
     <row r="40" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
-      <c r="D40" s="12"/>
+      <c r="D40" s="13"/>
     </row>
     <row r="41" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
-      <c r="D41" s="12"/>
+      <c r="D41" s="13"/>
     </row>
     <row r="42" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
-      <c r="D42" s="12"/>
+      <c r="D42" s="13"/>
     </row>
     <row r="43" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
-      <c r="D43" s="12"/>
+      <c r="D43" s="13"/>
     </row>
     <row r="44" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="5"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5886,21 +5946,21 @@
   </sheetPr>
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="93.6581632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="47.3928571428572"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="52.1887755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="64.4540816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.8367346938776"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.5"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.3265306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.3316326530612"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.8265306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -5915,310 +5975,340 @@
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="12" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2" s="13" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C3" s="5"/>
-      <c r="D3" s="12"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3" s="13"/>
+    </row>
+    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="12"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="D4" s="13"/>
+    </row>
+    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="12"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="D5" s="13"/>
+    </row>
+    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="12"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="D6" s="13"/>
+    </row>
+    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="12"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="D7" s="13"/>
+    </row>
+    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="12"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="D8" s="13"/>
+    </row>
+    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="12"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="D9" s="13"/>
+    </row>
+    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="12"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="D10" s="13"/>
+    </row>
+    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="12"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="D11" s="13"/>
+    </row>
+    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="12"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D12" s="13"/>
+    </row>
+    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="12"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D13" s="13"/>
+    </row>
+    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>569</v>
+        <v>579</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="12"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="D14" s="13"/>
+    </row>
+    <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="12"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="D15" s="13"/>
+    </row>
+    <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="12"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D16" s="13"/>
+    </row>
+    <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="12"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17" s="13"/>
+    </row>
+    <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="12"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="D18" s="13"/>
+    </row>
+    <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>572</v>
+        <v>585</v>
       </c>
       <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="12"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="D19" s="13"/>
+    </row>
+    <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="12"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D20" s="13"/>
+    </row>
+    <row r="21" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="12"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D21" s="13"/>
+    </row>
+    <row r="22" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>573</v>
+        <v>587</v>
       </c>
       <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="12"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="D22" s="13"/>
+    </row>
+    <row r="23" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
       <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="12"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="D23" s="13"/>
+    </row>
+    <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="12"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D24" s="13"/>
+    </row>
+    <row r="25" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>575</v>
+        <v>590</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="12"/>
+      <c r="D25" s="13"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>576</v>
+        <v>591</v>
       </c>
       <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="12"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="D26" s="13"/>
+    </row>
+    <row r="27" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>577</v>
+        <v>593</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
-      <c r="D27" s="12"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D27" s="13"/>
+    </row>
+    <row r="28" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>578</v>
+        <v>594</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
-      <c r="D28" s="12"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D28" s="13"/>
+    </row>
+    <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
-      <c r="D29" s="12"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D29" s="13"/>
+    </row>
+    <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
-      <c r="D30" s="12"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D30" s="13"/>
+    </row>
+    <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
-      <c r="D31" s="12"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D31" s="13"/>
+    </row>
+    <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="12"/>
+      <c r="D32" s="13"/>
     </row>
     <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
-      <c r="D33" s="12"/>
+      <c r="D33" s="13"/>
     </row>
     <row r="34" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="12"/>
+      <c r="D34" s="13"/>
     </row>
     <row r="35" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
-      <c r="D35" s="12"/>
+      <c r="D35" s="13"/>
     </row>
     <row r="36" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
-      <c r="D36" s="12"/>
+      <c r="D36" s="13"/>
     </row>
     <row r="37" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
-      <c r="D37" s="12"/>
+      <c r="D37" s="13"/>
     </row>
     <row r="38" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="12"/>
+      <c r="D38" s="13"/>
     </row>
     <row r="39" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
-      <c r="D39" s="12"/>
+      <c r="D39" s="13"/>
     </row>
     <row r="40" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
-      <c r="D40" s="12"/>
+      <c r="D40" s="13"/>
     </row>
     <row r="41" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
-      <c r="D41" s="12"/>
+      <c r="D41" s="13"/>
     </row>
     <row r="42" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
-      <c r="D42" s="12"/>
+      <c r="D42" s="13"/>
     </row>
     <row r="43" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="5"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6251,7 +6341,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -6266,287 +6356,287 @@
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>579</v>
+        <v>595</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
       <c r="C2" s="5"/>
-      <c r="D2" s="12" t="s">
-        <v>581</v>
+      <c r="D2" s="13" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>582</v>
+        <v>598</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>583</v>
+        <v>599</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>584</v>
-      </c>
-      <c r="D3" s="12"/>
+        <v>600</v>
+      </c>
+      <c r="D3" s="13"/>
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>585</v>
+        <v>601</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>586</v>
+        <v>602</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>587</v>
-      </c>
-      <c r="D4" s="12"/>
+        <v>603</v>
+      </c>
+      <c r="D4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>588</v>
+        <v>604</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>589</v>
+        <v>605</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>587</v>
-      </c>
-      <c r="D5" s="12"/>
+        <v>603</v>
+      </c>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>590</v>
+        <v>606</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>591</v>
+        <v>607</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="D6" s="12"/>
+        <v>155</v>
+      </c>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>592</v>
+        <v>608</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>593</v>
+        <v>609</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="D7" s="12"/>
+        <v>155</v>
+      </c>
+      <c r="D7" s="13"/>
     </row>
     <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>594</v>
+        <v>610</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>595</v>
+        <v>611</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>596</v>
-      </c>
-      <c r="D8" s="12"/>
+        <v>612</v>
+      </c>
+      <c r="D8" s="13"/>
     </row>
     <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>597</v>
+        <v>613</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>598</v>
+        <v>614</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>599</v>
-      </c>
-      <c r="D9" s="12"/>
+        <v>615</v>
+      </c>
+      <c r="D9" s="13"/>
     </row>
     <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>600</v>
+        <v>616</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="12"/>
+      <c r="D10" s="13"/>
     </row>
     <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>602</v>
+        <v>618</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="12"/>
+      <c r="D11" s="13"/>
     </row>
     <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="12"/>
+      <c r="D12" s="13"/>
     </row>
     <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="12"/>
+      <c r="D13" s="13"/>
     </row>
     <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="12"/>
+      <c r="D14" s="13"/>
     </row>
     <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="12"/>
+      <c r="D15" s="13"/>
     </row>
     <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="12"/>
+      <c r="D16" s="13"/>
     </row>
     <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="12"/>
+      <c r="D17" s="13"/>
     </row>
     <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="12"/>
+      <c r="D18" s="13"/>
     </row>
     <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="12"/>
+      <c r="D19" s="13"/>
     </row>
     <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="12"/>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="12"/>
+      <c r="D21" s="13"/>
     </row>
     <row r="22" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
-      <c r="D22" s="12"/>
+      <c r="D22" s="13"/>
     </row>
     <row r="23" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="12"/>
+      <c r="D23" s="13"/>
     </row>
     <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="12"/>
+      <c r="D24" s="13"/>
     </row>
     <row r="25" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="12"/>
+      <c r="D25" s="13"/>
     </row>
     <row r="26" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="12"/>
+      <c r="D26" s="13"/>
     </row>
     <row r="27" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
-      <c r="D27" s="12"/>
+      <c r="D27" s="13"/>
     </row>
     <row r="28" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
-      <c r="D28" s="12"/>
+      <c r="D28" s="13"/>
     </row>
     <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
-      <c r="D29" s="12"/>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
-      <c r="D30" s="12"/>
+      <c r="D30" s="13"/>
     </row>
     <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
-      <c r="D31" s="12"/>
+      <c r="D31" s="13"/>
     </row>
     <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="12"/>
+      <c r="D32" s="13"/>
     </row>
     <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
-      <c r="D33" s="12"/>
+      <c r="D33" s="13"/>
     </row>
     <row r="34" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="12"/>
+      <c r="D34" s="13"/>
     </row>
     <row r="35" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
-      <c r="D35" s="12"/>
+      <c r="D35" s="13"/>
     </row>
     <row r="36" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
-      <c r="D36" s="12"/>
+      <c r="D36" s="13"/>
     </row>
     <row r="37" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
-      <c r="D37" s="12"/>
+      <c r="D37" s="13"/>
     </row>
     <row r="38" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="12"/>
+      <c r="D38" s="13"/>
     </row>
     <row r="39" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
-      <c r="D39" s="12"/>
+      <c r="D39" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6579,7 +6669,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -6594,364 +6684,364 @@
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5" t="s">
-        <v>603</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>604</v>
+        <v>619</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>605</v>
-      </c>
-      <c r="D3" s="12"/>
+        <v>621</v>
+      </c>
+      <c r="D3" s="13"/>
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>606</v>
+        <v>622</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>607</v>
-      </c>
-      <c r="D4" s="12"/>
+        <v>623</v>
+      </c>
+      <c r="D4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>608</v>
+        <v>624</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>609</v>
-      </c>
-      <c r="D5" s="12"/>
+        <v>625</v>
+      </c>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>610</v>
-      </c>
-      <c r="D6" s="12"/>
+        <v>626</v>
+      </c>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>611</v>
-      </c>
-      <c r="D7" s="12"/>
+        <v>627</v>
+      </c>
+      <c r="D7" s="13"/>
     </row>
     <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>612</v>
+        <v>628</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>613</v>
-      </c>
-      <c r="D8" s="12"/>
+        <v>629</v>
+      </c>
+      <c r="D8" s="13"/>
     </row>
     <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>614</v>
+        <v>630</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="D9" s="12"/>
+        <v>297</v>
+      </c>
+      <c r="D9" s="13"/>
     </row>
     <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>615</v>
+        <v>631</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>616</v>
-      </c>
-      <c r="D10" s="12"/>
+        <v>632</v>
+      </c>
+      <c r="D10" s="13"/>
     </row>
     <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>617</v>
+        <v>633</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>618</v>
-      </c>
-      <c r="D11" s="12"/>
+        <v>634</v>
+      </c>
+      <c r="D11" s="13"/>
     </row>
     <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>619</v>
+        <v>635</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>620</v>
-      </c>
-      <c r="D12" s="12"/>
+        <v>636</v>
+      </c>
+      <c r="D12" s="13"/>
     </row>
     <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>621</v>
+        <v>637</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>622</v>
-      </c>
-      <c r="D13" s="12"/>
+        <v>638</v>
+      </c>
+      <c r="D13" s="13"/>
     </row>
     <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>623</v>
+        <v>639</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>624</v>
-      </c>
-      <c r="D14" s="12"/>
+        <v>640</v>
+      </c>
+      <c r="D14" s="13"/>
     </row>
     <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>625</v>
+        <v>641</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>626</v>
-      </c>
-      <c r="D15" s="12"/>
+        <v>642</v>
+      </c>
+      <c r="D15" s="13"/>
     </row>
     <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>627</v>
+        <v>643</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>628</v>
-      </c>
-      <c r="D16" s="12"/>
+        <v>644</v>
+      </c>
+      <c r="D16" s="13"/>
     </row>
     <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>629</v>
+        <v>645</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>630</v>
-      </c>
-      <c r="D17" s="12"/>
+        <v>646</v>
+      </c>
+      <c r="D17" s="13"/>
     </row>
     <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>631</v>
+        <v>647</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>632</v>
-      </c>
-      <c r="D18" s="12"/>
+        <v>648</v>
+      </c>
+      <c r="D18" s="13"/>
     </row>
     <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>633</v>
+        <v>649</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>634</v>
-      </c>
-      <c r="D19" s="12"/>
+        <v>650</v>
+      </c>
+      <c r="D19" s="13"/>
     </row>
     <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>578</v>
+        <v>594</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="12"/>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>578</v>
+        <v>594</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="12"/>
+      <c r="D21" s="13"/>
     </row>
     <row r="22" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
-      <c r="D22" s="12"/>
+      <c r="D22" s="13"/>
     </row>
     <row r="23" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="12"/>
+      <c r="D23" s="13"/>
     </row>
     <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="12"/>
+      <c r="D24" s="13"/>
     </row>
     <row r="25" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="12"/>
+      <c r="D25" s="13"/>
     </row>
     <row r="26" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="12"/>
+      <c r="D26" s="13"/>
     </row>
     <row r="27" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
-      <c r="D27" s="12"/>
+      <c r="D27" s="13"/>
     </row>
     <row r="28" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
-      <c r="D28" s="12"/>
+      <c r="D28" s="13"/>
     </row>
     <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
-      <c r="D29" s="12"/>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
-      <c r="D30" s="12"/>
+      <c r="D30" s="13"/>
     </row>
     <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
-      <c r="D31" s="12"/>
+      <c r="D31" s="13"/>
     </row>
     <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="12"/>
+      <c r="D32" s="13"/>
     </row>
     <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
-      <c r="D33" s="12"/>
+      <c r="D33" s="13"/>
     </row>
     <row r="34" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="12"/>
+      <c r="D34" s="13"/>
     </row>
     <row r="35" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
-      <c r="D35" s="12"/>
+      <c r="D35" s="13"/>
     </row>
     <row r="36" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
-      <c r="D36" s="12"/>
+      <c r="D36" s="13"/>
     </row>
     <row r="37" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
-      <c r="D37" s="12"/>
+      <c r="D37" s="13"/>
     </row>
     <row r="38" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="12"/>
+      <c r="D38" s="13"/>
     </row>
     <row r="39" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
-      <c r="D39" s="12"/>
+      <c r="D39" s="13"/>
     </row>
     <row r="40" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
-      <c r="D40" s="12"/>
+      <c r="D40" s="13"/>
     </row>
     <row r="41" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
-      <c r="D41" s="12"/>
+      <c r="D41" s="13"/>
     </row>
     <row r="42" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
-      <c r="D42" s="12"/>
+      <c r="D42" s="13"/>
     </row>
     <row r="43" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="5"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6972,7 +7062,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
@@ -6980,10 +7070,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="69.1071428571429"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.8265306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.1632653061224"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.8265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.8265306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6996,437 +7083,436 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" s="8"/>
+        <v>84</v>
+      </c>
+      <c r="D3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="8"/>
+        <v>86</v>
+      </c>
+      <c r="D4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" s="8"/>
+        <v>88</v>
+      </c>
+      <c r="D5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="8"/>
+        <v>90</v>
+      </c>
+      <c r="D6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" s="8"/>
+        <v>93</v>
+      </c>
+      <c r="D7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D8" s="8"/>
+        <v>96</v>
+      </c>
+      <c r="D8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="8"/>
+        <v>98</v>
+      </c>
+      <c r="D9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" s="8"/>
+        <v>100</v>
+      </c>
+      <c r="D10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11" s="8"/>
+        <v>102</v>
+      </c>
+      <c r="D11" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D12" s="8"/>
+        <v>104</v>
+      </c>
+      <c r="D12" s="9"/>
     </row>
     <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D13" s="8"/>
+        <v>106</v>
+      </c>
+      <c r="D13" s="9"/>
     </row>
     <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D14" s="8"/>
+        <v>109</v>
+      </c>
+      <c r="D14" s="9"/>
     </row>
     <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D15" s="8"/>
-    </row>
-    <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D16" s="8"/>
-    </row>
-    <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D17" s="8"/>
-    </row>
-    <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="C18" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D18" s="8"/>
+        <v>118</v>
+      </c>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9" t="s">
-        <v>117</v>
+      <c r="A19" s="10" t="s">
+        <v>119</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D19" s="8"/>
+        <v>120</v>
+      </c>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9" t="s">
-        <v>119</v>
+      <c r="A20" s="10" t="s">
+        <v>121</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D20" s="8"/>
+        <v>122</v>
+      </c>
+      <c r="D20" s="9"/>
     </row>
     <row r="21" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9" t="s">
-        <v>121</v>
+      <c r="A21" s="10" t="s">
+        <v>123</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D21" s="8"/>
+        <v>124</v>
+      </c>
+      <c r="D21" s="9"/>
     </row>
     <row r="22" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9" t="s">
-        <v>123</v>
+      <c r="A22" s="10" t="s">
+        <v>125</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D22" s="8"/>
+        <v>126</v>
+      </c>
+      <c r="D22" s="9"/>
     </row>
     <row r="23" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>68</v>
+      <c r="A23" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>70</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D23" s="8"/>
+        <v>128</v>
+      </c>
+      <c r="D23" s="9"/>
     </row>
     <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9" t="s">
-        <v>127</v>
+      <c r="A24" s="10" t="s">
+        <v>129</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D24" s="8"/>
+        <v>130</v>
+      </c>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9" t="s">
-        <v>129</v>
+      <c r="A25" s="10" t="s">
+        <v>131</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D25" s="8"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="D25" s="9"/>
+    </row>
+    <row r="26" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D26" s="8"/>
+        <v>134</v>
+      </c>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9" t="s">
-        <v>133</v>
+      <c r="A27" s="10" t="s">
+        <v>135</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D27" s="8"/>
+        <v>136</v>
+      </c>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="9" t="s">
-        <v>135</v>
+      <c r="A28" s="10" t="s">
+        <v>137</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
-      <c r="D28" s="8"/>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="9" t="s">
-        <v>136</v>
+      <c r="A29" s="10" t="s">
+        <v>138</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="5"/>
-      <c r="D29" s="8"/>
+      <c r="D29" s="9"/>
     </row>
     <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="9" t="s">
-        <v>137</v>
+      <c r="A30" s="10" t="s">
+        <v>139</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D30" s="8"/>
+        <v>140</v>
+      </c>
+      <c r="D30" s="9"/>
     </row>
     <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="9" t="s">
-        <v>139</v>
+      <c r="A31" s="10" t="s">
+        <v>141</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="D31" s="8"/>
+        <v>142</v>
+      </c>
+      <c r="D31" s="9"/>
     </row>
     <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="9" t="s">
-        <v>125</v>
+      <c r="A32" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D32" s="8"/>
+        <v>128</v>
+      </c>
+      <c r="D32" s="9"/>
     </row>
     <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="9" t="s">
-        <v>127</v>
+      <c r="A33" s="10" t="s">
+        <v>129</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D33" s="8"/>
+        <v>130</v>
+      </c>
+      <c r="D33" s="9"/>
     </row>
     <row r="34" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="9" t="s">
-        <v>129</v>
+      <c r="A34" s="10" t="s">
+        <v>131</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D34" s="8"/>
+        <v>132</v>
+      </c>
+      <c r="D34" s="9"/>
     </row>
     <row r="35" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="9" t="s">
-        <v>131</v>
+      <c r="A35" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D35" s="8"/>
+        <v>134</v>
+      </c>
+      <c r="D35" s="9"/>
     </row>
     <row r="36" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="9" t="s">
-        <v>133</v>
+      <c r="A36" s="10" t="s">
+        <v>135</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D36" s="8"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="9" t="s">
-        <v>141</v>
+        <v>136</v>
+      </c>
+      <c r="D36" s="9"/>
+    </row>
+    <row r="37" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="10" t="s">
+        <v>143</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="5"/>
-      <c r="D37" s="8"/>
+      <c r="D37" s="9"/>
     </row>
     <row r="38" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="9" t="s">
-        <v>142</v>
+      <c r="A38" s="10" t="s">
+        <v>144</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="8"/>
+      <c r="D38" s="9"/>
     </row>
     <row r="39" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="9" t="s">
-        <v>143</v>
+      <c r="A39" s="10" t="s">
+        <v>145</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="5"/>
-      <c r="D39" s="8"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="D39" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D2:D39"/>
@@ -7458,7 +7544,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -7473,288 +7559,288 @@
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>635</v>
+        <v>651</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="12" t="s">
-        <v>636</v>
+      <c r="D2" s="13" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>637</v>
+        <v>653</v>
       </c>
       <c r="C3" s="5"/>
-      <c r="D3" s="12"/>
+      <c r="D3" s="13"/>
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>638</v>
+        <v>654</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="5"/>
-      <c r="D4" s="12"/>
+      <c r="D4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>639</v>
+        <v>655</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="12"/>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>640</v>
+        <v>656</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="12"/>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>641</v>
+        <v>657</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="12"/>
+      <c r="D7" s="13"/>
     </row>
     <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>642</v>
+        <v>658</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="12"/>
+      <c r="D8" s="13"/>
     </row>
     <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>643</v>
+        <v>659</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C9" s="5"/>
-      <c r="D9" s="12"/>
+      <c r="D9" s="13"/>
     </row>
     <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>644</v>
+        <v>660</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="12"/>
+      <c r="D10" s="13"/>
     </row>
     <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>645</v>
+        <v>661</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="12"/>
+      <c r="D11" s="13"/>
     </row>
     <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>646</v>
+        <v>662</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="12"/>
+      <c r="D12" s="13"/>
     </row>
     <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="12"/>
+      <c r="D13" s="13"/>
     </row>
     <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="12"/>
+      <c r="D14" s="13"/>
     </row>
     <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="12"/>
+      <c r="D15" s="13"/>
     </row>
     <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="12"/>
+      <c r="D16" s="13"/>
     </row>
     <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="12"/>
+      <c r="D17" s="13"/>
     </row>
     <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="12"/>
+      <c r="D18" s="13"/>
     </row>
     <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="12"/>
+      <c r="D19" s="13"/>
     </row>
     <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="12"/>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="12"/>
+      <c r="D21" s="13"/>
     </row>
     <row r="22" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
-      <c r="D22" s="12"/>
+      <c r="D22" s="13"/>
     </row>
     <row r="23" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="12"/>
+      <c r="D23" s="13"/>
     </row>
     <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="12"/>
+      <c r="D24" s="13"/>
     </row>
     <row r="25" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="12"/>
+      <c r="D25" s="13"/>
     </row>
     <row r="26" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="12"/>
+      <c r="D26" s="13"/>
     </row>
     <row r="27" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
-      <c r="D27" s="12"/>
+      <c r="D27" s="13"/>
     </row>
     <row r="28" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
-      <c r="D28" s="12"/>
+      <c r="D28" s="13"/>
     </row>
     <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
-      <c r="D29" s="12"/>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
-      <c r="D30" s="12"/>
+      <c r="D30" s="13"/>
     </row>
     <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
-      <c r="D31" s="12"/>
+      <c r="D31" s="13"/>
     </row>
     <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="12"/>
+      <c r="D32" s="13"/>
     </row>
     <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
-      <c r="D33" s="12"/>
+      <c r="D33" s="13"/>
     </row>
     <row r="34" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="12"/>
+      <c r="D34" s="13"/>
     </row>
     <row r="35" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
-      <c r="D35" s="12"/>
+      <c r="D35" s="13"/>
     </row>
     <row r="36" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
-      <c r="D36" s="12"/>
+      <c r="D36" s="13"/>
     </row>
     <row r="37" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
-      <c r="D37" s="12"/>
+      <c r="D37" s="13"/>
     </row>
     <row r="38" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="12"/>
+      <c r="D38" s="13"/>
     </row>
     <row r="39" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
-      <c r="D39" s="12"/>
+      <c r="D39" s="13"/>
     </row>
     <row r="40" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
-      <c r="D40" s="12"/>
+      <c r="D40" s="13"/>
     </row>
     <row r="41" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
-      <c r="D41" s="12"/>
+      <c r="D41" s="13"/>
     </row>
     <row r="42" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
-      <c r="D42" s="12"/>
+      <c r="D42" s="13"/>
     </row>
     <row r="43" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="5"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7783,15 +7869,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.1683673469388"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.5"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.3367346938776"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="40.6581632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.8265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.8265306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -7806,362 +7888,362 @@
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="12" t="s">
-        <v>145</v>
+      <c r="D2" s="13" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C3" s="5"/>
-      <c r="D3" s="12"/>
+      <c r="D3" s="13"/>
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="D4" s="12"/>
+        <v>150</v>
+      </c>
+      <c r="D4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="D5" s="12"/>
+        <v>153</v>
+      </c>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="D6" s="12"/>
+        <v>156</v>
+      </c>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>153</v>
-      </c>
       <c r="C7" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="D7" s="12"/>
+        <v>158</v>
+      </c>
+      <c r="D7" s="13"/>
     </row>
     <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="D8" s="12"/>
+        <v>160</v>
+      </c>
+      <c r="D8" s="13"/>
     </row>
     <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="D9" s="12"/>
+        <v>162</v>
+      </c>
+      <c r="D9" s="13"/>
     </row>
     <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="D10" s="12"/>
+        <v>164</v>
+      </c>
+      <c r="D10" s="13"/>
     </row>
     <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="D11" s="12"/>
+        <v>166</v>
+      </c>
+      <c r="D11" s="13"/>
     </row>
     <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="D12" s="12"/>
+        <v>168</v>
+      </c>
+      <c r="D12" s="13"/>
     </row>
     <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="12"/>
+      <c r="D13" s="13"/>
     </row>
     <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="12"/>
+      <c r="D14" s="13"/>
     </row>
     <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="12"/>
+      <c r="D15" s="13"/>
     </row>
     <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="12"/>
+      <c r="D16" s="13"/>
     </row>
     <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="D17" s="12"/>
+        <v>174</v>
+      </c>
+      <c r="D17" s="13"/>
     </row>
     <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="D18" s="12"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>175</v>
+      </c>
+      <c r="D18" s="13"/>
+    </row>
+    <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>153</v>
-      </c>
       <c r="C19" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="D19" s="12"/>
+        <v>176</v>
+      </c>
+      <c r="D19" s="13"/>
     </row>
     <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="D20" s="12"/>
+        <v>178</v>
+      </c>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D21" s="12"/>
+        <v>180</v>
+      </c>
+      <c r="D21" s="13"/>
     </row>
     <row r="22" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
-      <c r="D22" s="12"/>
+      <c r="D22" s="13"/>
     </row>
     <row r="23" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="12"/>
+      <c r="D23" s="13"/>
     </row>
     <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="12"/>
+      <c r="D24" s="13"/>
     </row>
     <row r="25" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="12"/>
+      <c r="D25" s="13"/>
     </row>
     <row r="26" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="12"/>
+      <c r="D26" s="13"/>
     </row>
     <row r="27" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
-      <c r="D27" s="12"/>
+      <c r="D27" s="13"/>
     </row>
     <row r="28" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
-      <c r="D28" s="12"/>
+      <c r="D28" s="13"/>
     </row>
     <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
-      <c r="D29" s="12"/>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
-      <c r="D30" s="12"/>
+      <c r="D30" s="13"/>
     </row>
     <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
-      <c r="D31" s="12"/>
+      <c r="D31" s="13"/>
     </row>
     <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="12"/>
+      <c r="D32" s="13"/>
     </row>
     <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
-      <c r="D33" s="12"/>
+      <c r="D33" s="13"/>
     </row>
     <row r="34" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="12"/>
+      <c r="D34" s="13"/>
     </row>
     <row r="35" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
-      <c r="D35" s="12"/>
+      <c r="D35" s="13"/>
     </row>
     <row r="36" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
-      <c r="D36" s="12"/>
+      <c r="D36" s="13"/>
     </row>
     <row r="37" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
-      <c r="D37" s="12"/>
+      <c r="D37" s="13"/>
     </row>
     <row r="38" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="12"/>
+      <c r="D38" s="13"/>
     </row>
     <row r="39" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
-      <c r="D39" s="12"/>
+      <c r="D39" s="13"/>
     </row>
     <row r="40" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
-      <c r="D40" s="12"/>
+      <c r="D40" s="13"/>
     </row>
     <row r="41" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
-      <c r="D41" s="12"/>
+      <c r="D41" s="13"/>
     </row>
     <row r="42" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
-      <c r="D42" s="12"/>
+      <c r="D42" s="13"/>
     </row>
     <row r="43" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="5"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8190,15 +8272,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="55.5918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.0765306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="45.6020408163265"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="78.7551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.8265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.8265306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11"/>
+      <c r="A1" s="12"/>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -8211,144 +8289,144 @@
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>187</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="D3" s="12"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>190</v>
+      </c>
+      <c r="D3" s="13"/>
+    </row>
+    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="D4" s="12"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>192</v>
+      </c>
+      <c r="D4" s="13"/>
+    </row>
+    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D5" s="12"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>194</v>
+      </c>
+      <c r="D5" s="13"/>
+    </row>
+    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D6" s="12"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>196</v>
+      </c>
+      <c r="D6" s="13"/>
+    </row>
+    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="D7" s="12"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>199</v>
+      </c>
+      <c r="D7" s="13"/>
+    </row>
+    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="D8" s="12"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>201</v>
+      </c>
+      <c r="D8" s="13"/>
+    </row>
+    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="D9" s="12"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>203</v>
+      </c>
+      <c r="D9" s="13"/>
+    </row>
+    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="D10" s="12"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>206</v>
+      </c>
+      <c r="D10" s="13"/>
+    </row>
+    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="D11" s="12"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>207</v>
+      </c>
+      <c r="D11" s="13"/>
+    </row>
+    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="D12" s="12"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>208</v>
+      </c>
+      <c r="D12" s="13"/>
+    </row>
+    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="D13" s="12"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>211</v>
+      </c>
+      <c r="D13" s="13"/>
+    </row>
+    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -8356,257 +8434,257 @@
       <c r="C14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="12"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D14" s="13"/>
+    </row>
+    <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="12"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+      <c r="D15" s="13"/>
+    </row>
+    <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="D16" s="12"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>216</v>
+      </c>
+      <c r="D16" s="13"/>
+    </row>
+    <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="D17" s="12"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>219</v>
+      </c>
+      <c r="D17" s="13"/>
+    </row>
+    <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>216</v>
-      </c>
       <c r="C18" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="D18" s="12"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>221</v>
+      </c>
+      <c r="D18" s="13"/>
+    </row>
+    <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="12"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D19" s="13"/>
+    </row>
+    <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="12"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D20" s="13"/>
+    </row>
+    <row r="21" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="12"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D21" s="13"/>
+    </row>
+    <row r="22" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
-      <c r="D22" s="12"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D22" s="13"/>
+    </row>
+    <row r="23" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="12"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D23" s="13"/>
+    </row>
+    <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="12"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D24" s="13"/>
+    </row>
+    <row r="25" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="12"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D25" s="13"/>
+    </row>
+    <row r="26" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="12"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D26" s="13"/>
+    </row>
+    <row r="27" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
-      <c r="D27" s="12"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D27" s="13"/>
+    </row>
+    <row r="28" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
-      <c r="D28" s="12"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D28" s="13"/>
+    </row>
+    <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
-      <c r="D29" s="12"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D29" s="13"/>
+    </row>
+    <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
-      <c r="D30" s="12"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D30" s="13"/>
+    </row>
+    <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
-      <c r="D31" s="12"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D31" s="13"/>
+    </row>
+    <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="12"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D32" s="13"/>
+    </row>
+    <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
-      <c r="D33" s="12"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D33" s="13"/>
+    </row>
+    <row r="34" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="12"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D34" s="13"/>
+    </row>
+    <row r="35" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
-      <c r="D35" s="12"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D35" s="13"/>
+    </row>
+    <row r="36" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
-      <c r="D36" s="12"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D36" s="13"/>
+    </row>
+    <row r="37" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
-      <c r="D37" s="12"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D37" s="13"/>
+    </row>
+    <row r="38" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="12"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D38" s="13"/>
+    </row>
+    <row r="39" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
-      <c r="D39" s="12"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D39" s="13"/>
+    </row>
+    <row r="40" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
-      <c r="D40" s="12"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D40" s="13"/>
+    </row>
+    <row r="41" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
-      <c r="D41" s="12"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D41" s="13"/>
+    </row>
+    <row r="42" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
-      <c r="D42" s="12"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D42" s="13"/>
+    </row>
+    <row r="43" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
-      <c r="D43" s="12"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D43" s="13"/>
+    </row>
+    <row r="44" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
-      <c r="D44" s="12"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D44" s="13"/>
+    </row>
+    <row r="45" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="5"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8639,7 +8717,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -8654,263 +8732,263 @@
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C2" s="5"/>
-      <c r="D2" s="12" t="s">
-        <v>235</v>
+      <c r="D2" s="13" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C3" s="5"/>
-      <c r="D3" s="12"/>
+      <c r="D3" s="13"/>
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="D4" s="12"/>
+        <v>242</v>
+      </c>
+      <c r="D4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D5" s="12"/>
+        <v>108</v>
+      </c>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="12"/>
+        <v>16</v>
+      </c>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="12"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D7" s="13"/>
+    </row>
+    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="12"/>
+      <c r="D8" s="13"/>
     </row>
     <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="12"/>
+      <c r="D9" s="13"/>
     </row>
     <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="12"/>
+      <c r="D10" s="13"/>
     </row>
     <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="12"/>
+      <c r="D11" s="13"/>
     </row>
     <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="12"/>
+      <c r="D12" s="13"/>
     </row>
     <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="12"/>
+      <c r="D13" s="13"/>
     </row>
     <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="12"/>
+      <c r="D14" s="13"/>
     </row>
     <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="12"/>
+      <c r="D15" s="13"/>
     </row>
     <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="12"/>
+      <c r="D16" s="13"/>
     </row>
     <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="12"/>
+      <c r="D17" s="13"/>
     </row>
     <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="12"/>
+      <c r="D18" s="13"/>
     </row>
     <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="12"/>
+      <c r="D19" s="13"/>
     </row>
     <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="12"/>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="12"/>
+      <c r="D21" s="13"/>
     </row>
     <row r="22" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
-      <c r="D22" s="12"/>
+      <c r="D22" s="13"/>
     </row>
     <row r="23" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="12"/>
+      <c r="D23" s="13"/>
     </row>
     <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="12"/>
+      <c r="D24" s="13"/>
     </row>
     <row r="25" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="12"/>
+      <c r="D25" s="13"/>
     </row>
     <row r="26" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="12"/>
+      <c r="D26" s="13"/>
     </row>
     <row r="27" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
-      <c r="D27" s="12"/>
+      <c r="D27" s="13"/>
     </row>
     <row r="28" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
-      <c r="D28" s="12"/>
+      <c r="D28" s="13"/>
     </row>
     <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
-      <c r="D29" s="12"/>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
-      <c r="D30" s="12"/>
+      <c r="D30" s="13"/>
     </row>
     <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
-      <c r="D31" s="12"/>
+      <c r="D31" s="13"/>
     </row>
     <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="12"/>
+      <c r="D32" s="13"/>
     </row>
     <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
-      <c r="D33" s="12"/>
+      <c r="D33" s="13"/>
     </row>
     <row r="34" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="12"/>
+      <c r="D34" s="13"/>
     </row>
     <row r="35" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
-      <c r="D35" s="12"/>
+      <c r="D35" s="13"/>
     </row>
     <row r="36" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
-      <c r="D36" s="12"/>
+      <c r="D36" s="13"/>
     </row>
     <row r="37" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
-      <c r="D37" s="12"/>
+      <c r="D37" s="13"/>
     </row>
     <row r="38" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="12"/>
+      <c r="D38" s="13"/>
     </row>
     <row r="39" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
-      <c r="D39" s="12"/>
+      <c r="D39" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8943,7 +9021,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -8958,45 +9036,45 @@
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C2" s="5"/>
-      <c r="D2" s="12" t="s">
-        <v>249</v>
+      <c r="D2" s="13" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>251</v>
+        <v>252</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>253</v>
       </c>
       <c r="C3" s="5"/>
-      <c r="D3" s="12" t="s">
-        <v>252</v>
+      <c r="D3" s="13" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>255</v>
+      <c r="D4" s="13" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>11</v>
@@ -9004,283 +9082,283 @@
       <c r="C5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>257</v>
+      <c r="D5" s="13" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>259</v>
+        <v>25</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>255</v>
+        <v>25</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>257</v>
+        <v>108</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>264</v>
+        <v>155</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>267</v>
+        <v>155</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>271</v>
+        <v>272</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="12" t="s">
-        <v>273</v>
+      <c r="D12" s="13" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="12" t="s">
-        <v>275</v>
+      <c r="D13" s="13" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="12" t="s">
-        <v>276</v>
+      <c r="D14" s="13" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="12" t="s">
-        <v>277</v>
+      <c r="D15" s="13" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="12" t="s">
-        <v>278</v>
+      <c r="D16" s="13" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="12" t="s">
-        <v>276</v>
+      <c r="D17" s="13" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="12" t="s">
-        <v>277</v>
+      <c r="D18" s="13" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="12" t="s">
-        <v>278</v>
+      <c r="D19" s="13" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="12" t="s">
-        <v>279</v>
+      <c r="D20" s="13" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="12"/>
+      <c r="D21" s="13"/>
     </row>
     <row r="22" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
-      <c r="D22" s="12"/>
+      <c r="D22" s="13"/>
     </row>
     <row r="23" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="12"/>
+      <c r="D23" s="13"/>
     </row>
     <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="12"/>
+      <c r="D24" s="13"/>
     </row>
     <row r="25" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="12"/>
+      <c r="D25" s="13"/>
     </row>
     <row r="26" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="12"/>
+      <c r="D26" s="13"/>
     </row>
     <row r="27" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
-      <c r="D27" s="12"/>
+      <c r="D27" s="13"/>
     </row>
     <row r="28" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
-      <c r="D28" s="12"/>
+      <c r="D28" s="13"/>
     </row>
     <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
-      <c r="D29" s="12"/>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
-      <c r="D30" s="12"/>
+      <c r="D30" s="13"/>
     </row>
     <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
-      <c r="D31" s="12"/>
+      <c r="D31" s="13"/>
     </row>
     <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="12"/>
+      <c r="D32" s="13"/>
     </row>
     <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
-      <c r="D33" s="12"/>
+      <c r="D33" s="13"/>
     </row>
     <row r="34" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="12"/>
+      <c r="D34" s="13"/>
     </row>
     <row r="35" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
-      <c r="D35" s="12"/>
+      <c r="D35" s="13"/>
     </row>
     <row r="36" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
-      <c r="D36" s="12"/>
+      <c r="D36" s="13"/>
     </row>
     <row r="37" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
-      <c r="D37" s="12"/>
+      <c r="D37" s="13"/>
     </row>
     <row r="38" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="12"/>
+      <c r="D38" s="13"/>
     </row>
     <row r="39" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
-      <c r="D39" s="12"/>
+      <c r="D39" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9309,12 +9387,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="14" width="8.8265306122449"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="15" width="8.8265306122449"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.8265306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -9329,312 +9407,312 @@
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>282</v>
+        <v>283</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="D3" s="12"/>
+        <v>286</v>
+      </c>
+      <c r="D3" s="13"/>
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="D4" s="12"/>
+        <v>288</v>
+      </c>
+      <c r="D4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="D5" s="12"/>
+        <v>291</v>
+      </c>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="D6" s="12"/>
+        <v>293</v>
+      </c>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="D7" s="12"/>
+        <v>295</v>
+      </c>
+      <c r="D7" s="13"/>
     </row>
     <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="D8" s="12"/>
+        <v>297</v>
+      </c>
+      <c r="D8" s="13"/>
     </row>
     <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="D9" s="12"/>
+        <v>298</v>
+      </c>
+      <c r="D9" s="13"/>
     </row>
     <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="D10" s="12"/>
+        <v>300</v>
+      </c>
+      <c r="D10" s="13"/>
     </row>
     <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="D11" s="12"/>
+        <v>302</v>
+      </c>
+      <c r="D11" s="13"/>
     </row>
     <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="D12" s="12"/>
+        <v>304</v>
+      </c>
+      <c r="D12" s="13"/>
     </row>
     <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="D13" s="12"/>
+        <v>306</v>
+      </c>
+      <c r="D13" s="13"/>
     </row>
     <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="D14" s="12"/>
+        <v>308</v>
+      </c>
+      <c r="D14" s="13"/>
     </row>
     <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="D15" s="12"/>
+        <v>310</v>
+      </c>
+      <c r="D15" s="13"/>
     </row>
     <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="D16" s="12"/>
+        <v>312</v>
+      </c>
+      <c r="D16" s="13"/>
     </row>
     <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="D17" s="12"/>
+        <v>314</v>
+      </c>
+      <c r="D17" s="13"/>
     </row>
     <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="D18" s="12"/>
+        <v>316</v>
+      </c>
+      <c r="D18" s="13"/>
     </row>
     <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="D19" s="12"/>
+        <v>318</v>
+      </c>
+      <c r="D19" s="13"/>
     </row>
     <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="D20" s="12"/>
+        <v>320</v>
+      </c>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="D21" s="12"/>
+        <v>322</v>
+      </c>
+      <c r="D21" s="13"/>
     </row>
     <row r="22" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="D22" s="12"/>
-    </row>
-    <row r="23" s="14" customFormat="true" ht="11" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>324</v>
+      </c>
+      <c r="D22" s="13"/>
+    </row>
+    <row r="23" s="15" customFormat="true" ht="11" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="D23" s="12"/>
-    </row>
-    <row r="24" s="14" customFormat="true" ht="11" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>326</v>
+      </c>
+      <c r="D23" s="13"/>
+    </row>
+    <row r="24" s="15" customFormat="true" ht="11" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="D24" s="12"/>
+        <v>328</v>
+      </c>
+      <c r="D24" s="13"/>
     </row>
     <row r="25" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="D25" s="12"/>
+        <v>329</v>
+      </c>
+      <c r="D25" s="13"/>
     </row>
     <row r="26" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="D26" s="12"/>
+        <v>330</v>
+      </c>
+      <c r="D26" s="13"/>
     </row>
     <row r="27" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="D27" s="12"/>
+        <v>331</v>
+      </c>
+      <c r="D27" s="13"/>
     </row>
     <row r="28" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -9642,135 +9720,135 @@
       <c r="C28" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="12"/>
+      <c r="D28" s="13"/>
     </row>
     <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="12"/>
+        <v>14</v>
+      </c>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" s="12"/>
+        <v>38</v>
+      </c>
+      <c r="D30" s="13"/>
     </row>
     <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="D31" s="12"/>
+        <v>336</v>
+      </c>
+      <c r="D31" s="13"/>
     </row>
     <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="12"/>
+        <v>50</v>
+      </c>
+      <c r="D32" s="13"/>
     </row>
     <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33" s="12"/>
+        <v>32</v>
+      </c>
+      <c r="D33" s="13"/>
     </row>
     <row r="34" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="D34" s="12"/>
+        <v>340</v>
+      </c>
+      <c r="D34" s="13"/>
     </row>
     <row r="35" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="D35" s="12"/>
+        <v>342</v>
+      </c>
+      <c r="D35" s="13"/>
     </row>
     <row r="36" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="D36" s="12"/>
+        <v>302</v>
+      </c>
+      <c r="D36" s="13"/>
     </row>
     <row r="37" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
-      <c r="D37" s="12"/>
+      <c r="D37" s="13"/>
     </row>
     <row r="38" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="12"/>
+      <c r="D38" s="13"/>
     </row>
     <row r="39" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
-      <c r="D39" s="12"/>
+      <c r="D39" s="13"/>
     </row>
     <row r="40" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
+        <v>344</v>
+      </c>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9818,209 +9896,209 @@
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>345</v>
+        <v>346</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="D3" s="12"/>
+        <v>349</v>
+      </c>
+      <c r="D3" s="13"/>
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="D4" s="12"/>
+        <v>288</v>
+      </c>
+      <c r="D4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="D5" s="12"/>
+        <v>293</v>
+      </c>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="D6" s="12"/>
+        <v>297</v>
+      </c>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="D7" s="12"/>
+        <v>354</v>
+      </c>
+      <c r="D7" s="13"/>
     </row>
     <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="D8" s="12"/>
+        <v>308</v>
+      </c>
+      <c r="D8" s="13"/>
     </row>
     <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="D9" s="12"/>
+        <v>310</v>
+      </c>
+      <c r="D9" s="13"/>
     </row>
     <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="D10" s="12"/>
+        <v>359</v>
+      </c>
+      <c r="D10" s="13"/>
     </row>
     <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>356</v>
-      </c>
       <c r="C11" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="D11" s="12"/>
+        <v>361</v>
+      </c>
+      <c r="D11" s="13"/>
     </row>
     <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="D12" s="12"/>
+        <v>363</v>
+      </c>
+      <c r="D12" s="13"/>
     </row>
     <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="D13" s="12"/>
+        <v>365</v>
+      </c>
+      <c r="D13" s="13"/>
     </row>
     <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="D14" s="12"/>
+        <v>367</v>
+      </c>
+      <c r="D14" s="13"/>
     </row>
     <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="D15" s="12"/>
+        <v>369</v>
+      </c>
+      <c r="D15" s="13"/>
     </row>
     <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="D16" s="12"/>
+        <v>371</v>
+      </c>
+      <c r="D16" s="13"/>
     </row>
     <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="12"/>
+      <c r="D17" s="13"/>
     </row>
     <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="12"/>
+      <c r="D18" s="13"/>
     </row>
     <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="12"/>
+      <c r="D19" s="13"/>
     </row>
     <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="12"/>
+      <c r="D20" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10053,7 +10131,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -10068,376 +10146,376 @@
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>376</v>
+        <v>377</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="D3" s="12"/>
+        <v>380</v>
+      </c>
+      <c r="D3" s="13"/>
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="D4" s="12"/>
+        <v>382</v>
+      </c>
+      <c r="D4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="D5" s="12"/>
+        <v>384</v>
+      </c>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="D6" s="12"/>
+        <v>386</v>
+      </c>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="D7" s="12"/>
+        <v>388</v>
+      </c>
+      <c r="D7" s="13"/>
     </row>
     <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="D8" s="12"/>
+        <v>390</v>
+      </c>
+      <c r="D8" s="13"/>
     </row>
     <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="D9" s="12"/>
+        <v>392</v>
+      </c>
+      <c r="D9" s="13"/>
     </row>
     <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="D10" s="12"/>
+        <v>394</v>
+      </c>
+      <c r="D10" s="13"/>
     </row>
     <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="D11" s="12"/>
+        <v>396</v>
+      </c>
+      <c r="D11" s="13"/>
     </row>
     <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="D12" s="12"/>
+        <v>398</v>
+      </c>
+      <c r="D12" s="13"/>
     </row>
     <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="D13" s="12"/>
+        <v>400</v>
+      </c>
+      <c r="D13" s="13"/>
     </row>
     <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="D14" s="12"/>
+        <v>384</v>
+      </c>
+      <c r="D14" s="13"/>
     </row>
     <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="D15" s="12"/>
+        <v>402</v>
+      </c>
+      <c r="D15" s="13"/>
     </row>
     <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="D16" s="12"/>
+        <v>394</v>
+      </c>
+      <c r="D16" s="13"/>
     </row>
     <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="D17" s="12"/>
+        <v>396</v>
+      </c>
+      <c r="D17" s="13"/>
     </row>
     <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="12"/>
+      <c r="D18" s="13"/>
     </row>
     <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="12"/>
+      <c r="D19" s="13"/>
     </row>
     <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="12"/>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="12"/>
+      <c r="D21" s="13"/>
     </row>
     <row r="22" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
-      <c r="D22" s="12"/>
+      <c r="D22" s="13"/>
     </row>
     <row r="23" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="12"/>
+      <c r="D23" s="13"/>
     </row>
     <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="12"/>
+      <c r="D24" s="13"/>
     </row>
     <row r="25" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="12"/>
+      <c r="D25" s="13"/>
     </row>
     <row r="26" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="12"/>
+      <c r="D26" s="13"/>
     </row>
     <row r="27" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
-      <c r="D27" s="12"/>
+      <c r="D27" s="13"/>
     </row>
     <row r="28" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
-      <c r="D28" s="12"/>
+      <c r="D28" s="13"/>
     </row>
     <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
-      <c r="D29" s="12"/>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
-      <c r="D30" s="12"/>
+      <c r="D30" s="13"/>
     </row>
     <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
-      <c r="D31" s="12"/>
+      <c r="D31" s="13"/>
     </row>
     <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="12"/>
+      <c r="D32" s="13"/>
     </row>
     <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
-      <c r="D33" s="12"/>
+      <c r="D33" s="13"/>
     </row>
     <row r="34" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="12"/>
+      <c r="D34" s="13"/>
     </row>
     <row r="35" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
-      <c r="D35" s="12"/>
+      <c r="D35" s="13"/>
     </row>
     <row r="36" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
-      <c r="D36" s="12"/>
+      <c r="D36" s="13"/>
     </row>
     <row r="37" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
-      <c r="D37" s="12"/>
+      <c r="D37" s="13"/>
     </row>
     <row r="38" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="12"/>
+      <c r="D38" s="13"/>
     </row>
     <row r="39" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
-      <c r="D39" s="12"/>
+      <c r="D39" s="13"/>
     </row>
     <row r="40" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
-      <c r="D40" s="12"/>
+      <c r="D40" s="13"/>
     </row>
     <row r="41" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
-      <c r="D41" s="12"/>
+      <c r="D41" s="13"/>
     </row>
     <row r="42" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
-      <c r="D42" s="12"/>
+      <c r="D42" s="13"/>
     </row>
     <row r="43" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="5"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
